--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -22385,7 +22385,7 @@
 </x:v>
       </x:c>
       <x:c r="E1254" s="2" t="str">
-        <x:v>?</x:v>
+        <x:v>A complex element that hold information regarding the points possible per indicator to calculate scores for the EPPS.</x:v>
       </x:c>
     </x:row>
     <x:row r="1255">

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -48416,7 +48416,7 @@
         <x:v>EXTENSION-ProgramInformation</x:v>
       </x:c>
       <x:c r="B321" s="2" t="str">
-        <x:v>This is documentation.</x:v>
+        <x:v>Information about the program details for the teacher candidate.</x:v>
       </x:c>
     </x:row>
     <x:row r="322">

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -45030,7 +45030,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2531" s="2" t="str">
-        <x:v>EXTENSION-PerformanceMeasureFacts</x:v>
+        <x:v>EXTENSION-PerformanceMeasure</x:v>
       </x:c>
       <x:c r="D2531" s="2" t="str">
         <x:v>minOccurs: 0

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -9645,7 +9645,6 @@
       </x:c>
       <x:c r="D534" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E534" s="2" t="str">
@@ -41654,7 +41653,7 @@
         <x:v>EXTENSION-SurveyResponseReferenceType</x:v>
       </x:c>
       <x:c r="C2339" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionResponseIdentityType</x:v>
+        <x:v>EXTENSION-SurveySectionResponseRating</x:v>
       </x:c>
       <x:c r="D2339" s="2" t="str">
         <x:v/>
@@ -41688,7 +41687,7 @@
         <x:v>EXTENSION-SurveyResponseReferenceType</x:v>
       </x:c>
       <x:c r="C2341" s="2" t="str">
-        <x:v>EXTENSION-SurveySectionResponseRating</x:v>
+        <x:v>EXTENSION-SurveyQuestionResponseIdentityType</x:v>
       </x:c>
       <x:c r="D2341" s="2" t="str">
         <x:v/>
@@ -43117,7 +43116,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2423" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProviderIdentityType</x:v>
+        <x:v>EXTENSION-TeacherPreparationProvider</x:v>
       </x:c>
       <x:c r="D2423" s="2" t="str">
         <x:v/>
@@ -43134,7 +43133,7 @@
         <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2424" s="2" t="str">
-        <x:v>EXTENSION-TeacherPreparationProvider</x:v>
+        <x:v>EXTENSION-TeacherPreparationProviderIdentityType</x:v>
       </x:c>
       <x:c r="D2424" s="2" t="str">
         <x:v/>
@@ -43187,7 +43186,7 @@
         <x:v>EXTENSION-TeacherPreparationProviderProgramReferenceType</x:v>
       </x:c>
       <x:c r="C2427" s="2" t="str">
-        <x:v>EXTENSION-StaffTeacherPreparationProviderProgramAssociation</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociation</x:v>
       </x:c>
       <x:c r="D2427" s="2" t="str">
         <x:v/>
@@ -43238,7 +43237,7 @@
         <x:v>EXTENSION-TeacherPreparationProviderProgramReferenceType</x:v>
       </x:c>
       <x:c r="C2430" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderProgramAssociation</x:v>
+        <x:v>EXTENSION-StaffTeacherPreparationProviderProgramAssociation</x:v>
       </x:c>
       <x:c r="D2430" s="2" t="str">
         <x:v/>
@@ -43255,13 +43254,13 @@
         <x:v>EXTENSION-TeacherPreparationProviderReferenceType</x:v>
       </x:c>
       <x:c r="C2431" s="2" t="str">
-        <x:v>EXTENSION-StaffTeacherPreparationProviderAssociation</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2431" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2431" s="2" t="str">
-        <x:v>The TeacherPreparationProvider for the association</x:v>
+        <x:v>Teacher Preparation Provider for the association</x:v>
       </x:c>
     </x:row>
     <x:row r="2432">
@@ -43272,13 +43271,13 @@
         <x:v>EXTENSION-TeacherPreparationProviderReferenceType</x:v>
       </x:c>
       <x:c r="C2432" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociation</x:v>
+        <x:v>EXTENSION-StaffTeacherPreparationProviderAssociationIdentityType</x:v>
       </x:c>
       <x:c r="D2432" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2432" s="2" t="str">
-        <x:v>Teacher Preparation Provider for the association</x:v>
+        <x:v>The TeacherPreparationProvider for the association</x:v>
       </x:c>
     </x:row>
     <x:row r="2433">
@@ -43289,13 +43288,13 @@
         <x:v>EXTENSION-TeacherPreparationProviderReferenceType</x:v>
       </x:c>
       <x:c r="C2433" s="2" t="str">
-        <x:v>EXTENSION-StaffTeacherPreparationProviderAssociationIdentityType</x:v>
+        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociation</x:v>
       </x:c>
       <x:c r="D2433" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2433" s="2" t="str">
-        <x:v>The TeacherPreparationProvider for the association</x:v>
+        <x:v>Teacher Preparation Provider for the association</x:v>
       </x:c>
     </x:row>
     <x:row r="2434">
@@ -43306,13 +43305,13 @@
         <x:v>EXTENSION-TeacherPreparationProviderReferenceType</x:v>
       </x:c>
       <x:c r="C2434" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateTeacherPreparationProviderAssociationIdentityType</x:v>
+        <x:v>EXTENSION-StaffTeacherPreparationProviderAssociation</x:v>
       </x:c>
       <x:c r="D2434" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2434" s="2" t="str">
-        <x:v>Teacher Preparation Provider for the association</x:v>
+        <x:v>The TeacherPreparationProvider for the association</x:v>
       </x:c>
     </x:row>
     <x:row r="2435">
@@ -43359,7 +43358,7 @@
         <x:v>TeachingCredentialDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2437" s="2" t="str">
-        <x:v>EXTENSION-Recommendation</x:v>
+        <x:v>Credential</x:v>
       </x:c>
       <x:c r="D2437" s="2" t="str">
         <x:v/>
@@ -43376,7 +43375,7 @@
         <x:v>TeachingCredentialDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2438" s="2" t="str">
-        <x:v>Credential</x:v>
+        <x:v>EXTENSION-Recommendation</x:v>
       </x:c>
       <x:c r="D2438" s="2" t="str">
         <x:v/>
@@ -43429,11 +43428,10 @@
         <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2441" s="2" t="str">
-        <x:v>Student</x:v>
+        <x:v>StaffLookupType</x:v>
       </x:c>
       <x:c r="D2441" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2441" s="2" t="str">
@@ -43448,11 +43446,10 @@
         <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2442" s="2" t="str">
-        <x:v>Staff</x:v>
+        <x:v>ParentLookupType</x:v>
       </x:c>
       <x:c r="D2442" s="2" t="str">
         <x:v>minOccurs: 0
-maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2442" s="2" t="str">
@@ -43467,7 +43464,7 @@
         <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2443" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidate</x:v>
+        <x:v>Student</x:v>
       </x:c>
       <x:c r="D2443" s="2" t="str">
         <x:v>minOccurs: 0
@@ -43486,7 +43483,7 @@
         <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2444" s="2" t="str">
-        <x:v>EXTENSION-Prospect</x:v>
+        <x:v>Staff</x:v>
       </x:c>
       <x:c r="D2444" s="2" t="str">
         <x:v>minOccurs: 0
@@ -43505,7 +43502,7 @@
         <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2445" s="2" t="str">
-        <x:v>Parent</x:v>
+        <x:v>EXTENSION-Applicant</x:v>
       </x:c>
       <x:c r="D2445" s="2" t="str">
         <x:v>minOccurs: 0
@@ -43524,10 +43521,11 @@
         <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2446" s="2" t="str">
-        <x:v>StaffLookupType</x:v>
+        <x:v>EXTENSION-TeacherCandidate</x:v>
       </x:c>
       <x:c r="D2446" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2446" s="2" t="str">
@@ -43542,10 +43540,11 @@
         <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2447" s="2" t="str">
-        <x:v>ParentLookupType</x:v>
+        <x:v>EXTENSION-Prospect</x:v>
       </x:c>
       <x:c r="D2447" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E2447" s="2" t="str">
@@ -43560,7 +43559,7 @@
         <x:v>Telephone</x:v>
       </x:c>
       <x:c r="C2448" s="2" t="str">
-        <x:v>EXTENSION-Applicant</x:v>
+        <x:v>Parent</x:v>
       </x:c>
       <x:c r="D2448" s="2" t="str">
         <x:v>minOccurs: 0
@@ -43666,7 +43665,7 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2454" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateAcademicRecordIdentityType</x:v>
+        <x:v>StudentAcademicRecord</x:v>
       </x:c>
       <x:c r="D2454" s="2" t="str">
         <x:v/>
@@ -43734,7 +43733,7 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2458" s="2" t="str">
-        <x:v>EXTENSION-AnonymizedStudentAcademicRecord</x:v>
+        <x:v>EXTENSION-TeacherCandidateAcademicRecord</x:v>
       </x:c>
       <x:c r="D2458" s="2" t="str">
         <x:v/>
@@ -43751,14 +43750,14 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2459" s="2" t="str">
-        <x:v>EXTENSION-AnonymizedStudentAssessment</x:v>
+        <x:v>EXTENSION-Survey</x:v>
       </x:c>
       <x:c r="D2459" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2459" s="2" t="str">
-        <x:v>The term in which the assessment was administered</x:v>
+        <x:v>The Term the survey was given.</x:v>
       </x:c>
     </x:row>
     <x:row r="2460">
@@ -43769,7 +43768,7 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2460" s="2" t="str">
-        <x:v>StudentAcademicRecord</x:v>
+        <x:v>EXTENSION-PerformanceMeasure</x:v>
       </x:c>
       <x:c r="D2460" s="2" t="str">
         <x:v/>
@@ -43786,7 +43785,7 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2461" s="2" t="str">
-        <x:v>EXTENSION-CourseStudentAssessmentFacts</x:v>
+        <x:v>EXTENSION-EducationOrganizationStudentAssessmentFacts</x:v>
       </x:c>
       <x:c r="D2461" s="2" t="str">
         <x:v>minOccurs: 0
@@ -43804,7 +43803,7 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2462" s="2" t="str">
-        <x:v>EXTENSION-CourseStudentAcademicRecordFacts</x:v>
+        <x:v>EXTENSION-EducationOrganizationStudentAcademicRecordFacts</x:v>
       </x:c>
       <x:c r="D2462" s="2" t="str">
         <x:v/>
@@ -43821,14 +43820,14 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2463" s="2" t="str">
-        <x:v>EXTENSION-Survey</x:v>
+        <x:v>EXTENSION-CourseStudentAssessmentFacts</x:v>
       </x:c>
       <x:c r="D2463" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2463" s="2" t="str">
-        <x:v>The Term the survey was given.</x:v>
+        <x:v>The term in which the assessment was administered</x:v>
       </x:c>
     </x:row>
     <x:row r="2464">
@@ -43839,13 +43838,13 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2464" s="2" t="str">
-        <x:v>SessionIdentityType</x:v>
+        <x:v>EXTENSION-CourseStudentAcademicRecordFacts</x:v>
       </x:c>
       <x:c r="D2464" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2464" s="2" t="str">
-        <x:v>The term for the Session during the school year.</x:v>
+        <x:v>The term for the session during the school year.</x:v>
       </x:c>
     </x:row>
     <x:row r="2465">
@@ -43856,13 +43855,14 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2465" s="2" t="str">
-        <x:v>EXTENSION-TeacherCandidateAcademicRecord</x:v>
+        <x:v>EXTENSION-AnonymizedStudentAssessment</x:v>
       </x:c>
       <x:c r="D2465" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2465" s="2" t="str">
-        <x:v>The term for the session during the school year.</x:v>
+        <x:v>The term in which the assessment was administered</x:v>
       </x:c>
     </x:row>
     <x:row r="2466">
@@ -43873,7 +43873,7 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2466" s="2" t="str">
-        <x:v>StudentAcademicRecordIdentityType</x:v>
+        <x:v>EXTENSION-AnonymizedStudentAcademicRecord</x:v>
       </x:c>
       <x:c r="D2466" s="2" t="str">
         <x:v/>
@@ -43890,14 +43890,13 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2467" s="2" t="str">
-        <x:v>SessionLookupType</x:v>
+        <x:v>StudentAcademicRecordIdentityType</x:v>
       </x:c>
       <x:c r="D2467" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2467" s="2" t="str">
-        <x:v>The term for the Session during the school year.</x:v>
+        <x:v>The term for the session during the school year.</x:v>
       </x:c>
     </x:row>
     <x:row r="2468">
@@ -43908,13 +43907,14 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2468" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationStudentAcademicRecordFacts</x:v>
+        <x:v>SessionLookupType</x:v>
       </x:c>
       <x:c r="D2468" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2468" s="2" t="str">
-        <x:v>The term for the session during the school year.</x:v>
+        <x:v>The term for the Session during the school year.</x:v>
       </x:c>
     </x:row>
     <x:row r="2469">
@@ -43925,14 +43925,13 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2469" s="2" t="str">
-        <x:v>EXTENSION-EducationOrganizationStudentAssessmentFacts</x:v>
+        <x:v>SessionIdentityType</x:v>
       </x:c>
       <x:c r="D2469" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2469" s="2" t="str">
-        <x:v>The term in which the assessment was administered</x:v>
+        <x:v>The term for the Session during the school year.</x:v>
       </x:c>
     </x:row>
     <x:row r="2470">
@@ -43943,7 +43942,7 @@
         <x:v>TermDescriptorReferenceType</x:v>
       </x:c>
       <x:c r="C2470" s="2" t="str">
-        <x:v>EXTENSION-PerformanceMeasure</x:v>
+        <x:v>EXTENSION-TeacherCandidateAcademicRecordIdentityType</x:v>
       </x:c>
       <x:c r="D2470" s="2" t="str">
         <x:v/>
@@ -44050,7 +44049,7 @@
         <x:v>EXTENSION-TextResponse</x:v>
       </x:c>
       <x:c r="C2476" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionResponse</x:v>
+        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
       </x:c>
       <x:c r="D2476" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44068,7 +44067,7 @@
         <x:v>EXTENSION-TextResponse</x:v>
       </x:c>
       <x:c r="C2477" s="2" t="str">
-        <x:v>EXTENSION-SurveyQuestionMatrixElementResponse</x:v>
+        <x:v>EXTENSION-SurveyQuestionResponse</x:v>
       </x:c>
       <x:c r="D2477" s="2" t="str">
         <x:v>minOccurs: 0
@@ -44744,7 +44743,7 @@
         <x:v>UniqueSectionCode</x:v>
       </x:c>
       <x:c r="C2515" s="2" t="str">
-        <x:v>Section</x:v>
+        <x:v>SectionIdentityType</x:v>
       </x:c>
       <x:c r="D2515" s="2" t="str">
         <x:v/>
@@ -44761,10 +44760,11 @@
         <x:v>UniqueSectionCode</x:v>
       </x:c>
       <x:c r="C2516" s="2" t="str">
-        <x:v>SectionIdentityType</x:v>
+        <x:v>SectionLookupType</x:v>
       </x:c>
       <x:c r="D2516" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2516" s="2" t="str">
         <x:v>A unique identifier for the Section that is defined by the classroom, the subjects taught, and the instructors who are assigned.</x:v>
@@ -44778,11 +44778,10 @@
         <x:v>UniqueSectionCode</x:v>
       </x:c>
       <x:c r="C2517" s="2" t="str">
-        <x:v>SectionLookupType</x:v>
+        <x:v>Section</x:v>
       </x:c>
       <x:c r="D2517" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2517" s="2" t="str">
         <x:v>A unique identifier for the Section that is defined by the classroom, the subjects taught, and the instructors who are assigned.</x:v>
@@ -45027,7 +45026,7 @@
         <x:v>ValueAdd</x:v>
       </x:c>
       <x:c r="B2531" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>EXTENSION-ValueAdd</x:v>
       </x:c>
       <x:c r="C2531" s="2" t="str">
         <x:v>EXTENSION-PerformanceMeasure</x:v>
@@ -45048,14 +45047,14 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2532" s="2" t="str">
-        <x:v>EXTENSION-AggregatedSection504Enrollment</x:v>
+        <x:v>EXTENSION-AnonymizedStudent</x:v>
       </x:c>
       <x:c r="D2532" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2532" s="2" t="str">
-        <x:v>The value of the data, i.e., is the data projected, actual or other</x:v>
+        <x:v>Domain entity to collect data for indiviudal students with whom the teacher candidate is associated through field work or student teaching</x:v>
       </x:c>
     </x:row>
     <x:row r="2533">
@@ -45066,11 +45065,10 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2533" s="2" t="str">
-        <x:v>EXTENSION-AggregatedTitleIEnrollment</x:v>
+        <x:v>EXTENSION-CredentialExtension</x:v>
       </x:c>
       <x:c r="D2533" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2533" s="2" t="str">
         <x:v>The value of the data, i.e., is the data projected, actual or other</x:v>
@@ -45084,14 +45082,14 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2534" s="2" t="str">
-        <x:v>EXTENSION-AnonymizedStudent</x:v>
+        <x:v>EXTENSION-AggregatedByDisability</x:v>
       </x:c>
       <x:c r="D2534" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2534" s="2" t="str">
-        <x:v>Domain entity to collect data for indiviudal students with whom the teacher candidate is associated through field work or student teaching</x:v>
+        <x:v>The value of the data, i.e., is the data projected, actual or other</x:v>
       </x:c>
     </x:row>
     <x:row r="2535">
@@ -45102,10 +45100,11 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2535" s="2" t="str">
-        <x:v>EXTENSION-CredentialExtension</x:v>
+        <x:v>EXTENSION-AggregatedDisabilityTotalStudentsDisabled</x:v>
       </x:c>
       <x:c r="D2535" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2535" s="2" t="str">
         <x:v>The value of the data, i.e., is the data projected, actual or other</x:v>
@@ -45119,7 +45118,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2536" s="2" t="str">
-        <x:v>EXTENSION-AggregatedByDisability</x:v>
+        <x:v>EXTENSION-AggregatedELLEnrollment</x:v>
       </x:c>
       <x:c r="D2536" s="2" t="str">
         <x:v>minOccurs: 0
@@ -45137,7 +45136,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2537" s="2" t="str">
-        <x:v>EXTENSION-AggregatedDisabilityTotalStudentsDisabled</x:v>
+        <x:v>EXTENSION-AggregatedESLEnrollment</x:v>
       </x:c>
       <x:c r="D2537" s="2" t="str">
         <x:v>minOccurs: 0
@@ -45155,7 +45154,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2538" s="2" t="str">
-        <x:v>EXTENSION-AggregatedSPED</x:v>
+        <x:v>EXTENSION-AggregatedGender</x:v>
       </x:c>
       <x:c r="D2538" s="2" t="str">
         <x:v>minOccurs: 0
@@ -45173,7 +45172,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2539" s="2" t="str">
-        <x:v>EXTENSION-AggregatedESLEnrollment</x:v>
+        <x:v>EXTENSION-AggregatedHispanicLatinoEthnicity</x:v>
       </x:c>
       <x:c r="D2539" s="2" t="str">
         <x:v>minOccurs: 0
@@ -45191,7 +45190,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2540" s="2" t="str">
-        <x:v>EXTENSION-AggregatedGender</x:v>
+        <x:v>EXTENSION-AggregatedLanguage</x:v>
       </x:c>
       <x:c r="D2540" s="2" t="str">
         <x:v>minOccurs: 0
@@ -45209,7 +45208,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2541" s="2" t="str">
-        <x:v>EXTENSION-AggregatedHispanicLatinoEthnicity</x:v>
+        <x:v>EXTENSION-AggregatedTitleIEnrollment</x:v>
       </x:c>
       <x:c r="D2541" s="2" t="str">
         <x:v>minOccurs: 0
@@ -45227,7 +45226,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2542" s="2" t="str">
-        <x:v>EXTENSION-AggregatedLanguage</x:v>
+        <x:v>EXTENSION-AggregatedSchoolFoodServicesEligibility</x:v>
       </x:c>
       <x:c r="D2542" s="2" t="str">
         <x:v>minOccurs: 0
@@ -45245,14 +45244,14 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2543" s="2" t="str">
-        <x:v>EXTENSION-AggregatedRace</x:v>
+        <x:v>EXTENSION-Vacancies</x:v>
       </x:c>
       <x:c r="D2543" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2543" s="2" t="str">
-        <x:v>The value of the data, i.e., is the data projected, actual or other</x:v>
+        <x:v>The type (i.e. actual or projected) of value.</x:v>
       </x:c>
     </x:row>
     <x:row r="2544">
@@ -45263,7 +45262,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2544" s="2" t="str">
-        <x:v>EXTENSION-AggregatedSchoolFoodServicesEligibility</x:v>
+        <x:v>EXTENSION-AggregatedRace</x:v>
       </x:c>
       <x:c r="D2544" s="2" t="str">
         <x:v>minOccurs: 0
@@ -45281,7 +45280,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2545" s="2" t="str">
-        <x:v>EXTENSION-AggregatedSex</x:v>
+        <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="D2545" s="2" t="str">
         <x:v>minOccurs: 0
@@ -45299,7 +45298,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2546" s="2" t="str">
-        <x:v>EXTENSION-AggregatedELLEnrollment</x:v>
+        <x:v>EXTENSION-AggregatedSex</x:v>
       </x:c>
       <x:c r="D2546" s="2" t="str">
         <x:v>minOccurs: 0
@@ -45317,14 +45316,14 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2547" s="2" t="str">
-        <x:v>EXTENSION-Vacancies</x:v>
+        <x:v>EXTENSION-AggregatedSPED</x:v>
       </x:c>
       <x:c r="D2547" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2547" s="2" t="str">
-        <x:v>The type (i.e. actual or projected) of value.</x:v>
+        <x:v>The value of the data, i.e., is the data projected, actual or other</x:v>
       </x:c>
     </x:row>
     <x:row r="2548">
@@ -45335,7 +45334,7 @@
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
       <x:c r="C2548" s="2" t="str">
-        <x:v>EXTENSION-StudentsEnrolled</x:v>
+        <x:v>EXTENSION-AggregatedSection504Enrollment</x:v>
       </x:c>
       <x:c r="D2548" s="2" t="str">
         <x:v>minOccurs: 0
@@ -45389,7 +45388,7 @@
         <x:v>Version</x:v>
       </x:c>
       <x:c r="C2551" s="2" t="str">
-        <x:v>AssessmentFamilyLookupType</x:v>
+        <x:v>AssessmentFamily</x:v>
       </x:c>
       <x:c r="D2551" s="2" t="str">
         <x:v>minOccurs: 0
@@ -45474,17 +45473,17 @@
         <x:v>Version</x:v>
       </x:c>
       <x:c r="B2556" s="2" t="str">
-        <x:v>Version</x:v>
+        <x:v>ContentVersion</x:v>
       </x:c>
       <x:c r="C2556" s="2" t="str">
-        <x:v>AssessmentFamily</x:v>
+        <x:v>EducationContent</x:v>
       </x:c>
       <x:c r="D2556" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2556" s="2" t="str">
-        <x:v>The version identifier for the AssessmentFamily.</x:v>
+        <x:v>The version identifier for the content.</x:v>
       </x:c>
     </x:row>
     <x:row r="2557">
@@ -45492,17 +45491,17 @@
         <x:v>Version</x:v>
       </x:c>
       <x:c r="B2557" s="2" t="str">
-        <x:v>ContentVersion</x:v>
+        <x:v>Version</x:v>
       </x:c>
       <x:c r="C2557" s="2" t="str">
-        <x:v>EducationContent</x:v>
+        <x:v>AssessmentFamilyLookupType</x:v>
       </x:c>
       <x:c r="D2557" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2557" s="2" t="str">
-        <x:v>The version identifier for the content.</x:v>
+        <x:v>The version identifier for the AssessmentFamily.</x:v>
       </x:c>
     </x:row>
     <x:row r="2558">
@@ -45621,7 +45620,7 @@
         <x:v>WeekIdentifier</x:v>
       </x:c>
       <x:c r="C2564" s="2" t="str">
-        <x:v>AcademicWeekIdentityType</x:v>
+        <x:v>AcademicWeek</x:v>
       </x:c>
       <x:c r="D2564" s="2" t="str">
         <x:v/>
@@ -45638,7 +45637,7 @@
         <x:v>WeekIdentifier</x:v>
       </x:c>
       <x:c r="C2565" s="2" t="str">
-        <x:v>AcademicWeek</x:v>
+        <x:v>AcademicWeekIdentityType</x:v>
       </x:c>
       <x:c r="D2565" s="2" t="str">
         <x:v/>
@@ -45739,55 +45738,54 @@
     </x:row>
     <x:row r="2571">
       <x:c r="A2571" s="2" t="str">
-        <x:v>YearsExperience</x:v>
+        <x:v>YearOfAssessment</x:v>
       </x:c>
       <x:c r="B2571" s="2" t="str">
-        <x:v>NumberOfYears</x:v>
+        <x:v>xs:int</x:v>
       </x:c>
       <x:c r="C2571" s="2" t="str">
-        <x:v>EXTENSION-Seniority</x:v>
+        <x:v>EXTENSION-VASResult</x:v>
       </x:c>
       <x:c r="D2571" s="2" t="str">
         <x:v/>
       </x:c>
       <x:c r="E2571" s="2" t="str">
-        <x:v>The number of years of experience.</x:v>
+        <x:v>The shool year in which the assessment was completed.</x:v>
       </x:c>
     </x:row>
     <x:row r="2572">
       <x:c r="A2572" s="2" t="str">
-        <x:v>YearsOfExperienceAtCurrentEducationOrganization</x:v>
+        <x:v>YearsExperience</x:v>
       </x:c>
       <x:c r="B2572" s="2" t="str">
         <x:v>NumberOfYears</x:v>
       </x:c>
       <x:c r="C2572" s="2" t="str">
-        <x:v>EXTENSION-StaffEducationOrganizationAssignmentAssociationExtension</x:v>
+        <x:v>EXTENSION-Seniority</x:v>
       </x:c>
       <x:c r="D2572" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E2572" s="2" t="str">
-        <x:v>The total number of years that an individual has previously held a teaching position in one or more education institutions.</x:v>
+        <x:v>The number of years of experience.</x:v>
       </x:c>
     </x:row>
     <x:row r="2573">
       <x:c r="A2573" s="2" t="str">
-        <x:v>YearsOfPriorProfessionalExperience</x:v>
+        <x:v>YearsOfExperienceAtCurrentEducationOrganization</x:v>
       </x:c>
       <x:c r="B2573" s="2" t="str">
         <x:v>NumberOfYears</x:v>
       </x:c>
       <x:c r="C2573" s="2" t="str">
-        <x:v>EXTENSION-Applicant</x:v>
+        <x:v>EXTENSION-StaffEducationOrganizationAssignmentAssociationExtension</x:v>
       </x:c>
       <x:c r="D2573" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2573" s="2" t="str">
-        <x:v>The total number of years that an individual has previously held a similar professional position in one or more education institutions.</x:v>
+        <x:v>The total number of years that an individual has previously held a teaching position in one or more education institutions.</x:v>
       </x:c>
     </x:row>
     <x:row r="2574">
@@ -45798,7 +45796,7 @@
         <x:v>NumberOfYears</x:v>
       </x:c>
       <x:c r="C2574" s="2" t="str">
-        <x:v>Staff</x:v>
+        <x:v>EXTENSION-Applicant</x:v>
       </x:c>
       <x:c r="D2574" s="2" t="str">
         <x:v>minOccurs: 0
@@ -45810,20 +45808,20 @@
     </x:row>
     <x:row r="2575">
       <x:c r="A2575" s="2" t="str">
-        <x:v>YearsOfPriorTeachingExperience</x:v>
+        <x:v>YearsOfPriorProfessionalExperience</x:v>
       </x:c>
       <x:c r="B2575" s="2" t="str">
         <x:v>NumberOfYears</x:v>
       </x:c>
       <x:c r="C2575" s="2" t="str">
-        <x:v>EXTENSION-Applicant</x:v>
+        <x:v>Staff</x:v>
       </x:c>
       <x:c r="D2575" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2575" s="2" t="str">
-        <x:v>The total number of years that an individual has previously held a teaching position in one or more education institutions.</x:v>
+        <x:v>The total number of years that an individual has previously held a similar professional position in one or more education institutions.</x:v>
       </x:c>
     </x:row>
     <x:row r="2576">
@@ -45834,7 +45832,7 @@
         <x:v>NumberOfYears</x:v>
       </x:c>
       <x:c r="C2576" s="2" t="str">
-        <x:v>Staff</x:v>
+        <x:v>EXTENSION-Applicant</x:v>
       </x:c>
       <x:c r="D2576" s="2" t="str">
         <x:v>minOccurs: 0
@@ -45846,25 +45844,25 @@
     </x:row>
     <x:row r="2577">
       <x:c r="A2577" s="2" t="str">
-        <x:v>YearsOfServiceCurrentPlacement</x:v>
+        <x:v>YearsOfPriorTeachingExperience</x:v>
       </x:c>
       <x:c r="B2577" s="2" t="str">
-        <x:v>EXTENSION-YearsOfService</x:v>
+        <x:v>NumberOfYears</x:v>
       </x:c>
       <x:c r="C2577" s="2" t="str">
-        <x:v>EXTENSION-ProspectQualifications</x:v>
+        <x:v>Staff</x:v>
       </x:c>
       <x:c r="D2577" s="2" t="str">
         <x:v>minOccurs: 0
 </x:v>
       </x:c>
       <x:c r="E2577" s="2" t="str">
-        <x:v>The total number of years of service at the current school.</x:v>
+        <x:v>The total number of years that an individual has previously held a teaching position in one or more education institutions.</x:v>
       </x:c>
     </x:row>
     <x:row r="2578">
       <x:c r="A2578" s="2" t="str">
-        <x:v>YearsOfServiceTotal</x:v>
+        <x:v>YearsOfServiceCurrentPlacement</x:v>
       </x:c>
       <x:c r="B2578" s="2" t="str">
         <x:v>EXTENSION-YearsOfService</x:v>
@@ -45873,9 +45871,27 @@
         <x:v>EXTENSION-ProspectQualifications</x:v>
       </x:c>
       <x:c r="D2578" s="2" t="str">
-        <x:v/>
+        <x:v>minOccurs: 0
+</x:v>
       </x:c>
       <x:c r="E2578" s="2" t="str">
+        <x:v>The total number of years of service at the current school.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2579">
+      <x:c r="A2579" s="2" t="str">
+        <x:v>YearsOfServiceTotal</x:v>
+      </x:c>
+      <x:c r="B2579" s="2" t="str">
+        <x:v>EXTENSION-YearsOfService</x:v>
+      </x:c>
+      <x:c r="C2579" s="2" t="str">
+        <x:v>EXTENSION-ProspectQualifications</x:v>
+      </x:c>
+      <x:c r="D2579" s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="E2579" s="2" t="str">
         <x:v>The total number of years of service as a teacher.</x:v>
       </x:c>
     </x:row>
@@ -55303,49 +55319,62 @@
     </x:row>
     <x:row r="203">
       <x:c r="A203" s="2" t="str">
+        <x:v>EXTENSION-ValueAdd</x:v>
+      </x:c>
+      <x:c r="B203" s="2" t="str">
+        <x:v>totalDigits: 18
+fractionDigits: 4
+</x:v>
+      </x:c>
+      <x:c r="C203" s="2" t="str">
+        <x:v>The possible points for the student achievement indicator for the teacher evaluation.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204">
+      <x:c r="A204" s="2" t="str">
         <x:v>EXTENSION-ValueType</x:v>
       </x:c>
-      <x:c r="B203" s="2" t="str">
+      <x:c r="B204" s="2" t="str">
         <x:v>Actual
 Projected
 Other
 </x:v>
       </x:c>
-      <x:c r="C203" s="2" t="str">
+      <x:c r="C204" s="2" t="str">
         <x:v>The type (i.e. actual or projected) of value.</x:v>
       </x:c>
     </x:row>
-    <x:row r="204">
-      <x:c r="A204" s="2" t="str">
+    <x:row r="205">
+      <x:c r="A205" s="2" t="str">
         <x:v>EXTENSION-Whereabouts</x:v>
       </x:c>
-      <x:c r="B204" s="2" t="str">
+      <x:c r="B205" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C204" s="2" t="str">
+      <x:c r="C205" s="2" t="str">
         <x:v>The location, typically City and State, for the institution.</x:v>
       </x:c>
     </x:row>
-    <x:row r="205">
-      <x:c r="A205" s="2" t="str">
+    <x:row r="206">
+      <x:c r="A206" s="2" t="str">
         <x:v>EXTENSION-YearsOfService</x:v>
       </x:c>
-      <x:c r="B205" s="2" t="str">
+      <x:c r="B206" s="2" t="str">
         <x:v>totalDigits: 5
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C205" s="2" t="str">
+      <x:c r="C206" s="2" t="str">
         <x:v>Years of service</x:v>
       </x:c>
     </x:row>
-    <x:row r="206">
-      <x:c r="A206" s="2" t="str">
+    <x:row r="207">
+      <x:c r="A207" s="2" t="str">
         <x:v>FederalLocaleCodeMapType</x:v>
       </x:c>
-      <x:c r="B206" s="2" t="str">
+      <x:c r="B207" s="2" t="str">
         <x:v>City
 Suburb
 Other
@@ -55353,68 +55382,68 @@
 Rural
 </x:v>
       </x:c>
-      <x:c r="C206" s="2" t="str">
+      <x:c r="C207" s="2" t="str">
         <x:v>Map for the type federal local codes.</x:v>
       </x:c>
     </x:row>
-    <x:row r="207">
-      <x:c r="A207" s="2" t="str">
+    <x:row r="208">
+      <x:c r="A208" s="2" t="str">
         <x:v>FirstName</x:v>
       </x:c>
-      <x:c r="B207" s="2" t="str">
+      <x:c r="B208" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C207" s="2" t="str">
+      <x:c r="C208" s="2" t="str">
         <x:v>A name given to an individual at birth, baptism, or during another naming ceremony, or through legal change.</x:v>
       </x:c>
     </x:row>
-    <x:row r="208">
-      <x:c r="A208" s="2" t="str">
+    <x:row r="209">
+      <x:c r="A209" s="2" t="str">
         <x:v>GenerationCodeSuffix</x:v>
       </x:c>
-      <x:c r="B208" s="2" t="str">
+      <x:c r="B209" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 10
 </x:v>
       </x:c>
-      <x:c r="C208" s="2" t="str">
+      <x:c r="C209" s="2" t="str">
         <x:v>An appendage, if any, used to denote an individual's generation in his family (e.g., Jr., Sr., III).</x:v>
       </x:c>
     </x:row>
-    <x:row r="209">
-      <x:c r="A209" s="2" t="str">
+    <x:row r="210">
+      <x:c r="A210" s="2" t="str">
         <x:v>GPA</x:v>
       </x:c>
-      <x:c r="B209" s="2" t="str">
+      <x:c r="B210" s="2" t="str">
         <x:v>minInclusive: 0
 totalDigits: 18
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C209" s="2" t="str">
+      <x:c r="C210" s="2" t="str">
         <x:v>Grade Point Average computed for a grading period or cumulatively.</x:v>
       </x:c>
     </x:row>
-    <x:row r="210">
-      <x:c r="A210" s="2" t="str">
+    <x:row r="211">
+      <x:c r="A211" s="2" t="str">
         <x:v>GradebookEntryTitle</x:v>
       </x:c>
-      <x:c r="B210" s="2" t="str">
+      <x:c r="B211" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C210" s="2" t="str">
+      <x:c r="C211" s="2" t="str">
         <x:v>The name or title of the activity to be recorded in the gradebook entry.</x:v>
       </x:c>
     </x:row>
-    <x:row r="211">
-      <x:c r="A211" s="2" t="str">
+    <x:row r="212">
+      <x:c r="A212" s="2" t="str">
         <x:v>GradebookEntryType</x:v>
       </x:c>
-      <x:c r="B211" s="2" t="str">
+      <x:c r="B212" s="2" t="str">
         <x:v>Activity
 Assignment
 Classroom Assessment
@@ -55425,28 +55454,28 @@
 Unit Test
 </x:v>
       </x:c>
-      <x:c r="C211" s="2" t="str">
+      <x:c r="C212" s="2" t="str">
         <x:v>The type of the gradebook entry; for example, homework, assignment, quiz, unit test, oral presentation, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="212">
-      <x:c r="A212" s="2" t="str">
+    <x:row r="213">
+      <x:c r="A213" s="2" t="str">
         <x:v>GradeEarned</x:v>
       </x:c>
-      <x:c r="B212" s="2" t="str">
+      <x:c r="B213" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C212" s="2" t="str">
+      <x:c r="C213" s="2" t="str">
         <x:v>A final or interim (grading period) indicator of student performance in a class as submitted by the instructor.</x:v>
       </x:c>
     </x:row>
-    <x:row r="213">
-      <x:c r="A213" s="2" t="str">
+    <x:row r="214">
+      <x:c r="A214" s="2" t="str">
         <x:v>GradeLevelMapType</x:v>
       </x:c>
-      <x:c r="B213" s="2" t="str">
+      <x:c r="B214" s="2" t="str">
         <x:v>Adult Education
 Early Education
 Eighth grade
@@ -55473,15 +55502,15 @@
 Professional Certification
 </x:v>
       </x:c>
-      <x:c r="C213" s="2" t="str">
+      <x:c r="C214" s="2" t="str">
         <x:v>The enumeration items for the set of grade levels.</x:v>
       </x:c>
     </x:row>
-    <x:row r="214">
-      <x:c r="A214" s="2" t="str">
+    <x:row r="215">
+      <x:c r="A215" s="2" t="str">
         <x:v>GradeType</x:v>
       </x:c>
-      <x:c r="B214" s="2" t="str">
+      <x:c r="B215" s="2" t="str">
         <x:v>Conduct
 Exam
 Final
@@ -55491,28 +55520,28 @@
 Semester
 </x:v>
       </x:c>
-      <x:c r="C214" s="2" t="str">
+      <x:c r="C215" s="2" t="str">
         <x:v>The type of grade in a report card or transcript (e.g., Final, Exam, Grading Period).</x:v>
       </x:c>
     </x:row>
-    <x:row r="215">
-      <x:c r="A215" s="2" t="str">
+    <x:row r="216">
+      <x:c r="A216" s="2" t="str">
         <x:v>GradeValueQualifier</x:v>
       </x:c>
-      <x:c r="B215" s="2" t="str">
+      <x:c r="B216" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C215" s="2" t="str">
+      <x:c r="C216" s="2" t="str">
         <x:v>The scale of equivalents, if applicable, for grades awarded as indicators of performance in schoolwork. For example, numerical equivalents for letter grades used in determining a student's Grade Point Average (A=4, B=3, C=2, D=1 in a four-point system) or letter equivalents for percentage grades (90-100%=A, 80-90%=B, etc.)</x:v>
       </x:c>
     </x:row>
-    <x:row r="216">
-      <x:c r="A216" s="2" t="str">
+    <x:row r="217">
+      <x:c r="A217" s="2" t="str">
         <x:v>GradingPeriodMapType</x:v>
       </x:c>
-      <x:c r="B216" s="2" t="str">
+      <x:c r="B217" s="2" t="str">
         <x:v>First Six Weeks
 Second Six Weeks
 Third Six Weeks
@@ -55535,15 +55564,15 @@
 End of Year
 </x:v>
       </x:c>
-      <x:c r="C216" s="2" t="str">
+      <x:c r="C217" s="2" t="str">
         <x:v>The name of the period for which grades are reported.</x:v>
       </x:c>
     </x:row>
-    <x:row r="217">
-      <x:c r="A217" s="2" t="str">
+    <x:row r="218">
+      <x:c r="A218" s="2" t="str">
         <x:v>GraduationPlanTypeMapType</x:v>
       </x:c>
-      <x:c r="B217" s="2" t="str">
+      <x:c r="B218" s="2" t="str">
         <x:v>Career and Technical Education
 Distinguished
 Minimum
@@ -55551,109 +55580,109 @@
 Standard
 </x:v>
       </x:c>
-      <x:c r="C217" s="2" t="str">
+      <x:c r="C218" s="2" t="str">
         <x:v>The type of academic plan the student is following for graduation.</x:v>
       </x:c>
     </x:row>
-    <x:row r="218">
-      <x:c r="A218" s="2" t="str">
+    <x:row r="219">
+      <x:c r="A219" s="2" t="str">
         <x:v>GunFreeSchoolsActReportingStatusType</x:v>
       </x:c>
-      <x:c r="B218" s="2" t="str">
+      <x:c r="B219" s="2" t="str">
         <x:v>Yes, with reporting of one or more students for an offense
 Yes, with no reported offenses
 No
 Not applicable
 </x:v>
       </x:c>
-      <x:c r="C218" s="2" t="str">
+      <x:c r="C219" s="2" t="str">
         <x:v>An indication of whether the school or local education agency (LEA) submitted a Gun-Free Schools Act (GFSA) of 1994 report to the state, as defined by Title 18, Section 921.</x:v>
       </x:c>
     </x:row>
-    <x:row r="219">
-      <x:c r="A219" s="2" t="str">
+    <x:row r="220">
+      <x:c r="A220" s="2" t="str">
         <x:v>HonorDescription</x:v>
       </x:c>
-      <x:c r="B219" s="2" t="str">
+      <x:c r="B220" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C219" s="2" t="str">
+      <x:c r="C220" s="2" t="str">
         <x:v>A description of the type of academic distinctions earned by or awarded to the individual.</x:v>
       </x:c>
     </x:row>
-    <x:row r="220">
-      <x:c r="A220" s="2" t="str">
+    <x:row r="221">
+      <x:c r="A221" s="2" t="str">
         <x:v>HoursOnLeave</x:v>
       </x:c>
-      <x:c r="B220" s="2" t="str">
+      <x:c r="B221" s="2" t="str">
         <x:v>totalDigits: 18
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C220" s="2" t="str">
+      <x:c r="C221" s="2" t="str">
         <x:v>The hours the staff was absent, if not the entire working day.</x:v>
       </x:c>
     </x:row>
-    <x:row r="221">
-      <x:c r="A221" s="2" t="str">
+    <x:row r="222">
+      <x:c r="A222" s="2" t="str">
         <x:v>HoursPerWeek</x:v>
       </x:c>
-      <x:c r="B221" s="2" t="str">
+      <x:c r="B222" s="2" t="str">
         <x:v>totalDigits: 5
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C221" s="2" t="str">
+      <x:c r="C222" s="2" t="str">
         <x:v>The number of hours per week used on an activity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="222">
-      <x:c r="A222" s="2" t="str">
+    <x:row r="223">
+      <x:c r="A223" s="2" t="str">
         <x:v>IdentificationCode</x:v>
       </x:c>
-      <x:c r="B222" s="2" t="str">
+      <x:c r="B223" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C222" s="2" t="str">
+      <x:c r="C223" s="2" t="str">
         <x:v>A unique number or alphanumeric code assigned to a space, room, site, building, individual, organization, program, or institution by a school, school system, a state, or other agency or entity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="223">
-      <x:c r="A223" s="2" t="str">
+    <x:row r="224">
+      <x:c r="A224" s="2" t="str">
         <x:v>IdentificationDocumentUseType</x:v>
       </x:c>
-      <x:c r="B223" s="2" t="str">
+      <x:c r="B224" s="2" t="str">
         <x:v>Personal Information Verification
 US Citizenship Identification
 Foreign Citizenship Identification
 </x:v>
       </x:c>
-      <x:c r="C223" s="2" t="str">
+      <x:c r="C224" s="2" t="str">
         <x:v>Identifies the type of use given to an identification document.</x:v>
       </x:c>
     </x:row>
-    <x:row r="224">
-      <x:c r="A224" s="2" t="str">
+    <x:row r="225">
+      <x:c r="A225" s="2" t="str">
         <x:v>IncidentIdentifier</x:v>
       </x:c>
-      <x:c r="B224" s="2" t="str">
+      <x:c r="B225" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C224" s="2" t="str">
+      <x:c r="C225" s="2" t="str">
         <x:v>A locally assigned unique identifier (within the school or school district) to identify each specific incident or occurrence. The same identifier should be used to document the entire incident even if it included multiple offenses and multiple offenders.</x:v>
       </x:c>
     </x:row>
-    <x:row r="225">
-      <x:c r="A225" s="2" t="str">
+    <x:row r="226">
+      <x:c r="A226" s="2" t="str">
         <x:v>IncidentLocationType</x:v>
       </x:c>
-      <x:c r="B225" s="2" t="str">
+      <x:c r="B226" s="2" t="str">
         <x:v>On campus
 Administrative offices area
 Cafeteria area
@@ -55681,41 +55710,41 @@
 Unknown
 </x:v>
       </x:c>
-      <x:c r="C225" s="2" t="str">
+      <x:c r="C226" s="2" t="str">
         <x:v>Identifies where the incident occurred and whether or not it occurred on school property.</x:v>
       </x:c>
     </x:row>
-    <x:row r="226">
-      <x:c r="A226" s="2" t="str">
+    <x:row r="227">
+      <x:c r="A227" s="2" t="str">
         <x:v>Indicator</x:v>
       </x:c>
-      <x:c r="B226" s="2" t="str">
+      <x:c r="B227" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 35
 </x:v>
       </x:c>
-      <x:c r="C226" s="2" t="str">
+      <x:c r="C227" s="2" t="str">
         <x:v>Indicator or metric computed for the student (e.g., at risk) to influence more effective education or direct specific interventions.</x:v>
       </x:c>
     </x:row>
-    <x:row r="227">
-      <x:c r="A227" s="2" t="str">
+    <x:row r="228">
+      <x:c r="A228" s="2" t="str">
         <x:v>IndicatorName</x:v>
       </x:c>
-      <x:c r="B227" s="2" t="str">
+      <x:c r="B228" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C227" s="2" t="str">
+      <x:c r="C228" s="2" t="str">
         <x:v>The name of the Indicator, indicator group, or metric computed for the student (e.g., at risk) to influence more effective education or direct specific interventions.</x:v>
       </x:c>
     </x:row>
-    <x:row r="228">
-      <x:c r="A228" s="2" t="str">
+    <x:row r="229">
+      <x:c r="A229" s="2" t="str">
         <x:v>InstitutionTelephoneNumberType</x:v>
       </x:c>
-      <x:c r="B228" s="2" t="str">
+      <x:c r="B229" s="2" t="str">
         <x:v>Main
 Administrative
 Health Clinic
@@ -55725,15 +55754,15 @@
 Food Service
 </x:v>
       </x:c>
-      <x:c r="C228" s="2" t="str">
+      <x:c r="C229" s="2" t="str">
         <x:v>The type of communication number listed for an organization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="229">
-      <x:c r="A229" s="2" t="str">
+    <x:row r="230">
+      <x:c r="A230" s="2" t="str">
         <x:v>IntegratedTechnologyStatusType</x:v>
       </x:c>
-      <x:c r="B229" s="2" t="str">
+      <x:c r="B230" s="2" t="str">
         <x:v>Developing
 Approaching
 Meets
@@ -55741,59 +55770,59 @@
 Not required to report
 </x:v>
       </x:c>
-      <x:c r="C229" s="2" t="str">
+      <x:c r="C230" s="2" t="str">
         <x:v>An indication of the extent to which the district has effectively and fully integrated technology, as defined by the state.</x:v>
       </x:c>
     </x:row>
-    <x:row r="230">
-      <x:c r="A230" s="2" t="str">
+    <x:row r="231">
+      <x:c r="A231" s="2" t="str">
         <x:v>InteractivityStyleType</x:v>
       </x:c>
-      <x:c r="B230" s="2" t="str">
+      <x:c r="B231" s="2" t="str">
         <x:v>Active
 Expositive
 Mixed
 Other
 </x:v>
       </x:c>
-      <x:c r="C230" s="2" t="str">
+      <x:c r="C231" s="2" t="str">
         <x:v>The predominate mode of learning supported by the learning resource. Acceptable values are active, expositive, or mixed.</x:v>
       </x:c>
     </x:row>
-    <x:row r="231">
-      <x:c r="A231" s="2" t="str">
+    <x:row r="232">
+      <x:c r="A232" s="2" t="str">
         <x:v>InternetAccessType</x:v>
       </x:c>
-      <x:c r="B231" s="2" t="str">
+      <x:c r="B232" s="2" t="str">
         <x:v>High Speed
 Less Than High Speed
 None
 </x:v>
       </x:c>
-      <x:c r="C231" s="2" t="str">
+      <x:c r="C232" s="2" t="str">
         <x:v>The type of Internet access available.</x:v>
       </x:c>
     </x:row>
-    <x:row r="232">
-      <x:c r="A232" s="2" t="str">
+    <x:row r="233">
+      <x:c r="A233" s="2" t="str">
         <x:v>InterventionClassType</x:v>
       </x:c>
-      <x:c r="B232" s="2" t="str">
+      <x:c r="B233" s="2" t="str">
         <x:v>Curriculum
 Other
 Practice
 Supplement
 </x:v>
       </x:c>
-      <x:c r="C232" s="2" t="str">
+      <x:c r="C233" s="2" t="str">
         <x:v>The way in which an intervention is used: curriculum, supplement, or practice.</x:v>
       </x:c>
     </x:row>
-    <x:row r="233">
-      <x:c r="A233" s="2" t="str">
+    <x:row r="234">
+      <x:c r="A234" s="2" t="str">
         <x:v>InterventionEffectivenessRatingType</x:v>
       </x:c>
-      <x:c r="B233" s="2" t="str">
+      <x:c r="B234" s="2" t="str">
         <x:v>Positive Effects
 Potentially Positive Effects
 Mixed Effects
@@ -55803,42 +55832,42 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C233" s="2" t="str">
+      <x:c r="C234" s="2" t="str">
         <x:v>An intervention demonstrates effectiveness if the research has shown that the program caused an improvement in outcomes. Rating Values: positive effects, potentially positive effects, mixed effects, potentially negative effects, negative effects, and no discernible effects.</x:v>
       </x:c>
     </x:row>
-    <x:row r="234">
-      <x:c r="A234" s="2" t="str">
+    <x:row r="235">
+      <x:c r="A235" s="2" t="str">
         <x:v>IssuerName</x:v>
       </x:c>
-      <x:c r="B234" s="2" t="str">
+      <x:c r="B235" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 150
 </x:v>
       </x:c>
-      <x:c r="C234" s="2" t="str">
+      <x:c r="C235" s="2" t="str">
         <x:v>The name of the agent issuing the award.</x:v>
       </x:c>
     </x:row>
-    <x:row r="235">
-      <x:c r="A235" s="2" t="str">
+    <x:row r="236">
+      <x:c r="A236" s="2" t="str">
         <x:v>LanguageMapType</x:v>
       </x:c>
-      <x:c r="B235" s="2" t="str">
+      <x:c r="B236" s="2" t="str">
         <x:v>Spanish
 English
 Other
 </x:v>
       </x:c>
-      <x:c r="C235" s="2" t="str">
+      <x:c r="C236" s="2" t="str">
         <x:v>The category denoting language(s) spoken or written.</x:v>
       </x:c>
     </x:row>
-    <x:row r="236">
-      <x:c r="A236" s="2" t="str">
+    <x:row r="237">
+      <x:c r="A237" s="2" t="str">
         <x:v>LanguageUseType</x:v>
       </x:c>
-      <x:c r="B236" s="2" t="str">
+      <x:c r="B237" s="2" t="str">
         <x:v>Home language
 Spoken language
 Written language
@@ -55849,67 +55878,67 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C236" s="2" t="str">
+      <x:c r="C237" s="2" t="str">
         <x:v>The category denoting how a language is used.</x:v>
       </x:c>
     </x:row>
-    <x:row r="237">
-      <x:c r="A237" s="2" t="str">
+    <x:row r="238">
+      <x:c r="A238" s="2" t="str">
         <x:v>LastSurname</x:v>
       </x:c>
-      <x:c r="B237" s="2" t="str">
+      <x:c r="B238" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C237" s="2" t="str">
+      <x:c r="C238" s="2" t="str">
         <x:v>The name borne in common by members of a family.</x:v>
       </x:c>
     </x:row>
-    <x:row r="238">
-      <x:c r="A238" s="2" t="str">
+    <x:row r="239">
+      <x:c r="A239" s="2" t="str">
         <x:v>Learning</x:v>
       </x:c>
-      <x:c r="B238" s="2" t="str">
+      <x:c r="B239" s="2" t="str">
         <x:v>totalDigits: 5
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C238" s="2" t="str">
+      <x:c r="C239" s="2" t="str">
         <x:v>Student's learning method preference (ex. auditory, visual, and "kinesthetic or tactile") expressed as a normalized percentage.</x:v>
       </x:c>
     </x:row>
-    <x:row r="239">
-      <x:c r="A239" s="2" t="str">
+    <x:row r="240">
+      <x:c r="A240" s="2" t="str">
         <x:v>LearningResourceMetadataURI</x:v>
       </x:c>
-      <x:c r="B239" s="2" t="str">
+      <x:c r="B240" s="2" t="str">
         <x:v>minLength: 5
 maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C239" s="2" t="str">
+      <x:c r="C240" s="2" t="str">
         <x:v>The public web site address (URL), file, or ftp locator.</x:v>
       </x:c>
     </x:row>
-    <x:row r="240">
-      <x:c r="A240" s="2" t="str">
+    <x:row r="241">
+      <x:c r="A241" s="2" t="str">
         <x:v>LearningStandardId</x:v>
       </x:c>
-      <x:c r="B240" s="2" t="str">
+      <x:c r="B241" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C240" s="2" t="str">
+      <x:c r="C241" s="2" t="str">
         <x:v>A unique number or alphanumeric code assigned to a Learning Standard.</x:v>
       </x:c>
     </x:row>
-    <x:row r="241">
-      <x:c r="A241" s="2" t="str">
+    <x:row r="242">
+      <x:c r="A242" s="2" t="str">
         <x:v>LeaveEventCategoryType</x:v>
       </x:c>
-      <x:c r="B241" s="2" t="str">
+      <x:c r="B242" s="2" t="str">
         <x:v>Vacation
 Jury duty
 Professional development
@@ -55930,28 +55959,28 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C241" s="2" t="str">
+      <x:c r="C242" s="2" t="str">
         <x:v>A code describing the type of the leave event.</x:v>
       </x:c>
     </x:row>
-    <x:row r="242">
-      <x:c r="A242" s="2" t="str">
+    <x:row r="243">
+      <x:c r="A243" s="2" t="str">
         <x:v>LeaveEventReason</x:v>
       </x:c>
-      <x:c r="B242" s="2" t="str">
+      <x:c r="B243" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 40
 </x:v>
       </x:c>
-      <x:c r="C242" s="2" t="str">
+      <x:c r="C243" s="2" t="str">
         <x:v>Expanded reason for the staff leave.</x:v>
       </x:c>
     </x:row>
-    <x:row r="243">
-      <x:c r="A243" s="2" t="str">
+    <x:row r="244">
+      <x:c r="A244" s="2" t="str">
         <x:v>LevelOfEducationMapType</x:v>
       </x:c>
-      <x:c r="B243" s="2" t="str">
+      <x:c r="B244" s="2" t="str">
         <x:v>Did Not Graduate High School
 High School Diploma
 Some College No Degree
@@ -55961,70 +55990,70 @@
 Associate's Degree (two years or more)
 </x:v>
       </x:c>
-      <x:c r="C243" s="2" t="str">
+      <x:c r="C244" s="2" t="str">
         <x:v>The enumeration of the different levels of education achievable.</x:v>
       </x:c>
     </x:row>
-    <x:row r="244">
-      <x:c r="A244" s="2" t="str">
+    <x:row r="245">
+      <x:c r="A245" s="2" t="str">
         <x:v>LimitedEnglishProficiencyMapType</x:v>
       </x:c>
-      <x:c r="B244" s="2" t="str">
+      <x:c r="B245" s="2" t="str">
         <x:v>NotLimited
 Limited
 Limited Monitored 1
 Limited Monitored 2
 </x:v>
       </x:c>
-      <x:c r="C244" s="2" t="str">
+      <x:c r="C245" s="2" t="str">
         <x:v>An indication that the student has been identified as Limited English Proficient or English Proficient by the Language Proficiency Assessment Committee (LPAC).</x:v>
       </x:c>
     </x:row>
-    <x:row r="245">
-      <x:c r="A245" s="2" t="str">
+    <x:row r="246">
+      <x:c r="A246" s="2" t="str">
         <x:v>LocalCourseCode</x:v>
       </x:c>
-      <x:c r="B245" s="2" t="str">
+      <x:c r="B246" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C245" s="2" t="str">
+      <x:c r="C246" s="2" t="str">
         <x:v>The local code assigned by the LEA that identifies the organization of subject matter and related learning experiences provided for the instruction of students.</x:v>
       </x:c>
     </x:row>
-    <x:row r="246">
-      <x:c r="A246" s="2" t="str">
+    <x:row r="247">
+      <x:c r="A247" s="2" t="str">
         <x:v>LocalEducationAgencyCategoryType</x:v>
       </x:c>
-      <x:c r="B246" s="2" t="str">
+      <x:c r="B247" s="2" t="str">
         <x:v>Independent
 Charter
 </x:v>
       </x:c>
-      <x:c r="C246" s="2" t="str">
+      <x:c r="C247" s="2" t="str">
         <x:v>The category of local education agency/district. For example: Independent or Charter.</x:v>
       </x:c>
     </x:row>
-    <x:row r="247">
-      <x:c r="A247" s="2" t="str">
+    <x:row r="248">
+      <x:c r="A248" s="2" t="str">
         <x:v>MagnetSpecialProgramEmphasisSchoolType</x:v>
       </x:c>
-      <x:c r="B247" s="2" t="str">
+      <x:c r="B248" s="2" t="str">
         <x:v>All students participate
 No students participate
 Some, but not all, students participate
 </x:v>
       </x:c>
-      <x:c r="C247" s="2" t="str">
+      <x:c r="C248" s="2" t="str">
         <x:v>A school that has been designed to attract students of different racial/ethnic backgrounds for the purpose of reducing, preventing or eliminating racial isolation; and/or to provide an academic or social focus on a particular theme (e.g., science/math, performing arts, gifted/talented, or foreign language).</x:v>
       </x:c>
     </x:row>
-    <x:row r="248">
-      <x:c r="A248" s="2" t="str">
+    <x:row r="249">
+      <x:c r="A249" s="2" t="str">
         <x:v>MediumOfInstructionType</x:v>
       </x:c>
-      <x:c r="B248" s="2" t="str">
+      <x:c r="B249" s="2" t="str">
         <x:v>Center-based instruction
 Correspondence instruction
 Distance Learning (other than online)
@@ -56040,15 +56069,15 @@
 Virtual/On-line Distance learning
 </x:v>
       </x:c>
-      <x:c r="C248" s="2" t="str">
+      <x:c r="C249" s="2" t="str">
         <x:v>The media through which teachers provide instruction to students and students and teachers communicate about instructional matters.</x:v>
       </x:c>
     </x:row>
-    <x:row r="249">
-      <x:c r="A249" s="2" t="str">
+    <x:row r="250">
+      <x:c r="A250" s="2" t="str">
         <x:v>MeetingDayType</x:v>
       </x:c>
-      <x:c r="B249" s="2" t="str">
+      <x:c r="B250" s="2" t="str">
         <x:v>Monday
 Tuesday
 Wednesday
@@ -56058,15 +56087,15 @@
 Sunday
 </x:v>
       </x:c>
-      <x:c r="C249" s="2" t="str">
+      <x:c r="C250" s="2" t="str">
         <x:v>The enumeration items for the day(s) of the week (e.g., Monday, Wednesday) that the class meets or an indication that a class meets "out-of-school" or "self-paced".</x:v>
       </x:c>
     </x:row>
-    <x:row r="250">
-      <x:c r="A250" s="2" t="str">
+    <x:row r="251">
+      <x:c r="A251" s="2" t="str">
         <x:v>MethodCreditEarnedType</x:v>
       </x:c>
-      <x:c r="B250" s="2" t="str">
+      <x:c r="B251" s="2" t="str">
         <x:v>Classroom credit
 Converted occupational experience credit
 Correspondence credit
@@ -56077,92 +56106,78 @@
 Transfer credit
 </x:v>
       </x:c>
-      <x:c r="C250" s="2" t="str">
+      <x:c r="C251" s="2" t="str">
         <x:v>The method the credits were earned, for example:  Classroom, Examination, Transfer.</x:v>
       </x:c>
     </x:row>
-    <x:row r="251">
-      <x:c r="A251" s="2" t="str">
+    <x:row r="252">
+      <x:c r="A252" s="2" t="str">
         <x:v>MiddleName</x:v>
       </x:c>
-      <x:c r="B251" s="2" t="str">
+      <x:c r="B252" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C251" s="2" t="str">
+      <x:c r="C252" s="2" t="str">
         <x:v>A secondary name given to an individual at birth, baptism, or during another naming ceremony.</x:v>
       </x:c>
     </x:row>
-    <x:row r="252">
-      <x:c r="A252" s="2" t="str">
+    <x:row r="253">
+      <x:c r="A253" s="2" t="str">
         <x:v>NameOfCounty</x:v>
       </x:c>
-      <x:c r="B252" s="2" t="str">
+      <x:c r="B253" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 30
 </x:v>
       </x:c>
-      <x:c r="C252" s="2" t="str">
+      <x:c r="C253" s="2" t="str">
         <x:v>The name of the county, parish, borough, or comparable unit (within a state) in which an address is located.</x:v>
       </x:c>
     </x:row>
-    <x:row r="253">
-      <x:c r="A253" s="2" t="str">
+    <x:row r="254">
+      <x:c r="A254" s="2" t="str">
         <x:v>NameOfInstitution</x:v>
       </x:c>
-      <x:c r="B253" s="2" t="str">
+      <x:c r="B254" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C253" s="2" t="str">
+      <x:c r="C254" s="2" t="str">
         <x:v>The full, legally accepted name of the institution.</x:v>
       </x:c>
     </x:row>
-    <x:row r="254">
-      <x:c r="A254" s="2" t="str">
+    <x:row r="255">
+      <x:c r="A255" s="2" t="str">
         <x:v>NetworkPurposeType</x:v>
       </x:c>
-      <x:c r="B254" s="2" t="str">
+      <x:c r="B255" s="2" t="str">
         <x:v>Shared Services
 Collective Procurement
 </x:v>
       </x:c>
-      <x:c r="C254" s="2" t="str">
+      <x:c r="C255" s="2" t="str">
         <x:v>The purpose(s) of the network, e.g. shared services, collective procurement, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="255">
-      <x:c r="A255" s="2" t="str">
+    <x:row r="256">
+      <x:c r="A256" s="2" t="str">
         <x:v>Nomenclature</x:v>
       </x:c>
-      <x:c r="B255" s="2" t="str">
+      <x:c r="B256" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 35
 </x:v>
       </x:c>
-      <x:c r="C255" s="2" t="str">
+      <x:c r="C256" s="2" t="str">
         <x:v>Reflects the common nomenclature for an element.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="256">
-      <x:c r="A256" s="2" t="str">
-        <x:v>NumberOfDaysAbsent</x:v>
-      </x:c>
-      <x:c r="B256" s="2" t="str">
-        <x:v>minInclusive: 0
-totalDigits: 18
-fractionDigits: 4
-</x:v>
-      </x:c>
-      <x:c r="C256" s="2" t="str">
-        <x:v>The number of days an individual is absent when school is in session during a given reporting period.</x:v>
       </x:c>
     </x:row>
     <x:row r="257">
       <x:c r="A257" s="2" t="str">
-        <x:v>NumberOfDaysInAttendance</x:v>
+        <x:v>NumberOfDaysAbsent</x:v>
       </x:c>
       <x:c r="B257" s="2" t="str">
         <x:v>minInclusive: 0
@@ -56171,78 +56186,92 @@
 </x:v>
       </x:c>
       <x:c r="C257" s="2" t="str">
-        <x:v>The number of days an individual is present when school is in session during a given reporting period.</x:v>
+        <x:v>The number of days an individual is absent when school is in session during a given reporting period.</x:v>
       </x:c>
     </x:row>
     <x:row r="258">
       <x:c r="A258" s="2" t="str">
-        <x:v>NumberOfDaysTardy</x:v>
+        <x:v>NumberOfDaysInAttendance</x:v>
       </x:c>
       <x:c r="B258" s="2" t="str">
         <x:v>minInclusive: 0
+totalDigits: 18
+fractionDigits: 4
 </x:v>
       </x:c>
       <x:c r="C258" s="2" t="str">
-        <x:v>The number of days an individual is tardy during a given reporting period.</x:v>
+        <x:v>The number of days an individual is present when school is in session during a given reporting period.</x:v>
       </x:c>
     </x:row>
     <x:row r="259">
       <x:c r="A259" s="2" t="str">
+        <x:v>NumberOfDaysTardy</x:v>
+      </x:c>
+      <x:c r="B259" s="2" t="str">
+        <x:v>minInclusive: 0
+</x:v>
+      </x:c>
+      <x:c r="C259" s="2" t="str">
+        <x:v>The number of days an individual is tardy during a given reporting period.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="260">
+      <x:c r="A260" s="2" t="str">
         <x:v>NumberOfParts</x:v>
       </x:c>
-      <x:c r="B259" s="2" t="str">
+      <x:c r="B260" s="2" t="str">
         <x:v>minInclusive: 1
 maxInclusive: 8
 </x:v>
       </x:c>
-      <x:c r="C259" s="2" t="str">
+      <x:c r="C260" s="2" t="str">
         <x:v>The number of parts identified for a course.</x:v>
       </x:c>
     </x:row>
-    <x:row r="260">
-      <x:c r="A260" s="2" t="str">
+    <x:row r="261">
+      <x:c r="A261" s="2" t="str">
         <x:v>NumberOfYears</x:v>
       </x:c>
-      <x:c r="B260" s="2" t="str">
+      <x:c r="B261" s="2" t="str">
         <x:v>totalDigits: 5
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C260" s="2" t="str">
+      <x:c r="C261" s="2" t="str">
         <x:v>The number of years expressed as whole and fractional units.</x:v>
       </x:c>
     </x:row>
-    <x:row r="261">
-      <x:c r="A261" s="2" t="str">
+    <x:row r="262">
+      <x:c r="A262" s="2" t="str">
         <x:v>NumericGrade</x:v>
       </x:c>
-      <x:c r="B261" s="2" t="str">
+      <x:c r="B262" s="2" t="str">
         <x:v>totalDigits: 9
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C261" s="2" t="str">
+      <x:c r="C262" s="2" t="str">
         <x:v>The numeric grade expressed as whole and fractional units.</x:v>
       </x:c>
     </x:row>
-    <x:row r="262">
-      <x:c r="A262" s="2" t="str">
+    <x:row r="263">
+      <x:c r="A263" s="2" t="str">
         <x:v>Objective</x:v>
       </x:c>
-      <x:c r="B262" s="2" t="str">
+      <x:c r="B263" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C262" s="2" t="str">
+      <x:c r="C263" s="2" t="str">
         <x:v>The designated title of the learning objective.</x:v>
       </x:c>
     </x:row>
-    <x:row r="263">
-      <x:c r="A263" s="2" t="str">
+    <x:row r="264">
+      <x:c r="A264" s="2" t="str">
         <x:v>OldEthnicityType</x:v>
       </x:c>
-      <x:c r="B263" s="2" t="str">
+      <x:c r="B264" s="2" t="str">
         <x:v>American Indian Or Alaskan Native
 Asian Or Pacific Islander
 Black, Not Of Hispanic Origin
@@ -56250,15 +56279,15 @@
 White, Not Of Hispanic Origin
 </x:v>
       </x:c>
-      <x:c r="C263" s="2" t="str">
+      <x:c r="C264" s="2" t="str">
         <x:v>Previous definition of Ethnicity combining Hispanic/Latino and Race.</x:v>
       </x:c>
     </x:row>
-    <x:row r="264">
-      <x:c r="A264" s="2" t="str">
+    <x:row r="265">
+      <x:c r="A265" s="2" t="str">
         <x:v>OperationalStatusType</x:v>
       </x:c>
-      <x:c r="B264" s="2" t="str">
+      <x:c r="B265" s="2" t="str">
         <x:v>Active
 Added
 Changed Agency
@@ -56270,45 +56299,45 @@
 Reopened
 </x:v>
       </x:c>
-      <x:c r="C264" s="2" t="str">
+      <x:c r="C265" s="2" t="str">
         <x:v>The current operational status of the education organization (e.g., active, inactive).</x:v>
       </x:c>
     </x:row>
-    <x:row r="265">
-      <x:c r="A265" s="2" t="str">
+    <x:row r="266">
+      <x:c r="A266" s="2" t="str">
         <x:v>OtherNameType</x:v>
       </x:c>
-      <x:c r="B265" s="2" t="str">
+      <x:c r="B266" s="2" t="str">
         <x:v>Alias
 Nickname
 Other Name
 Previous Legal Name
 </x:v>
       </x:c>
-      <x:c r="C265" s="2" t="str">
+      <x:c r="C266" s="2" t="str">
         <x:v>The types of alternate names for a person.</x:v>
       </x:c>
     </x:row>
-    <x:row r="266">
-      <x:c r="A266" s="2" t="str">
+    <x:row r="267">
+      <x:c r="A267" s="2" t="str">
         <x:v>Percent</x:v>
       </x:c>
-      <x:c r="B266" s="2" t="str">
+      <x:c r="B267" s="2" t="str">
         <x:v>minInclusive: 0
 maxInclusive: 1
 totalDigits: 5
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C266" s="2" t="str">
+      <x:c r="C267" s="2" t="str">
         <x:v>A proportion in relation to the whole (as measured in parts per one hundred).</x:v>
       </x:c>
     </x:row>
-    <x:row r="267">
-      <x:c r="A267" s="2" t="str">
+    <x:row r="268">
+      <x:c r="A268" s="2" t="str">
         <x:v>PerformanceBaseConversionType</x:v>
       </x:c>
-      <x:c r="B267" s="2" t="str">
+      <x:c r="B268" s="2" t="str">
         <x:v>Advanced
 Proficient
 Basic
@@ -56318,15 +56347,15 @@
 Fail
 </x:v>
       </x:c>
-      <x:c r="C267" s="2" t="str">
+      <x:c r="C268" s="2" t="str">
         <x:v>Defines standard levels of competency or performance that can be used for dashboard visualizations: advanced, proficient, basic, and below basic.</x:v>
       </x:c>
     </x:row>
-    <x:row r="268">
-      <x:c r="A268" s="2" t="str">
+    <x:row r="269">
+      <x:c r="A269" s="2" t="str">
         <x:v>PersonalInformationVerificationType</x:v>
       </x:c>
-      <x:c r="B268" s="2" t="str">
+      <x:c r="B269" s="2" t="str">
         <x:v>Baptismal or church certificate
 Birth certificate
 Drivers license
@@ -56344,28 +56373,28 @@
 State-issued ID
 </x:v>
       </x:c>
-      <x:c r="C268" s="2" t="str">
+      <x:c r="C269" s="2" t="str">
         <x:v>The evidence presented to verify one's personal identity; for example: driver's license, passport, birth certificate, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="269">
-      <x:c r="A269" s="2" t="str">
+    <x:row r="270">
+      <x:c r="A270" s="2" t="str">
         <x:v>PersonalTitlePrefix</x:v>
       </x:c>
-      <x:c r="B269" s="2" t="str">
+      <x:c r="B270" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 30
 </x:v>
       </x:c>
-      <x:c r="C269" s="2" t="str">
+      <x:c r="C270" s="2" t="str">
         <x:v>A prefix used to denote the title, degree, position, or seniority of the person.</x:v>
       </x:c>
     </x:row>
-    <x:row r="270">
-      <x:c r="A270" s="2" t="str">
+    <x:row r="271">
+      <x:c r="A271" s="2" t="str">
         <x:v>PopulationServedType</x:v>
       </x:c>
-      <x:c r="B270" s="2" t="str">
+      <x:c r="B271" s="2" t="str">
         <x:v>Regular Students
 Bilingual Students
 Compensatory/Remedial Education Students
@@ -56379,54 +56408,54 @@
 Economic Disadvantaged
 </x:v>
       </x:c>
-      <x:c r="C270" s="2" t="str">
+      <x:c r="C271" s="2" t="str">
         <x:v>The type of students the Section is offered and tailored to.</x:v>
       </x:c>
     </x:row>
-    <x:row r="271">
-      <x:c r="A271" s="2" t="str">
+    <x:row r="272">
+      <x:c r="A272" s="2" t="str">
         <x:v>PositionTitle</x:v>
       </x:c>
-      <x:c r="B271" s="2" t="str">
+      <x:c r="B272" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 100
 </x:v>
       </x:c>
-      <x:c r="C271" s="2" t="str">
+      <x:c r="C272" s="2" t="str">
         <x:v>The descriptive name of an individual's position.</x:v>
       </x:c>
     </x:row>
-    <x:row r="272">
-      <x:c r="A272" s="2" t="str">
+    <x:row r="273">
+      <x:c r="A273" s="2" t="str">
         <x:v>PostalCode</x:v>
       </x:c>
-      <x:c r="B272" s="2" t="str">
+      <x:c r="B273" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 17
 </x:v>
       </x:c>
-      <x:c r="C272" s="2" t="str">
+      <x:c r="C273" s="2" t="str">
         <x:v>The five or nine digit zip code or overseas postal code portion of an address.</x:v>
       </x:c>
     </x:row>
-    <x:row r="273">
-      <x:c r="A273" s="2" t="str">
+    <x:row r="274">
+      <x:c r="A274" s="2" t="str">
         <x:v>PostingResultType</x:v>
       </x:c>
-      <x:c r="B273" s="2" t="str">
+      <x:c r="B274" s="2" t="str">
         <x:v>Position Filled
 Posting Cancelled
 </x:v>
       </x:c>
-      <x:c r="C273" s="2" t="str">
+      <x:c r="C274" s="2" t="str">
         <x:v>Indication of whether the position was filled or retired without filling.</x:v>
       </x:c>
     </x:row>
-    <x:row r="274">
-      <x:c r="A274" s="2" t="str">
+    <x:row r="275">
+      <x:c r="A275" s="2" t="str">
         <x:v>PostSecondaryEventCategoryType</x:v>
       </x:c>
-      <x:c r="B274" s="2" t="str">
+      <x:c r="B275" s="2" t="str">
         <x:v>Certification Received
 College Application
 College Acceptance
@@ -56440,55 +56469,55 @@
 College Exit Date
 </x:v>
       </x:c>
-      <x:c r="C274" s="2" t="str">
+      <x:c r="C275" s="2" t="str">
         <x:v>A code describing the type of post-secondary event (e.g., college application or acceptance).</x:v>
       </x:c>
     </x:row>
-    <x:row r="275">
-      <x:c r="A275" s="2" t="str">
+    <x:row r="276">
+      <x:c r="A276" s="2" t="str">
         <x:v>PostSecondaryInstitutionId</x:v>
       </x:c>
-      <x:c r="B275" s="2" t="str">
+      <x:c r="B276" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 30
 </x:v>
       </x:c>
-      <x:c r="C275" s="2" t="str">
+      <x:c r="C276" s="2" t="str">
         <x:v>A unique number or alphanumeric code assigned to the postsecondary organization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="276">
-      <x:c r="A276" s="2" t="str">
+    <x:row r="277">
+      <x:c r="A277" s="2" t="str">
         <x:v>PostSecondaryInstitutionLevelType</x:v>
       </x:c>
-      <x:c r="B276" s="2" t="str">
+      <x:c r="B277" s="2" t="str">
         <x:v>Four or more years
 At least 2 but less than 4 years
 Less than 2 years (below associate)
 </x:v>
       </x:c>
-      <x:c r="C276" s="2" t="str">
+      <x:c r="C277" s="2" t="str">
         <x:v>A classification of whether a post-secondary institution's highest level of offering is a program of 4 years or higher (4 year), 2 but less than 4 years (2 year) or less than 2 years.</x:v>
       </x:c>
     </x:row>
-    <x:row r="277">
-      <x:c r="A277" s="2" t="str">
+    <x:row r="278">
+      <x:c r="A278" s="2" t="str">
         <x:v>ProfileThumbnail</x:v>
       </x:c>
-      <x:c r="B277" s="2" t="str">
+      <x:c r="B278" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 59
 </x:v>
       </x:c>
-      <x:c r="C277" s="2" t="str">
+      <x:c r="C278" s="2" t="str">
         <x:v>ProfileThumbnail.</x:v>
       </x:c>
     </x:row>
-    <x:row r="278">
-      <x:c r="A278" s="2" t="str">
+    <x:row r="279">
+      <x:c r="A279" s="2" t="str">
         <x:v>ProgramAssignmentMapType</x:v>
       </x:c>
-      <x:c r="B278" s="2" t="str">
+      <x:c r="B279" s="2" t="str">
         <x:v>Regular Education
 Title I-Academic
 Title I-Non-Academic
@@ -56497,53 +56526,53 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C278" s="2" t="str">
+      <x:c r="C279" s="2" t="str">
         <x:v>The name of the education program for which a teacher is assigned to a school.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="279">
-      <x:c r="A279" s="2" t="str">
-        <x:v>ProgramCharacteristicMapType</x:v>
-      </x:c>
-      <x:c r="B279" s="2" t="str">
-        <x:v>A McKinney-Vento Program for Homelessness
-</x:v>
-      </x:c>
-      <x:c r="C279" s="2" t="str">
-        <x:v>Reflects important characteristics of the Program, such as categories or particular indications.</x:v>
       </x:c>
     </x:row>
     <x:row r="280">
       <x:c r="A280" s="2" t="str">
+        <x:v>ProgramCharacteristicMapType</x:v>
+      </x:c>
+      <x:c r="B280" s="2" t="str">
+        <x:v>A McKinney-Vento Program for Homelessness
+</x:v>
+      </x:c>
+      <x:c r="C280" s="2" t="str">
+        <x:v>Reflects important characteristics of the Program, such as categories or particular indications.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="281">
+      <x:c r="A281" s="2" t="str">
         <x:v>ProgramId</x:v>
       </x:c>
-      <x:c r="B280" s="2" t="str">
+      <x:c r="B281" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C280" s="2" t="str">
+      <x:c r="C281" s="2" t="str">
         <x:v>A unique number or alphanumeric code assigned to a program by a school, school system, a state, or other agency or entity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="281">
-      <x:c r="A281" s="2" t="str">
+    <x:row r="282">
+      <x:c r="A282" s="2" t="str">
         <x:v>ProgramName</x:v>
       </x:c>
-      <x:c r="B281" s="2" t="str">
+      <x:c r="B282" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C281" s="2" t="str">
+      <x:c r="C282" s="2" t="str">
         <x:v>The formal name of the program of instruction, training, services, or benefits available through federal, state, or local agencies.</x:v>
       </x:c>
     </x:row>
-    <x:row r="282">
-      <x:c r="A282" s="2" t="str">
+    <x:row r="283">
+      <x:c r="A283" s="2" t="str">
         <x:v>ProgramSponsorType</x:v>
       </x:c>
-      <x:c r="B282" s="2" t="str">
+      <x:c r="B283" s="2" t="str">
         <x:v>Business
 Federal government
 State Education Agency
@@ -56558,15 +56587,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C282" s="2" t="str">
+      <x:c r="C283" s="2" t="str">
         <x:v>Ultimate and intermediate providers of funds for a particular educational or service program or activity or for an individual's participation in the program or activity (e.g., Federal, State, ESC, District, School, Private Org).</x:v>
       </x:c>
     </x:row>
-    <x:row r="283">
-      <x:c r="A283" s="2" t="str">
+    <x:row r="284">
+      <x:c r="A284" s="2" t="str">
         <x:v>ProgramType</x:v>
       </x:c>
-      <x:c r="B283" s="2" t="str">
+      <x:c r="B284" s="2" t="str">
         <x:v>Adult/Continuing Education
 Alternative Education
 Athletics
@@ -56627,15 +56656,15 @@
 Vocational Education
 </x:v>
       </x:c>
-      <x:c r="C283" s="2" t="str">
+      <x:c r="C284" s="2" t="str">
         <x:v>The formal name of the program of instruction, training, services, or benefits available through federal, state, or local agencies.</x:v>
       </x:c>
     </x:row>
-    <x:row r="284">
-      <x:c r="A284" s="2" t="str">
+    <x:row r="285">
+      <x:c r="A285" s="2" t="str">
         <x:v>PublicationStatusType</x:v>
       </x:c>
-      <x:c r="B284" s="2" t="str">
+      <x:c r="B285" s="2" t="str">
         <x:v>Adopted
 Draft
 Published
@@ -56643,28 +56672,28 @@
 Unknown
 </x:v>
       </x:c>
-      <x:c r="C284" s="2" t="str">
+      <x:c r="C285" s="2" t="str">
         <x:v>The publication status of the document (i.e., Adopted, Draft, Published, Deprecated, Unknown).</x:v>
       </x:c>
     </x:row>
-    <x:row r="285">
-      <x:c r="A285" s="2" t="str">
+    <x:row r="286">
+      <x:c r="A286" s="2" t="str">
         <x:v>Publisher</x:v>
       </x:c>
-      <x:c r="B285" s="2" t="str">
+      <x:c r="B286" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C285" s="2" t="str">
+      <x:c r="C286" s="2" t="str">
         <x:v>The organization credited with publishing the resource.</x:v>
       </x:c>
     </x:row>
-    <x:row r="286">
-      <x:c r="A286" s="2" t="str">
+    <x:row r="287">
+      <x:c r="A287" s="2" t="str">
         <x:v>RaceType</x:v>
       </x:c>
-      <x:c r="B286" s="2" t="str">
+      <x:c r="B287" s="2" t="str">
         <x:v>American Indian - Alaskan Native
 Asian
 Black - African American
@@ -56674,26 +56703,13 @@
 White
 </x:v>
       </x:c>
-      <x:c r="C286" s="2" t="str">
+      <x:c r="C287" s="2" t="str">
         <x:v>The enumeration items defining the racial categories which most clearly reflects the individual's recognition of his or her community or with which the individual most identifies.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="287">
-      <x:c r="A287" s="2" t="str">
-        <x:v>Rating</x:v>
-      </x:c>
-      <x:c r="B287" s="2" t="str">
-        <x:v>minLength: 1
-maxLength: 35
-</x:v>
-      </x:c>
-      <x:c r="C287" s="2" t="str">
-        <x:v>An accountability rating level, designation, or assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="288">
       <x:c r="A288" s="2" t="str">
-        <x:v>RatingOrganization</x:v>
+        <x:v>Rating</x:v>
       </x:c>
       <x:c r="B288" s="2" t="str">
         <x:v>minLength: 1
@@ -56701,40 +56717,53 @@
 </x:v>
       </x:c>
       <x:c r="C288" s="2" t="str">
-        <x:v>The organization assigning the accountability rating.</x:v>
+        <x:v>An accountability rating level, designation, or assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="289">
       <x:c r="A289" s="2" t="str">
-        <x:v>RatingProgram</x:v>
+        <x:v>RatingOrganization</x:v>
       </x:c>
       <x:c r="B289" s="2" t="str">
         <x:v>minLength: 1
-maxLength: 30
+maxLength: 35
 </x:v>
       </x:c>
       <x:c r="C289" s="2" t="str">
-        <x:v>The rating program (e.g., NCLB).</x:v>
+        <x:v>The organization assigning the accountability rating.</x:v>
       </x:c>
     </x:row>
     <x:row r="290">
       <x:c r="A290" s="2" t="str">
-        <x:v>RatingTitleType</x:v>
+        <x:v>RatingProgram</x:v>
       </x:c>
       <x:c r="B290" s="2" t="str">
         <x:v>minLength: 1
-maxLength: 60
+maxLength: 30
 </x:v>
       </x:c>
       <x:c r="C290" s="2" t="str">
-        <x:v>The title of the rating (e.g., School Rating, Safety Score).</x:v>
+        <x:v>The rating program (e.g., NCLB).</x:v>
       </x:c>
     </x:row>
     <x:row r="291">
       <x:c r="A291" s="2" t="str">
+        <x:v>RatingTitleType</x:v>
+      </x:c>
+      <x:c r="B291" s="2" t="str">
+        <x:v>minLength: 1
+maxLength: 60
+</x:v>
+      </x:c>
+      <x:c r="C291" s="2" t="str">
+        <x:v>The title of the rating (e.g., School Rating, Safety Score).</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="292">
+      <x:c r="A292" s="2" t="str">
         <x:v>ReasonExitedMapType</x:v>
       </x:c>
-      <x:c r="B291" s="2" t="str">
+      <x:c r="B292" s="2" t="str">
         <x:v>Died or is permanently incapacitated
 Reached maximum age
 Discontinued schooling
@@ -56748,15 +56777,15 @@
 Unknown reason
 </x:v>
       </x:c>
-      <x:c r="C291" s="2" t="str">
+      <x:c r="C292" s="2" t="str">
         <x:v>The reason the child left the program within a school or district.</x:v>
       </x:c>
     </x:row>
-    <x:row r="292">
-      <x:c r="A292" s="2" t="str">
+    <x:row r="293">
+      <x:c r="A293" s="2" t="str">
         <x:v>ReasonNotTestedType</x:v>
       </x:c>
-      <x:c r="B292" s="2" t="str">
+      <x:c r="B293" s="2" t="str">
         <x:v>Absent
 LEP exempt
 LEP postponement
@@ -56773,7 +56802,7 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C292" s="2" t="str">
+      <x:c r="C293" s="2" t="str">
         <x:v>The primary reason student is not tested. For example:
     Absent
     Refusal by parent
@@ -56785,24 +56814,24 @@
     '...</x:v>
       </x:c>
     </x:row>
-    <x:row r="293">
-      <x:c r="A293" s="2" t="str">
+    <x:row r="294">
+      <x:c r="A294" s="2" t="str">
         <x:v>RecognitionDescription</x:v>
       </x:c>
-      <x:c r="B293" s="2" t="str">
+      <x:c r="B294" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C293" s="2" t="str">
+      <x:c r="C294" s="2" t="str">
         <x:v>The description of recognition given to the student for accomplishments in a co-curricular or extra-curricular activity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="294">
-      <x:c r="A294" s="2" t="str">
+    <x:row r="295">
+      <x:c r="A295" s="2" t="str">
         <x:v>RecognitionType</x:v>
       </x:c>
-      <x:c r="B294" s="2" t="str">
+      <x:c r="B295" s="2" t="str">
         <x:v>Athletic awards
 Awarding of units of value
 Citizenship award/recognition
@@ -56817,15 +56846,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C294" s="2" t="str">
+      <x:c r="C295" s="2" t="str">
         <x:v>The nature of recognition given to the student for accomplishments in a co-curricular, or extra-curricular activity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="295">
-      <x:c r="A295" s="2" t="str">
+    <x:row r="296">
+      <x:c r="A296" s="2" t="str">
         <x:v>RelationType</x:v>
       </x:c>
-      <x:c r="B295" s="2" t="str">
+      <x:c r="B296" s="2" t="str">
         <x:v>Aunt
 Brother
 BrotherInLaw
@@ -56865,15 +56894,15 @@
 Wife
 </x:v>
       </x:c>
-      <x:c r="C295" s="2" t="str">
+      <x:c r="C296" s="2" t="str">
         <x:v>The nature of an individual's relationship to a student.</x:v>
       </x:c>
     </x:row>
-    <x:row r="296">
-      <x:c r="A296" s="2" t="str">
+    <x:row r="297">
+      <x:c r="A297" s="2" t="str">
         <x:v>RepeatIdentifierType</x:v>
       </x:c>
-      <x:c r="B296" s="2" t="str">
+      <x:c r="B297" s="2" t="str">
         <x:v>Repeated, counted in grade point average
 Repeated, not counted in grade point average
 Replacement counted
@@ -56884,15 +56913,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C296" s="2" t="str">
+      <x:c r="C297" s="2" t="str">
         <x:v>An indication as to whether a student has previously taken a given course.</x:v>
       </x:c>
     </x:row>
-    <x:row r="297">
-      <x:c r="A297" s="2" t="str">
+    <x:row r="298">
+      <x:c r="A298" s="2" t="str">
         <x:v>ReporterDescriptionMapType</x:v>
       </x:c>
-      <x:c r="B297" s="2" t="str">
+      <x:c r="B298" s="2" t="str">
         <x:v>Parent/guardian
 Staff
 Student
@@ -56901,41 +56930,41 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C297" s="2" t="str">
+      <x:c r="C298" s="2" t="str">
         <x:v>Information on the type of individual who reported the incident.</x:v>
       </x:c>
     </x:row>
-    <x:row r="298">
-      <x:c r="A298" s="2" t="str">
+    <x:row r="299">
+      <x:c r="A299" s="2" t="str">
         <x:v>ReporterName</x:v>
       </x:c>
-      <x:c r="B298" s="2" t="str">
+      <x:c r="B299" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C298" s="2" t="str">
+      <x:c r="C299" s="2" t="str">
         <x:v>Identifies the reporter of the incident by name.</x:v>
       </x:c>
     </x:row>
-    <x:row r="299">
-      <x:c r="A299" s="2" t="str">
+    <x:row r="300">
+      <x:c r="A300" s="2" t="str">
         <x:v>RequisitionNumber</x:v>
       </x:c>
-      <x:c r="B299" s="2" t="str">
+      <x:c r="B300" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C299" s="2" t="str">
+      <x:c r="C300" s="2" t="str">
         <x:v>The number or identifier assigned to an open staff position, typically a requisition number assigned by Human Resources.</x:v>
       </x:c>
     </x:row>
-    <x:row r="300">
-      <x:c r="A300" s="2" t="str">
+    <x:row r="301">
+      <x:c r="A301" s="2" t="str">
         <x:v>ResidencyStatusMapType</x:v>
       </x:c>
-      <x:c r="B300" s="2" t="str">
+      <x:c r="B301" s="2" t="str">
         <x:v>Resident of administrative unit and usual school attendance area
 Resident of administrative unit, but of other school attendance area
 Resident of this state, but not of this administrative unit
@@ -56943,22 +56972,22 @@
 Resident of another state
 </x:v>
       </x:c>
-      <x:c r="C300" s="2" t="str">
+      <x:c r="C301" s="2" t="str">
         <x:v>An indication of the location of a persons legal residence relative to (within or outside of) the boundaries of the public school attended and its administrative unit.</x:v>
       </x:c>
     </x:row>
-    <x:row r="301">
-      <x:c r="A301" s="2" t="str">
+    <x:row r="302">
+      <x:c r="A302" s="2" t="str">
         <x:v>ResponseIndicatorType</x:v>
       </x:c>
-      <x:c r="B301" s="2" t="str">
+      <x:c r="B302" s="2" t="str">
         <x:v>Nonscorable response
 Ineffective response
 Effective response
 Partial response
 </x:v>
       </x:c>
-      <x:c r="C301" s="2" t="str">
+      <x:c r="C302" s="2" t="str">
         <x:v>Indicator of the response.  For example:
     Nonscorable response
     Ineffective response
@@ -56967,11 +56996,11 @@
     ...</x:v>
       </x:c>
     </x:row>
-    <x:row r="302">
-      <x:c r="A302" s="2" t="str">
+    <x:row r="303">
+      <x:c r="A303" s="2" t="str">
         <x:v>ResponsibilityMapType</x:v>
       </x:c>
-      <x:c r="B302" s="2" t="str">
+      <x:c r="B303" s="2" t="str">
         <x:v>Accountability
 Attendance
 Discipline
@@ -56981,55 +57010,55 @@
 Transportation
 </x:v>
       </x:c>
-      <x:c r="C302" s="2" t="str">
+      <x:c r="C303" s="2" t="str">
         <x:v>Indications of an education organization's responsibility for a student, such as accountability, attendance, funding, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="303">
-      <x:c r="A303" s="2" t="str">
+    <x:row r="304">
+      <x:c r="A304" s="2" t="str">
         <x:v>RestraintEventIdentifier</x:v>
       </x:c>
-      <x:c r="B303" s="2" t="str">
+      <x:c r="B304" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C303" s="2" t="str">
+      <x:c r="C304" s="2" t="str">
         <x:v>A unique number or alphanumeric code assigned to a restraint event by a school, school system, a state, or other agency or entity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="304">
-      <x:c r="A304" s="2" t="str">
+    <x:row r="305">
+      <x:c r="A305" s="2" t="str">
         <x:v>RestraintEventReasonType</x:v>
       </x:c>
-      <x:c r="B304" s="2" t="str">
+      <x:c r="B305" s="2" t="str">
         <x:v>Imminent Serious Physical Harm To Themselves
 Imminent Serious Physical Harm To Others
 Imminent Serious Property Destruction
 </x:v>
       </x:c>
-      <x:c r="C304" s="2" t="str">
+      <x:c r="C305" s="2" t="str">
         <x:v>The items of categorization of the circumstances or reason for the restraint.</x:v>
       </x:c>
     </x:row>
-    <x:row r="305">
-      <x:c r="A305" s="2" t="str">
+    <x:row r="306">
+      <x:c r="A306" s="2" t="str">
         <x:v>Result</x:v>
       </x:c>
-      <x:c r="B305" s="2" t="str">
+      <x:c r="B306" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 35
 </x:v>
       </x:c>
-      <x:c r="C305" s="2" t="str">
+      <x:c r="C306" s="2" t="str">
         <x:v>A meaningful raw score or statistical expression of the performance of an individual. The results can be expressed as a number, percentile, range, level, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="306">
-      <x:c r="A306" s="2" t="str">
+    <x:row r="307">
+      <x:c r="A307" s="2" t="str">
         <x:v>ResultDatatypeType</x:v>
       </x:c>
-      <x:c r="B306" s="2" t="str">
+      <x:c r="B307" s="2" t="str">
         <x:v>Integer
 Decimal
 Percentage
@@ -57038,22 +57067,22 @@
 Level
 </x:v>
       </x:c>
-      <x:c r="C306" s="2" t="str">
+      <x:c r="C307" s="2" t="str">
         <x:v>The results can be expressed as a number, percentile, range, level, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="307">
-      <x:c r="A307" s="2" t="str">
+    <x:row r="308">
+      <x:c r="A308" s="2" t="str">
         <x:v>RetestIndicatorType</x:v>
       </x:c>
-      <x:c r="B307" s="2" t="str">
+      <x:c r="B308" s="2" t="str">
         <x:v>Primary Administration
 1st Retest
 2nd Retest
 3nd or more Retest
 </x:v>
       </x:c>
-      <x:c r="C307" s="2" t="str">
+      <x:c r="C308" s="2" t="str">
         <x:v>Indicator if the test was retaken.  For example:
     Primary administration
     First retest
@@ -57061,11 +57090,11 @@
     ...</x:v>
       </x:c>
     </x:row>
-    <x:row r="308">
-      <x:c r="A308" s="2" t="str">
+    <x:row r="309">
+      <x:c r="A309" s="2" t="str">
         <x:v>SchoolCategoryType</x:v>
       </x:c>
-      <x:c r="B308" s="2" t="str">
+      <x:c r="B309" s="2" t="str">
         <x:v>All Levels
 Adult School
 Elementary/Secondary School
@@ -57087,60 +57116,60 @@
 Workforce
 </x:v>
       </x:c>
-      <x:c r="C308" s="2" t="str">
+      <x:c r="C309" s="2" t="str">
         <x:v>The category of school. For example: High School, Middle School, Elementary School.</x:v>
       </x:c>
     </x:row>
-    <x:row r="309">
-      <x:c r="A309" s="2" t="str">
+    <x:row r="310">
+      <x:c r="A310" s="2" t="str">
         <x:v>SchoolChoiceImplementStatusType</x:v>
       </x:c>
-      <x:c r="B309" s="2" t="str">
+      <x:c r="B310" s="2" t="str">
         <x:v>Implemented at all grade levels
 Implemented at some but not all grade levels
 Unable to implement at any grades levels
 Not required to implement public school choice
 </x:v>
       </x:c>
-      <x:c r="C309" s="2" t="str">
+      <x:c r="C310" s="2" t="str">
         <x:v>An indication of whether the LEA was able to implement the provisions for public school choice under Title I, Part A, Section 1116 of ESEA, as amended.</x:v>
       </x:c>
     </x:row>
-    <x:row r="310">
-      <x:c r="A310" s="2" t="str">
+    <x:row r="311">
+      <x:c r="A311" s="2" t="str">
         <x:v>SchoolFoodServicesEligibilityMapType</x:v>
       </x:c>
-      <x:c r="B310" s="2" t="str">
+      <x:c r="B311" s="2" t="str">
         <x:v>Free
 Full price
 Reduced price
 Unknown
 </x:v>
       </x:c>
-      <x:c r="C310" s="2" t="str">
+      <x:c r="C311" s="2" t="str">
         <x:v>An indication of a student's level of eligibility for breakfast, lunch, snack, supper, and milk programs.</x:v>
       </x:c>
     </x:row>
-    <x:row r="311">
-      <x:c r="A311" s="2" t="str">
+    <x:row r="312">
+      <x:c r="A312" s="2" t="str">
         <x:v>SchoolType</x:v>
       </x:c>
-      <x:c r="B311" s="2" t="str">
+      <x:c r="B312" s="2" t="str">
         <x:v>Alternative
 Regular
 Special Education
 Career and Technical Education
 </x:v>
       </x:c>
-      <x:c r="C311" s="2" t="str">
+      <x:c r="C312" s="2" t="str">
         <x:v>The type of education institution as classified by its primary focus.</x:v>
       </x:c>
     </x:row>
-    <x:row r="312">
-      <x:c r="A312" s="2" t="str">
+    <x:row r="313">
+      <x:c r="A313" s="2" t="str">
         <x:v>SchoolYearType</x:v>
       </x:c>
-      <x:c r="B312" s="2" t="str">
+      <x:c r="B313" s="2" t="str">
         <x:v>1990-1991
 1991-1992
 1992-1993
@@ -57183,28 +57212,28 @@
 2029-2030
 </x:v>
       </x:c>
-      <x:c r="C312" s="2" t="str">
+      <x:c r="C313" s="2" t="str">
         <x:v>Identifier for a school year.</x:v>
       </x:c>
     </x:row>
-    <x:row r="313">
-      <x:c r="A313" s="2" t="str">
+    <x:row r="314">
+      <x:c r="A314" s="2" t="str">
         <x:v>SectionCharacteristicMapType</x:v>
       </x:c>
-      <x:c r="B313" s="2" t="str">
+      <x:c r="B314" s="2" t="str">
         <x:v>Attendance Tracked
 Graded Credit Available
 </x:v>
       </x:c>
-      <x:c r="C313" s="2" t="str">
+      <x:c r="C314" s="2" t="str">
         <x:v>Enumeration items for Section Characteristic.</x:v>
       </x:c>
     </x:row>
-    <x:row r="314">
-      <x:c r="A314" s="2" t="str">
+    <x:row r="315">
+      <x:c r="A315" s="2" t="str">
         <x:v>SeparationReasonMapType</x:v>
       </x:c>
-      <x:c r="B314" s="2" t="str">
+      <x:c r="B315" s="2" t="str">
         <x:v>Employment elsewhere
 Retirement
 Family/personal relocation
@@ -57218,83 +57247,83 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C314" s="2" t="str">
+      <x:c r="C315" s="2" t="str">
         <x:v>Reason for terminating the employment; for example:  Employment in education, Employment outside of education, Retirement, Family/personal relocation, Change of assignment.</x:v>
       </x:c>
     </x:row>
-    <x:row r="315">
-      <x:c r="A315" s="2" t="str">
+    <x:row r="316">
+      <x:c r="A316" s="2" t="str">
         <x:v>SeparationType</x:v>
       </x:c>
-      <x:c r="B315" s="2" t="str">
+      <x:c r="B316" s="2" t="str">
         <x:v>Voluntary separation
 Involuntary separation
 Mutual agreement
 Other
 </x:v>
       </x:c>
-      <x:c r="C315" s="2" t="str">
+      <x:c r="C316" s="2" t="str">
         <x:v>Type of employment separation; for example:  Voluntary separation, Involuntary separation, Mutual agreement. Other, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="316">
-      <x:c r="A316" s="2" t="str">
+    <x:row r="317">
+      <x:c r="A317" s="2" t="str">
         <x:v>SequenceOfCourse</x:v>
       </x:c>
-      <x:c r="B316" s="2" t="str">
+      <x:c r="B317" s="2" t="str">
         <x:v>minInclusive: 1
 maxInclusive: 8
 </x:v>
       </x:c>
-      <x:c r="C316" s="2" t="str">
+      <x:c r="C317" s="2" t="str">
         <x:v>When a Section is part of a sequence of parts for a course, the number if the sequence. If the course has only one part, the value of this Section attribute should be 1.</x:v>
       </x:c>
     </x:row>
-    <x:row r="317">
-      <x:c r="A317" s="2" t="str">
+    <x:row r="318">
+      <x:c r="A318" s="2" t="str">
         <x:v>ServiceCategory</x:v>
       </x:c>
-      <x:c r="B317" s="2" t="str">
+      <x:c r="B318" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C317" s="2" t="str">
+      <x:c r="C318" s="2" t="str">
         <x:v>The category of service provided by a program.</x:v>
       </x:c>
     </x:row>
-    <x:row r="318">
-      <x:c r="A318" s="2" t="str">
+    <x:row r="319">
+      <x:c r="A319" s="2" t="str">
         <x:v>SexType</x:v>
       </x:c>
-      <x:c r="B318" s="2" t="str">
+      <x:c r="B319" s="2" t="str">
         <x:v>Female
 Male
 Not Selected
 </x:v>
       </x:c>
-      <x:c r="C318" s="2" t="str">
+      <x:c r="C319" s="2" t="str">
         <x:v>A person's gender.</x:v>
       </x:c>
     </x:row>
-    <x:row r="319">
-      <x:c r="A319" s="2" t="str">
+    <x:row r="320">
+      <x:c r="A320" s="2" t="str">
         <x:v>ShortDescription</x:v>
       </x:c>
-      <x:c r="B319" s="2" t="str">
+      <x:c r="B320" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C319" s="2" t="str">
+      <x:c r="C320" s="2" t="str">
         <x:v>A shortened description for reference.</x:v>
       </x:c>
     </x:row>
-    <x:row r="320">
-      <x:c r="A320" s="2" t="str">
+    <x:row r="321">
+      <x:c r="A321" s="2" t="str">
         <x:v>SpecialEducationSettingMapType</x:v>
       </x:c>
-      <x:c r="B320" s="2" t="str">
+      <x:c r="B321" s="2" t="str">
         <x:v>Inside regular class 80% or more of the day
 Inside regular class no more than 79% of day and no less than 40% of the day
 Inside regular class less than 40% of the day
@@ -57305,15 +57334,15 @@
 Parentally-placed in Private Schools
 </x:v>
       </x:c>
-      <x:c r="C320" s="2" t="str">
+      <x:c r="C321" s="2" t="str">
         <x:v>The major instructional setting (more than 50 percent of a student's special education program).</x:v>
       </x:c>
     </x:row>
-    <x:row r="321">
-      <x:c r="A321" s="2" t="str">
+    <x:row r="322">
+      <x:c r="A322" s="2" t="str">
         <x:v>StaffClassificationMapType</x:v>
       </x:c>
-      <x:c r="B321" s="2" t="str">
+      <x:c r="B322" s="2" t="str">
         <x:v>Assistant Principal
 Assistant Superintendent
 Counselor
@@ -57348,15 +57377,15 @@
 Mentor Teacher
 </x:v>
       </x:c>
-      <x:c r="C321" s="2" t="str">
+      <x:c r="C322" s="2" t="str">
         <x:v>An individual's title of employment, official status or rank.</x:v>
       </x:c>
     </x:row>
-    <x:row r="322">
-      <x:c r="A322" s="2" t="str">
+    <x:row r="323">
+      <x:c r="A323" s="2" t="str">
         <x:v>StaffIdentificationSystemMapType</x:v>
       </x:c>
-      <x:c r="B322" s="2" t="str">
+      <x:c r="B323" s="2" t="str">
         <x:v>Canadian SIN
 District
 Drivers License
@@ -57374,15 +57403,15 @@
 Other Federal
 </x:v>
       </x:c>
-      <x:c r="C322" s="2" t="str">
+      <x:c r="C323" s="2" t="str">
         <x:v>A coding scheme that is used for identification and record-keeping purposes by schools, social services or other agencies to refer to a staff member.</x:v>
       </x:c>
     </x:row>
-    <x:row r="323">
-      <x:c r="A323" s="2" t="str">
+    <x:row r="324">
+      <x:c r="A324" s="2" t="str">
         <x:v>StateAbbreviationType</x:v>
       </x:c>
-      <x:c r="B323" s="2" t="str">
+      <x:c r="B324" s="2" t="str">
         <x:v>AA
 AE
 AK
@@ -57447,26 +57476,13 @@
 WY
 </x:v>
       </x:c>
-      <x:c r="C323" s="2" t="str">
+      <x:c r="C324" s="2" t="str">
         <x:v>The abbreviation for the state (within the United States) or outlying area in which an address is located.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="324">
-      <x:c r="A324" s="2" t="str">
-        <x:v>Statement</x:v>
-      </x:c>
-      <x:c r="B324" s="2" t="str">
-        <x:v>minLength: 1
-maxLength: 150
-</x:v>
-      </x:c>
-      <x:c r="C324" s="2" t="str">
-        <x:v>A statement or reference describing the evidence that the learner met the criteria for attainment of the achievement.</x:v>
       </x:c>
     </x:row>
     <x:row r="325">
       <x:c r="A325" s="2" t="str">
-        <x:v>StreetNumberName</x:v>
+        <x:v>Statement</x:v>
       </x:c>
       <x:c r="B325" s="2" t="str">
         <x:v>minLength: 1
@@ -57474,14 +57490,27 @@
 </x:v>
       </x:c>
       <x:c r="C325" s="2" t="str">
-        <x:v>The street number and street name or post office box number of an address.</x:v>
+        <x:v>A statement or reference describing the evidence that the learner met the criteria for attainment of the achievement.</x:v>
       </x:c>
     </x:row>
     <x:row r="326">
       <x:c r="A326" s="2" t="str">
+        <x:v>StreetNumberName</x:v>
+      </x:c>
+      <x:c r="B326" s="2" t="str">
+        <x:v>minLength: 1
+maxLength: 150
+</x:v>
+      </x:c>
+      <x:c r="C326" s="2" t="str">
+        <x:v>The street number and street name or post office box number of an address.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="327">
+      <x:c r="A327" s="2" t="str">
         <x:v>StudentCharacteristicMapType</x:v>
       </x:c>
-      <x:c r="B326" s="2" t="str">
+      <x:c r="B327" s="2" t="str">
         <x:v>Asylee
 Displaced Homemaker
 Foster Care
@@ -57499,15 +57528,15 @@
 Unaccompanied Youth
 </x:v>
       </x:c>
-      <x:c r="C326" s="2" t="str">
+      <x:c r="C327" s="2" t="str">
         <x:v>Enumeration items for the important characteristics of the student's home situation: Displaced Homemaker, Homeless, Immigrant, Migratory, Military Parent, Pregnant Teen, Single Parent, and Unaccompanied Youth.</x:v>
       </x:c>
     </x:row>
-    <x:row r="327">
-      <x:c r="A327" s="2" t="str">
+    <x:row r="328">
+      <x:c r="A328" s="2" t="str">
         <x:v>StudentIdentificationSystemMapType</x:v>
       </x:c>
-      <x:c r="B327" s="2" t="str">
+      <x:c r="B328" s="2" t="str">
         <x:v>Canadian SIN
 District
 Family
@@ -57521,30 +57550,30 @@
 State Migrant
 </x:v>
       </x:c>
-      <x:c r="C327" s="2" t="str">
+      <x:c r="C328" s="2" t="str">
         <x:v>A coding scheme that is used for identification and record-keeping purposes by schools, social services or other agencies to refer to a student.</x:v>
       </x:c>
     </x:row>
-    <x:row r="328">
-      <x:c r="A328" s="2" t="str">
+    <x:row r="329">
+      <x:c r="A329" s="2" t="str">
         <x:v>StudentParticipationCodeType</x:v>
       </x:c>
-      <x:c r="B328" s="2" t="str">
+      <x:c r="B329" s="2" t="str">
         <x:v>Victim
 Perpetrator
 Witness
 Reporter
 </x:v>
       </x:c>
-      <x:c r="C328" s="2" t="str">
+      <x:c r="C329" s="2" t="str">
         <x:v>The role or type of participation of a student in a discipline incident; for example: Victim, Perpetrator, Witness, Reporter.</x:v>
       </x:c>
     </x:row>
-    <x:row r="329">
-      <x:c r="A329" s="2" t="str">
+    <x:row r="330">
+      <x:c r="A330" s="2" t="str">
         <x:v>TeachingCredentialBasisType</x:v>
       </x:c>
-      <x:c r="B329" s="2" t="str">
+      <x:c r="B330" s="2" t="str">
         <x:v>4-year bachelor's degree
 5-year bachelor's degree
 Master's degree
@@ -57555,15 +57584,15 @@
 Credentials based on reciprocation with another state
 </x:v>
       </x:c>
-      <x:c r="C329" s="2" t="str">
+      <x:c r="C330" s="2" t="str">
         <x:v>An indication of the pre-determined criteria for granting the teaching credential that an individual holds.</x:v>
       </x:c>
     </x:row>
-    <x:row r="330">
-      <x:c r="A330" s="2" t="str">
+    <x:row r="331">
+      <x:c r="A331" s="2" t="str">
         <x:v>TeachingCredentialMapType</x:v>
       </x:c>
-      <x:c r="B330" s="2" t="str">
+      <x:c r="B331" s="2" t="str">
         <x:v>Emergency
 Intern
 Master
@@ -57581,28 +57610,28 @@
 Temporary
 </x:v>
       </x:c>
-      <x:c r="C330" s="2" t="str">
+      <x:c r="C331" s="2" t="str">
         <x:v>An indication of the category of a legal document giving authorization to perform teaching assignment services.</x:v>
       </x:c>
     </x:row>
-    <x:row r="331">
-      <x:c r="A331" s="2" t="str">
+    <x:row r="332">
+      <x:c r="A332" s="2" t="str">
         <x:v>TelephoneNumber</x:v>
       </x:c>
-      <x:c r="B331" s="2" t="str">
+      <x:c r="B332" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 24
 </x:v>
       </x:c>
-      <x:c r="C331" s="2" t="str">
+      <x:c r="C332" s="2" t="str">
         <x:v>The telephone number including the area code, and extension, if applicable.</x:v>
       </x:c>
     </x:row>
-    <x:row r="332">
-      <x:c r="A332" s="2" t="str">
+    <x:row r="333">
+      <x:c r="A333" s="2" t="str">
         <x:v>TelephoneNumberType</x:v>
       </x:c>
-      <x:c r="B332" s="2" t="str">
+      <x:c r="B333" s="2" t="str">
         <x:v>Fax
 Emergency 1
 Emergency 2
@@ -57613,15 +57642,15 @@
 Work
 </x:v>
       </x:c>
-      <x:c r="C332" s="2" t="str">
+      <x:c r="C333" s="2" t="str">
         <x:v>The type of communication number listed for an individual.</x:v>
       </x:c>
     </x:row>
-    <x:row r="333">
-      <x:c r="A333" s="2" t="str">
+    <x:row r="334">
+      <x:c r="A334" s="2" t="str">
         <x:v>TermMapType</x:v>
       </x:c>
-      <x:c r="B333" s="2" t="str">
+      <x:c r="B334" s="2" t="str">
         <x:v>Semester
 Trimester
 Year Round
@@ -57630,26 +57659,26 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C333" s="2" t="str">
+      <x:c r="C334" s="2" t="str">
         <x:v>The type of the session during the school year (e.g., Fall Semester).</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="334">
-      <x:c r="A334" s="2" t="str">
-        <x:v>TimeInterval</x:v>
-      </x:c>
-      <x:c r="B334" s="2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="C334" s="2" t="str">
-        <x:v>A period of time with fixed, well-defined limits.</x:v>
       </x:c>
     </x:row>
     <x:row r="335">
       <x:c r="A335" s="2" t="str">
+        <x:v>TimeInterval</x:v>
+      </x:c>
+      <x:c r="B335" s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C335" s="2" t="str">
+        <x:v>A period of time with fixed, well-defined limits.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="336">
+      <x:c r="A336" s="2" t="str">
         <x:v>TitleIPartAParticipantType</x:v>
       </x:c>
-      <x:c r="B335" s="2" t="str">
+      <x:c r="B336" s="2" t="str">
         <x:v>Public Targeted Assistance Program
 Public Schoolwide Program
 Private school students participating
@@ -57657,15 +57686,15 @@
 Was not served
 </x:v>
       </x:c>
-      <x:c r="C335" s="2" t="str">
+      <x:c r="C336" s="2" t="str">
         <x:v>An indication of the type of Title I program, if any, in which the student is participating and served.</x:v>
       </x:c>
     </x:row>
-    <x:row r="336">
-      <x:c r="A336" s="2" t="str">
+    <x:row r="337">
+      <x:c r="A337" s="2" t="str">
         <x:v>TitleIPartASchoolDesignationType</x:v>
       </x:c>
-      <x:c r="B336" s="2" t="str">
+      <x:c r="B337" s="2" t="str">
         <x:v>Not designated as a Title I Part A school
 Title I Part A Schoolwide Assistance Program School
 Title I Part A Targeted Assistance School
@@ -57675,77 +57704,77 @@
 Title I school wide eligible school - no program
 </x:v>
       </x:c>
-      <x:c r="C336" s="2" t="str">
+      <x:c r="C337" s="2" t="str">
         <x:v>Denotes the Title I Part A designation for the school.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="337">
-      <x:c r="A337" s="2" t="str">
-        <x:v>TotalInstructionalDays</x:v>
-      </x:c>
-      <x:c r="B337" s="2" t="str">
-        <x:v>minInclusive: 0
-</x:v>
-      </x:c>
-      <x:c r="C337" s="2" t="str">
-        <x:v>Total days available for educational instruction during the grading period.</x:v>
       </x:c>
     </x:row>
     <x:row r="338">
       <x:c r="A338" s="2" t="str">
+        <x:v>TotalInstructionalDays</x:v>
+      </x:c>
+      <x:c r="B338" s="2" t="str">
+        <x:v>minInclusive: 0
+</x:v>
+      </x:c>
+      <x:c r="C338" s="2" t="str">
+        <x:v>Total days available for educational instruction during the grading period.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="339">
+      <x:c r="A339" s="2" t="str">
         <x:v>UniqueId</x:v>
       </x:c>
-      <x:c r="B338" s="2" t="str">
+      <x:c r="B339" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 32
 </x:v>
       </x:c>
-      <x:c r="C338" s="2" t="str">
+      <x:c r="C339" s="2" t="str">
         <x:v>A unique alphanumeric code assigned to a person by a system managing unique identifiers.</x:v>
       </x:c>
     </x:row>
-    <x:row r="339">
-      <x:c r="A339" s="2" t="str">
+    <x:row r="340">
+      <x:c r="A340" s="2" t="str">
         <x:v>UniqueSectionCode</x:v>
       </x:c>
-      <x:c r="B339" s="2" t="str">
+      <x:c r="B340" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C339" s="2" t="str">
+      <x:c r="C340" s="2" t="str">
         <x:v>A unique identifier for the Section, that is defined by the classroom, the subjects taught, and the instructors that are assigned.</x:v>
       </x:c>
     </x:row>
-    <x:row r="340">
-      <x:c r="A340" s="2" t="str">
+    <x:row r="341">
+      <x:c r="A341" s="2" t="str">
         <x:v>URI</x:v>
       </x:c>
-      <x:c r="B340" s="2" t="str">
+      <x:c r="B341" s="2" t="str">
         <x:v>minLength: 5
 maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C340" s="2" t="str">
+      <x:c r="C341" s="2" t="str">
         <x:v>The public web site address (URL), file, or ftp locator.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="341">
-      <x:c r="A341" s="2" t="str">
-        <x:v>Version</x:v>
-      </x:c>
-      <x:c r="B341" s="2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="C341" s="2" t="str">
-        <x:v>The version identifier for the assessment.</x:v>
       </x:c>
     </x:row>
     <x:row r="342">
       <x:c r="A342" s="2" t="str">
+        <x:v>Version</x:v>
+      </x:c>
+      <x:c r="B342" s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C342" s="2" t="str">
+        <x:v>The version identifier for the assessment.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="343">
+      <x:c r="A343" s="2" t="str">
         <x:v>VisaType</x:v>
       </x:c>
-      <x:c r="B342" s="2" t="str">
+      <x:c r="B343" s="2" t="str">
         <x:v>F1 - Foreign Student Visa
 M1 - Foreign Student pursuing vocational or non-academic studies Visa
 H1 - Employment Visa
@@ -57755,15 +57784,15 @@
 Other Visa
 </x:v>
       </x:c>
-      <x:c r="C342" s="2" t="str">
+      <x:c r="C343" s="2" t="str">
         <x:v>An indicator of a non-U.S. citizen's Visa type.</x:v>
       </x:c>
     </x:row>
-    <x:row r="343">
-      <x:c r="A343" s="2" t="str">
+    <x:row r="344">
+      <x:c r="A344" s="2" t="str">
         <x:v>WeaponMapType</x:v>
       </x:c>
-      <x:c r="B343" s="2" t="str">
+      <x:c r="B344" s="2" t="str">
         <x:v>Handgun
 Rifle/Shotgun
 Other Firearm
@@ -57776,20 +57805,20 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C343" s="2" t="str">
+      <x:c r="C344" s="2" t="str">
         <x:v>The category for the types of weapon used during an incident.</x:v>
       </x:c>
     </x:row>
-    <x:row r="344">
-      <x:c r="A344" s="2" t="str">
+    <x:row r="345">
+      <x:c r="A345" s="2" t="str">
         <x:v>WeekIdentifier</x:v>
       </x:c>
-      <x:c r="B344" s="2" t="str">
+      <x:c r="B345" s="2" t="str">
         <x:v>minLength: 5
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C344" s="2" t="str">
+      <x:c r="C345" s="2" t="str">
         <x:v>The school label for the academic week.</x:v>
       </x:c>
     </x:row>

--- a/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/DataDictionary/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -8788,7 +8788,7 @@
         <x:v>ClassroomObservationScore</x:v>
       </x:c>
       <x:c r="B486" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>ClassroomObservationScore</x:v>
       </x:c>
       <x:c r="C486" s="2" t="str">
         <x:v>EvaluationInformation</x:v>
@@ -16015,7 +16015,7 @@
         <x:v>EffectivenessRating</x:v>
       </x:c>
       <x:c r="B894" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>EffectivenessRating</x:v>
       </x:c>
       <x:c r="C894" s="2" t="str">
         <x:v>EvaluationInformation</x:v>
@@ -29576,7 +29576,7 @@
         <x:v>ProfessionalismScore</x:v>
       </x:c>
       <x:c r="B1656" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>ProfessionalismScore</x:v>
       </x:c>
       <x:c r="C1656" s="2" t="str">
         <x:v>EvaluationInformation</x:v>
@@ -41392,7 +41392,7 @@
         <x:v>SurveyScore</x:v>
       </x:c>
       <x:c r="B2325" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>SurveyScore</x:v>
       </x:c>
       <x:c r="C2325" s="2" t="str">
         <x:v>EvaluationInformation</x:v>
@@ -43883,7 +43883,7 @@
         <x:v>TotalEvalPoints</x:v>
       </x:c>
       <x:c r="B2467" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>TotalEvalPoints</x:v>
       </x:c>
       <x:c r="C2467" s="2" t="str">
         <x:v>EvaluationInformation</x:v>
@@ -44914,7 +44914,7 @@
         <x:v>VASOverallScore</x:v>
       </x:c>
       <x:c r="B2525" s="2" t="str">
-        <x:v>xs:int</x:v>
+        <x:v>VASOverallScore</x:v>
       </x:c>
       <x:c r="C2525" s="2" t="str">
         <x:v>VASResult</x:v>
@@ -52337,9 +52337,22 @@
     </x:row>
     <x:row r="45">
       <x:c r="A45" s="2" t="str">
+        <x:v>ClassroomObservationScore</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="str">
+        <x:v>totalDigits: 18
+fractionDigits: 4
+</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="str">
+        <x:v>The score that reflects the teachers classroom observation rating.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c r="A46" s="2" t="str">
         <x:v>ClassroomPositionMapType</x:v>
       </x:c>
-      <x:c r="B45" s="2" t="str">
+      <x:c r="B46" s="2" t="str">
         <x:v>Teacher of Record
 Assistant Teacher
 Support Teacher
@@ -52347,54 +52360,54 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C45" s="2" t="str">
+      <x:c r="C46" s="2" t="str">
         <x:v>The type of position the staff member holds in the specific class/section.</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
-      <x:c r="A46" s="2" t="str">
+    <x:row r="47">
+      <x:c r="A47" s="2" t="str">
         <x:v>CodeValue</x:v>
       </x:c>
-      <x:c r="B46" s="2" t="str">
+      <x:c r="B47" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C46" s="2" t="str">
+      <x:c r="C47" s="2" t="str">
         <x:v>A code or abbreviation for an element.</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
-      <x:c r="A47" s="2" t="str">
+    <x:row r="48">
+      <x:c r="A48" s="2" t="str">
         <x:v>CohortDescription</x:v>
       </x:c>
-      <x:c r="B47" s="2" t="str">
+      <x:c r="B48" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 1024
 </x:v>
       </x:c>
-      <x:c r="C47" s="2" t="str">
+      <x:c r="C48" s="2" t="str">
         <x:v>Description of the student cohort.</x:v>
       </x:c>
     </x:row>
-    <x:row r="48">
-      <x:c r="A48" s="2" t="str">
+    <x:row r="49">
+      <x:c r="A49" s="2" t="str">
         <x:v>CohortIdentifier</x:v>
       </x:c>
-      <x:c r="B48" s="2" t="str">
+      <x:c r="B49" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C48" s="2" t="str">
+      <x:c r="C49" s="2" t="str">
         <x:v>A locally assigned unique identifier (within the school or school district) to identify each specific incident or occurrence. The same identifier should be used to document the entire incident even if it included multiple offenses and multiple offenders.</x:v>
       </x:c>
     </x:row>
-    <x:row r="49">
-      <x:c r="A49" s="2" t="str">
+    <x:row r="50">
+      <x:c r="A50" s="2" t="str">
         <x:v>CohortScopeType</x:v>
       </x:c>
-      <x:c r="B49" s="2" t="str">
+      <x:c r="B50" s="2" t="str">
         <x:v>District
 School
 Network
@@ -52406,15 +52419,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C49" s="2" t="str">
+      <x:c r="C50" s="2" t="str">
         <x:v>The scope of cohort (e.g., school, district, classroom).</x:v>
       </x:c>
     </x:row>
-    <x:row r="50">
-      <x:c r="A50" s="2" t="str">
+    <x:row r="51">
+      <x:c r="A51" s="2" t="str">
         <x:v>CohortType</x:v>
       </x:c>
-      <x:c r="B50" s="2" t="str">
+      <x:c r="B51" s="2" t="str">
         <x:v>Academic Intervention
 Attendance Intervention
 Discipline Intervention
@@ -52428,15 +52441,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C50" s="2" t="str">
+      <x:c r="C51" s="2" t="str">
         <x:v>The type of the cohort (e.g., academic intervention, classroom breakout).</x:v>
       </x:c>
     </x:row>
-    <x:row r="51">
-      <x:c r="A51" s="2" t="str">
+    <x:row r="52">
+      <x:c r="A52" s="2" t="str">
         <x:v>CohortYearType</x:v>
       </x:c>
-      <x:c r="B51" s="2" t="str">
+      <x:c r="B52" s="2" t="str">
         <x:v>Eighth grade
 Eleventh grade
 Fifth grade
@@ -52451,41 +52464,41 @@
 Twelfth grade
 </x:v>
       </x:c>
-      <x:c r="C51" s="2" t="str">
+      <x:c r="C52" s="2" t="str">
         <x:v>The enumeration items for the set of cohort years.</x:v>
       </x:c>
     </x:row>
-    <x:row r="52">
-      <x:c r="A52" s="2" t="str">
+    <x:row r="53">
+      <x:c r="A53" s="2" t="str">
         <x:v>ConcentrationArea</x:v>
       </x:c>
-      <x:c r="B52" s="2" t="str">
+      <x:c r="B53" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C52" s="2" t="str">
+      <x:c r="C53" s="2" t="str">
         <x:v>A concentration area identified in the teacher candidates educational programming.</x:v>
       </x:c>
     </x:row>
-    <x:row r="53">
-      <x:c r="A53" s="2" t="str">
+    <x:row r="54">
+      <x:c r="A54" s="2" t="str">
         <x:v>ContactRestrictions</x:v>
       </x:c>
-      <x:c r="B53" s="2" t="str">
+      <x:c r="B54" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 250
 </x:v>
       </x:c>
-      <x:c r="C53" s="2" t="str">
+      <x:c r="C54" s="2" t="str">
         <x:v>Restrictions for student and/or teacher contact with the individual (e.g., the student may not be picked up by the individual).</x:v>
       </x:c>
     </x:row>
-    <x:row r="54">
-      <x:c r="A54" s="2" t="str">
+    <x:row r="55">
+      <x:c r="A55" s="2" t="str">
         <x:v>ContentClassType</x:v>
       </x:c>
-      <x:c r="B54" s="2" t="str">
+      <x:c r="B55" s="2" t="str">
         <x:v>Presentation
 Education Research
 Vendor Intervention Offering
@@ -52493,105 +52506,92 @@
 Video
 </x:v>
       </x:c>
-      <x:c r="C54" s="2" t="str">
+      <x:c r="C55" s="2" t="str">
         <x:v>The predominate type or kind characterizing the learning resource.</x:v>
       </x:c>
     </x:row>
-    <x:row r="55">
-      <x:c r="A55" s="2" t="str">
+    <x:row r="56">
+      <x:c r="A56" s="2" t="str">
         <x:v>ContentIdentifier</x:v>
       </x:c>
-      <x:c r="B55" s="2" t="str">
+      <x:c r="B56" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 225
 </x:v>
       </x:c>
-      <x:c r="C55" s="2" t="str">
+      <x:c r="C56" s="2" t="str">
         <x:v>The identifier of the content standard.</x:v>
       </x:c>
     </x:row>
-    <x:row r="56">
-      <x:c r="A56" s="2" t="str">
+    <x:row r="57">
+      <x:c r="A57" s="2" t="str">
         <x:v>ContentStandardName</x:v>
       </x:c>
-      <x:c r="B56" s="2" t="str">
+      <x:c r="B57" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 65
 </x:v>
       </x:c>
-      <x:c r="C56" s="2" t="str">
+      <x:c r="C57" s="2" t="str">
         <x:v>The name of the content standard, for example Common Core.</x:v>
       </x:c>
     </x:row>
-    <x:row r="57">
-      <x:c r="A57" s="2" t="str">
+    <x:row r="58">
+      <x:c r="A58" s="2" t="str">
         <x:v>ContentStandardTitle</x:v>
       </x:c>
-      <x:c r="B57" s="2" t="str">
+      <x:c r="B58" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C57" s="2" t="str">
+      <x:c r="C58" s="2" t="str">
         <x:v>The name of the content standard, for example Common Core.</x:v>
       </x:c>
     </x:row>
-    <x:row r="58">
-      <x:c r="A58" s="2" t="str">
+    <x:row r="59">
+      <x:c r="A59" s="2" t="str">
         <x:v>ContentStandardVersion</x:v>
       </x:c>
-      <x:c r="B58" s="2" t="str">
+      <x:c r="B59" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C58" s="2" t="str">
+      <x:c r="C59" s="2" t="str">
         <x:v>The version of the content standard (i.e. "Fall 2014", "v1.3", "Monroe County", etc).</x:v>
       </x:c>
     </x:row>
-    <x:row r="59">
-      <x:c r="A59" s="2" t="str">
+    <x:row r="60">
+      <x:c r="A60" s="2" t="str">
         <x:v>ContentVersion</x:v>
       </x:c>
-      <x:c r="B59" s="2" t="str">
+      <x:c r="B60" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 10
 </x:v>
       </x:c>
-      <x:c r="C59" s="2" t="str">
+      <x:c r="C60" s="2" t="str">
         <x:v>The version identifier for the content.</x:v>
       </x:c>
     </x:row>
-    <x:row r="60">
-      <x:c r="A60" s="2" t="str">
+    <x:row r="61">
+      <x:c r="A61" s="2" t="str">
         <x:v>ContinuationOfServicesReasonMapType</x:v>
       </x:c>
-      <x:c r="B60" s="2" t="str">
+      <x:c r="B61" s="2" t="str">
         <x:v>Ceased to be migratory during school term
 Ceased to be migratory during previous school term and no comparable services are available
 Previously migratory secondary student continuing secondary school credit accrual
 </x:v>
       </x:c>
-      <x:c r="C60" s="2" t="str">
+      <x:c r="C61" s="2" t="str">
         <x:v>In the Migrant Education program, a provision allows continuation of services after a child is no longer considered migratory for certain reasons. This type holds the reasons prescribed in the statute.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61">
-      <x:c r="A61" s="2" t="str">
-        <x:v>Coordinate</x:v>
-      </x:c>
-      <x:c r="B61" s="2" t="str">
-        <x:v>minLength: 1
-maxLength: 20
-</x:v>
-      </x:c>
-      <x:c r="C61" s="2" t="str">
-        <x:v>The data type to specify latitude or longitude.</x:v>
       </x:c>
     </x:row>
     <x:row r="62">
       <x:c r="A62" s="2" t="str">
-        <x:v>CorrectResponse</x:v>
+        <x:v>Coordinate</x:v>
       </x:c>
       <x:c r="B62" s="2" t="str">
         <x:v>minLength: 1
@@ -52599,47 +52599,60 @@
 </x:v>
       </x:c>
       <x:c r="C62" s="2" t="str">
-        <x:v>The correct response for the assessment item.</x:v>
+        <x:v>The data type to specify latitude or longitude.</x:v>
       </x:c>
     </x:row>
     <x:row r="63">
       <x:c r="A63" s="2" t="str">
+        <x:v>CorrectResponse</x:v>
+      </x:c>
+      <x:c r="B63" s="2" t="str">
+        <x:v>minLength: 1
+maxLength: 20
+</x:v>
+      </x:c>
+      <x:c r="C63" s="2" t="str">
+        <x:v>The correct response for the assessment item.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c r="A64" s="2" t="str">
         <x:v>CostRateType</x:v>
       </x:c>
-      <x:c r="B63" s="2" t="str">
+      <x:c r="B64" s="2" t="str">
         <x:v>Flat Fee
 Per Student
 </x:v>
       </x:c>
-      <x:c r="C63" s="2" t="str">
+      <x:c r="C64" s="2" t="str">
         <x:v>The rate by which a cost applies (e.g. $1 per student).</x:v>
       </x:c>
     </x:row>
-    <x:row r="64">
-      <x:c r="A64" s="2" t="str">
+    <x:row r="65">
+      <x:c r="A65" s="2" t="str">
         <x:v>CountyFIPSCode</x:v>
       </x:c>
-      <x:c r="B64" s="2" t="str">
+      <x:c r="B65" s="2" t="str">
         <x:v>minLength: 3
 maxLength: 5
 </x:v>
       </x:c>
-      <x:c r="C64" s="2" t="str">
+      <x:c r="C65" s="2" t="str">
         <x:v>Definition The Federal Information Processing Standards (FIPS) numeric code for the county issued by the National Institute of Standards and Technology (NIST). Counties are considered to be the "first-order subdivisions" of each State and statistically equivalent entity, regardless of their local designations (county, parish, borough, etc.) Counties in different States will have the same code. A unique county number is created when combined with the 2-digit FIPS State Code.</x:v>
       </x:c>
     </x:row>
-    <x:row r="65">
-      <x:c r="A65" s="2" t="str">
+    <x:row r="66">
+      <x:c r="A66" s="2" t="str">
         <x:v>CourseAttemptResultType</x:v>
       </x:c>
-      <x:c r="B65" s="2" t="str">
+      <x:c r="B66" s="2" t="str">
         <x:v>Pass
 Fail
 Incomplete
 Withdrawn
 </x:v>
       </x:c>
-      <x:c r="C65" s="2" t="str">
+      <x:c r="C66" s="2" t="str">
         <x:v>The result from the student's attempt to take the course, for example:
     Pass
     Fail
@@ -52647,40 +52660,40 @@
     Withdrawn</x:v>
       </x:c>
     </x:row>
-    <x:row r="66">
-      <x:c r="A66" s="2" t="str">
+    <x:row r="67">
+      <x:c r="A67" s="2" t="str">
         <x:v>CourseDefinedByType</x:v>
       </x:c>
-      <x:c r="B66" s="2" t="str">
+      <x:c r="B67" s="2" t="str">
         <x:v>LEA
 National Organization
 SEA
 School
 </x:v>
       </x:c>
-      <x:c r="C66" s="2" t="str">
+      <x:c r="C67" s="2" t="str">
         <x:v>Specifies whether the course was defined by the state education agency, local education agency, school, or national organization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="67">
-      <x:c r="A67" s="2" t="str">
+    <x:row r="68">
+      <x:c r="A68" s="2" t="str">
         <x:v>CourseGPAApplicabilityType</x:v>
       </x:c>
-      <x:c r="B67" s="2" t="str">
+      <x:c r="B68" s="2" t="str">
         <x:v>Applicable
 Not Applicable
 Weighted
 </x:v>
       </x:c>
-      <x:c r="C67" s="2" t="str">
+      <x:c r="C68" s="2" t="str">
         <x:v>An indicator of whether or not this course being described is included in the computation of the student's Grade Point Average, and if so, if it is weighted differently than regular courses.</x:v>
       </x:c>
     </x:row>
-    <x:row r="68">
-      <x:c r="A68" s="2" t="str">
+    <x:row r="69">
+      <x:c r="A69" s="2" t="str">
         <x:v>CourseIdentificationSystemMapType</x:v>
       </x:c>
-      <x:c r="B68" s="2" t="str">
+      <x:c r="B69" s="2" t="str">
         <x:v>CSSC course code
 Intermediate agency course code
 LEA course code
@@ -52692,15 +52705,15 @@
 University course code
 </x:v>
       </x:c>
-      <x:c r="C68" s="2" t="str">
+      <x:c r="C69" s="2" t="str">
         <x:v>A system that is used to identify the organization of subject matter and related learning experiences provided for the instruction of students. In addition to identifying courses using the appropriate state codes, cross referencing courses with one of the national course codes is encouraged.</x:v>
       </x:c>
     </x:row>
-    <x:row r="69">
-      <x:c r="A69" s="2" t="str">
+    <x:row r="70">
+      <x:c r="A70" s="2" t="str">
         <x:v>CourseLevelCharacteristicType</x:v>
       </x:c>
-      <x:c r="B69" s="2" t="str">
+      <x:c r="B70" s="2" t="str">
         <x:v>Accepted as high school equivalent
 Advanced
 Advanced Placement
@@ -52728,15 +52741,15 @@
 Methods
 </x:v>
       </x:c>
-      <x:c r="C69" s="2" t="str">
+      <x:c r="C70" s="2" t="str">
         <x:v>The item for indication of the nature and difficulty of instruction: Remedial, Basic, Honors, Ap, IB, Dual Credit, CTE. etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="70">
-      <x:c r="A70" s="2" t="str">
+    <x:row r="71">
+      <x:c r="A71" s="2" t="str">
         <x:v>CourseRepeatCodeType</x:v>
       </x:c>
-      <x:c r="B70" s="2" t="str">
+      <x:c r="B71" s="2" t="str">
         <x:v>Repeat Counted
 Repeat NotCounted
 Replacement Counted
@@ -52745,39 +52758,26 @@
 Not Counted Other
 </x:v>
       </x:c>
-      <x:c r="C70" s="2" t="str">
+      <x:c r="C71" s="2" t="str">
         <x:v>Indicates that an academic course has been repeated by a student and how that repeat is to be computed in the student's academic grade average.</x:v>
       </x:c>
     </x:row>
-    <x:row r="71">
-      <x:c r="A71" s="2" t="str">
+    <x:row r="72">
+      <x:c r="A72" s="2" t="str">
         <x:v>CourseSetName</x:v>
       </x:c>
-      <x:c r="B71" s="2" t="str">
+      <x:c r="B72" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 120
 </x:v>
       </x:c>
-      <x:c r="C71" s="2" t="str">
+      <x:c r="C72" s="2" t="str">
         <x:v>Identifying name given to a collection of courses.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72">
-      <x:c r="A72" s="2" t="str">
-        <x:v>CourseTitle</x:v>
-      </x:c>
-      <x:c r="B72" s="2" t="str">
-        <x:v>minLength: 1
-maxLength: 60
-</x:v>
-      </x:c>
-      <x:c r="C72" s="2" t="str">
-        <x:v>The descriptive name given to a course of study offered in a school or other institution or organization. In departmentalized classes at the elementary, secondary, and postsecondary levels (and for staff development activities), this refers to the name by which a course is identified (e.g., American History, English III). For elementary and other non-departmentalized classes, it refers to any portion of the instruction for which a grade or report is assigned (e.g., reading, composition, spelling, and language arts).</x:v>
       </x:c>
     </x:row>
     <x:row r="73">
       <x:c r="A73" s="2" t="str">
-        <x:v>CredentialCategory</x:v>
+        <x:v>CourseTitle</x:v>
       </x:c>
       <x:c r="B73" s="2" t="str">
         <x:v>minLength: 1
@@ -52785,40 +52785,53 @@
 </x:v>
       </x:c>
       <x:c r="C73" s="2" t="str">
-        <x:v>The type of credential received.</x:v>
+        <x:v>The descriptive name given to a course of study offered in a school or other institution or organization. In departmentalized classes at the elementary, secondary, and postsecondary levels (and for staff development activities), this refers to the name by which a course is identified (e.g., American History, English III). For elementary and other non-departmentalized classes, it refers to any portion of the instruction for which a grade or report is assigned (e.g., reading, composition, spelling, and language arts).</x:v>
       </x:c>
     </x:row>
     <x:row r="74">
       <x:c r="A74" s="2" t="str">
-        <x:v>CredentialEndorsement</x:v>
+        <x:v>CredentialCategory</x:v>
       </x:c>
       <x:c r="B74" s="2" t="str">
         <x:v>minLength: 1
-maxLength: 255
+maxLength: 60
 </x:v>
       </x:c>
       <x:c r="C74" s="2" t="str">
-        <x:v>Endorsements are attachments to teaching certificates and indicate areas of specialization.</x:v>
+        <x:v>The type of credential received.</x:v>
       </x:c>
     </x:row>
     <x:row r="75">
       <x:c r="A75" s="2" t="str">
-        <x:v>CredentialStatus</x:v>
+        <x:v>CredentialEndorsement</x:v>
       </x:c>
       <x:c r="B75" s="2" t="str">
         <x:v>minLength: 1
-maxLength: 32
+maxLength: 255
 </x:v>
       </x:c>
       <x:c r="C75" s="2" t="str">
-        <x:v>The status of the credential.</x:v>
+        <x:v>Endorsements are attachments to teaching certificates and indicate areas of specialization.</x:v>
       </x:c>
     </x:row>
     <x:row r="76">
       <x:c r="A76" s="2" t="str">
+        <x:v>CredentialStatus</x:v>
+      </x:c>
+      <x:c r="B76" s="2" t="str">
+        <x:v>minLength: 1
+maxLength: 32
+</x:v>
+      </x:c>
+      <x:c r="C76" s="2" t="str">
+        <x:v>The status of the credential.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" s="2" t="str">
         <x:v>CredentialType</x:v>
       </x:c>
-      <x:c r="B76" s="2" t="str">
+      <x:c r="B77" s="2" t="str">
         <x:v>Certification
 Endorsement
 Licensure
@@ -52826,42 +52839,42 @@
 Registration
 </x:v>
       </x:c>
-      <x:c r="C76" s="2" t="str">
+      <x:c r="C77" s="2" t="str">
         <x:v>An indication of the category of credential an individual holds.</x:v>
       </x:c>
     </x:row>
-    <x:row r="77">
-      <x:c r="A77" s="2" t="str">
+    <x:row r="78">
+      <x:c r="A78" s="2" t="str">
         <x:v>CreditConversion</x:v>
       </x:c>
-      <x:c r="B77" s="2" t="str">
+      <x:c r="B78" s="2" t="str">
         <x:v>totalDigits: 9
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C77" s="2" t="str">
+      <x:c r="C78" s="2" t="str">
         <x:v>Conversion factor that when multiplied by the number of credits is equivalent to Carnegie units.</x:v>
       </x:c>
     </x:row>
-    <x:row r="78">
-      <x:c r="A78" s="2" t="str">
+    <x:row r="79">
+      <x:c r="A79" s="2" t="str">
         <x:v>CreditsValue</x:v>
       </x:c>
-      <x:c r="B78" s="2" t="str">
+      <x:c r="B79" s="2" t="str">
         <x:v>minInclusive: 0
 totalDigits: 9
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C78" s="2" t="str">
+      <x:c r="C79" s="2" t="str">
         <x:v>The value of credits or units of value awarded for the completion of a course.</x:v>
       </x:c>
     </x:row>
-    <x:row r="79">
-      <x:c r="A79" s="2" t="str">
+    <x:row r="80">
+      <x:c r="A80" s="2" t="str">
         <x:v>CreditType</x:v>
       </x:c>
-      <x:c r="B79" s="2" t="str">
+      <x:c r="B80" s="2" t="str">
         <x:v>Adult education credit
 Career and Technical Education credit
 Carnegie unit
@@ -52881,39 +52894,39 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C79" s="2" t="str">
+      <x:c r="C80" s="2" t="str">
         <x:v>The type of credits or units of value awarded for the completion of a course.</x:v>
       </x:c>
     </x:row>
-    <x:row r="80">
-      <x:c r="A80" s="2" t="str">
+    <x:row r="81">
+      <x:c r="A81" s="2" t="str">
         <x:v>Criteria</x:v>
       </x:c>
-      <x:c r="B80" s="2" t="str">
+      <x:c r="B81" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 150
 </x:v>
       </x:c>
-      <x:c r="C80" s="2" t="str">
+      <x:c r="C81" s="2" t="str">
         <x:v>The criteria for competency-based completion of the achievement/award.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81">
-      <x:c r="A81" s="2" t="str">
-        <x:v>Currency</x:v>
-      </x:c>
-      <x:c r="B81" s="2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="C81" s="2" t="str">
-        <x:v>U.S. currency in dollars and cents.</x:v>
       </x:c>
     </x:row>
     <x:row r="82">
       <x:c r="A82" s="2" t="str">
+        <x:v>Currency</x:v>
+      </x:c>
+      <x:c r="B82" s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C82" s="2" t="str">
+        <x:v>U.S. currency in dollars and cents.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" s="2" t="str">
         <x:v>CurriculumUsedType</x:v>
       </x:c>
-      <x:c r="B82" s="2" t="str">
+      <x:c r="B83" s="2" t="str">
         <x:v>Creative curriculum infants/toddlers
 Creative curriculum preschool
 Creative curriculum family child care
@@ -52925,69 +52938,69 @@
 None
 </x:v>
       </x:c>
-      <x:c r="C82" s="2" t="str">
+      <x:c r="C83" s="2" t="str">
         <x:v>The type of curriculum used in an early learning classroom or group.</x:v>
       </x:c>
     </x:row>
-    <x:row r="83">
-      <x:c r="A83" s="2" t="str">
+    <x:row r="84">
+      <x:c r="A84" s="2" t="str">
         <x:v>DeliveryMethodType</x:v>
       </x:c>
-      <x:c r="B83" s="2" t="str">
+      <x:c r="B84" s="2" t="str">
         <x:v>Individual
 Small Group
 Whole Class
 Whole School
 </x:v>
       </x:c>
-      <x:c r="C83" s="2" t="str">
+      <x:c r="C84" s="2" t="str">
         <x:v>The way in which an intervention was implemented: individual, small group, whole class, or whole school.</x:v>
       </x:c>
     </x:row>
-    <x:row r="84">
-      <x:c r="A84" s="2" t="str">
+    <x:row r="85">
+      <x:c r="A85" s="2" t="str">
         <x:v>Department</x:v>
       </x:c>
-      <x:c r="B84" s="2" t="str">
+      <x:c r="B85" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 3
 </x:v>
       </x:c>
-      <x:c r="C84" s="2" t="str">
+      <x:c r="C85" s="2" t="str">
         <x:v>The department or suborganization the employee/contractor is associated with in the Education Organization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="85">
-      <x:c r="A85" s="2" t="str">
+    <x:row r="86">
+      <x:c r="A86" s="2" t="str">
         <x:v>Description</x:v>
       </x:c>
-      <x:c r="B85" s="2" t="str">
+      <x:c r="B86" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 1024
 </x:v>
       </x:c>
-      <x:c r="C85" s="2" t="str">
+      <x:c r="C86" s="2" t="str">
         <x:v>A detailed description of the entity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="86">
-      <x:c r="A86" s="2" t="str">
+    <x:row r="87">
+      <x:c r="A87" s="2" t="str">
         <x:v>DesignatedBy</x:v>
       </x:c>
-      <x:c r="B86" s="2" t="str">
+      <x:c r="B87" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C86" s="2" t="str">
+      <x:c r="C87" s="2" t="str">
         <x:v>The person, organization, or department that made a student designation.</x:v>
       </x:c>
     </x:row>
-    <x:row r="87">
-      <x:c r="A87" s="2" t="str">
+    <x:row r="88">
+      <x:c r="A88" s="2" t="str">
         <x:v>DiagnosisMapType</x:v>
       </x:c>
-      <x:c r="B87" s="2" t="str">
+      <x:c r="B88" s="2" t="str">
         <x:v>Low Attendance
 Dropout Risk
 Low Observation Performance
@@ -52997,41 +53010,41 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C87" s="2" t="str">
+      <x:c r="C88" s="2" t="str">
         <x:v>Targeted purpose of the intervention (e.g., attendance issue, dropout risk).</x:v>
       </x:c>
     </x:row>
-    <x:row r="88">
-      <x:c r="A88" s="2" t="str">
+    <x:row r="89">
+      <x:c r="A89" s="2" t="str">
         <x:v>DiagnosticStatement</x:v>
       </x:c>
-      <x:c r="B88" s="2" t="str">
+      <x:c r="B89" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 1024
 </x:v>
       </x:c>
-      <x:c r="C88" s="2" t="str">
+      <x:c r="C89" s="2" t="str">
         <x:v>A statement provided by the teacher that provides information in addition to the grade or assessment score.</x:v>
       </x:c>
     </x:row>
-    <x:row r="89">
-      <x:c r="A89" s="2" t="str">
+    <x:row r="90">
+      <x:c r="A90" s="2" t="str">
         <x:v>DiplomaDescription</x:v>
       </x:c>
-      <x:c r="B89" s="2" t="str">
+      <x:c r="B90" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C89" s="2" t="str">
+      <x:c r="C90" s="2" t="str">
         <x:v>The description of diploma given to the student for accomplishments.</x:v>
       </x:c>
     </x:row>
-    <x:row r="90">
-      <x:c r="A90" s="2" t="str">
+    <x:row r="91">
+      <x:c r="A91" s="2" t="str">
         <x:v>DiplomaLevelType</x:v>
       </x:c>
-      <x:c r="B90" s="2" t="str">
+      <x:c r="B91" s="2" t="str">
         <x:v>Minimum
 Recommended
 Distinguished
@@ -53041,15 +53054,15 @@
 Summa cum laude
 </x:v>
       </x:c>
-      <x:c r="C90" s="2" t="str">
+      <x:c r="C91" s="2" t="str">
         <x:v>The level of diploma/credential that is awarded to a student in recognition of his/her completion of the curricular requirements.</x:v>
       </x:c>
     </x:row>
-    <x:row r="91">
-      <x:c r="A91" s="2" t="str">
+    <x:row r="92">
+      <x:c r="A92" s="2" t="str">
         <x:v>DiplomaType</x:v>
       </x:c>
-      <x:c r="B91" s="2" t="str">
+      <x:c r="B92" s="2" t="str">
         <x:v>Regular diploma
 Endorsed/advanced diploma
 Regents diploma
@@ -53069,29 +53082,29 @@
 Apprenticeship Certificate
 </x:v>
       </x:c>
-      <x:c r="C91" s="2" t="str">
+      <x:c r="C92" s="2" t="str">
         <x:v>The type of diploma/credential that is awarded to a student in recognition of his/her completion of the curricular requirements.</x:v>
       </x:c>
     </x:row>
-    <x:row r="92">
-      <x:c r="A92" s="2" t="str">
+    <x:row r="93">
+      <x:c r="A93" s="2" t="str">
         <x:v>DisabilityCategoryType</x:v>
       </x:c>
-      <x:c r="B92" s="2" t="str">
+      <x:c r="B93" s="2" t="str">
         <x:v>Individuals with Disabilities Education Act
 Section 504
 Other
 </x:v>
       </x:c>
-      <x:c r="C92" s="2" t="str">
+      <x:c r="C93" s="2" t="str">
         <x:v>The type of disability designation (e.g., IDEA, Section 504).</x:v>
       </x:c>
     </x:row>
-    <x:row r="93">
-      <x:c r="A93" s="2" t="str">
+    <x:row r="94">
+      <x:c r="A94" s="2" t="str">
         <x:v>DisabilityDeterminationSourceType</x:v>
       </x:c>
-      <x:c r="B93" s="2" t="str">
+      <x:c r="B94" s="2" t="str">
         <x:v>By physician
 By health care provider
 By school psychologist or other psychologist
@@ -53103,28 +53116,28 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C93" s="2" t="str">
+      <x:c r="C94" s="2" t="str">
         <x:v>The source that provided the disability determination.</x:v>
       </x:c>
     </x:row>
-    <x:row r="94">
-      <x:c r="A94" s="2" t="str">
+    <x:row r="95">
+      <x:c r="A95" s="2" t="str">
         <x:v>DisabilityDiagnosis</x:v>
       </x:c>
-      <x:c r="B94" s="2" t="str">
+      <x:c r="B95" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C94" s="2" t="str">
+      <x:c r="C95" s="2" t="str">
         <x:v>A description of the disability diagnosis.</x:v>
       </x:c>
     </x:row>
-    <x:row r="95">
-      <x:c r="A95" s="2" t="str">
+    <x:row r="96">
+      <x:c r="A96" s="2" t="str">
         <x:v>DisabilityMapType</x:v>
       </x:c>
-      <x:c r="B95" s="2" t="str">
+      <x:c r="B96" s="2" t="str">
         <x:v>Autism Spectrum Disorders
 Deaf-Blindness
 Hearing Impairment, including Deafness
@@ -53147,28 +53160,28 @@
 Visual Impairment, including Blindness
 </x:v>
       </x:c>
-      <x:c r="C95" s="2" t="str">
+      <x:c r="C96" s="2" t="str">
         <x:v>A disability condition that describes a child's impairment.</x:v>
       </x:c>
     </x:row>
-    <x:row r="96">
-      <x:c r="A96" s="2" t="str">
+    <x:row r="97">
+      <x:c r="A97" s="2" t="str">
         <x:v>DisciplineActionIdentifier</x:v>
       </x:c>
-      <x:c r="B96" s="2" t="str">
+      <x:c r="B97" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C96" s="2" t="str">
+      <x:c r="C97" s="2" t="str">
         <x:v>Identifier assigned by the education organization to the discipline action.</x:v>
       </x:c>
     </x:row>
-    <x:row r="97">
-      <x:c r="A97" s="2" t="str">
+    <x:row r="98">
+      <x:c r="A98" s="2" t="str">
         <x:v>DisciplineActionLengthDifferenceReasonType</x:v>
       </x:c>
-      <x:c r="B97" s="2" t="str">
+      <x:c r="B98" s="2" t="str">
         <x:v>No Difference
 Term Modified By District
 Term Modified By Court Order
@@ -53183,15 +53196,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C97" s="2" t="str">
+      <x:c r="C98" s="2" t="str">
         <x:v>Indicates the reason for the difference, if any, between the official and actual lengths of a student's disciplinary assignment.</x:v>
       </x:c>
     </x:row>
-    <x:row r="98">
-      <x:c r="A98" s="2" t="str">
+    <x:row r="99">
+      <x:c r="A99" s="2" t="str">
         <x:v>DisciplineMapType</x:v>
       </x:c>
-      <x:c r="B98" s="2" t="str">
+      <x:c r="B99" s="2" t="str">
         <x:v>Removal from Classroom
 In School Suspension
 Out of School Suspension
@@ -53201,53 +53214,53 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C98" s="2" t="str">
+      <x:c r="C99" s="2" t="str">
         <x:v>The category of discipline action.</x:v>
       </x:c>
     </x:row>
-    <x:row r="99">
-      <x:c r="A99" s="2" t="str">
+    <x:row r="100">
+      <x:c r="A100" s="2" t="str">
         <x:v>DisplacementStatus</x:v>
       </x:c>
-      <x:c r="B99" s="2" t="str">
+      <x:c r="B100" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 30
 </x:v>
       </x:c>
-      <x:c r="C99" s="2" t="str">
+      <x:c r="C100" s="2" t="str">
         <x:v>Indicates a state health or weather related event that displaces a group of students, and may require additional funding, educational, or social services.</x:v>
       </x:c>
     </x:row>
-    <x:row r="100">
-      <x:c r="A100" s="2" t="str">
+    <x:row r="101">
+      <x:c r="A101" s="2" t="str">
         <x:v>DocumentTitle</x:v>
       </x:c>
-      <x:c r="B100" s="2" t="str">
+      <x:c r="B101" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C100" s="2" t="str">
+      <x:c r="C101" s="2" t="str">
         <x:v>The title of the document given by the issuer.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101">
-      <x:c r="A101" s="2" t="str">
-        <x:v>Duration</x:v>
-      </x:c>
-      <x:c r="B101" s="2" t="str">
-        <x:v>minInclusive: 1
-</x:v>
-      </x:c>
-      <x:c r="C101" s="2" t="str">
-        <x:v>The actual or estimated number of clock minutes for a given class.</x:v>
       </x:c>
     </x:row>
     <x:row r="102">
       <x:c r="A102" s="2" t="str">
+        <x:v>Duration</x:v>
+      </x:c>
+      <x:c r="B102" s="2" t="str">
+        <x:v>minInclusive: 1
+</x:v>
+      </x:c>
+      <x:c r="C102" s="2" t="str">
+        <x:v>The actual or estimated number of clock minutes for a given class.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103">
+      <x:c r="A103" s="2" t="str">
         <x:v>EducationalEnvironmentType</x:v>
       </x:c>
-      <x:c r="B102" s="2" t="str">
+      <x:c r="B103" s="2" t="str">
         <x:v>Classroom
 Homebound
 Hospital class
@@ -53263,15 +53276,15 @@
 Shop
 </x:v>
       </x:c>
-      <x:c r="C102" s="2" t="str">
+      <x:c r="C103" s="2" t="str">
         <x:v>The setting in which a child receives education and related services.</x:v>
       </x:c>
     </x:row>
-    <x:row r="103">
-      <x:c r="A103" s="2" t="str">
+    <x:row r="104">
+      <x:c r="A104" s="2" t="str">
         <x:v>EducationOrganizationCategoryType</x:v>
       </x:c>
-      <x:c r="B103" s="2" t="str">
+      <x:c r="B104" s="2" t="str">
         <x:v>Education Organization Network
 Education Service Center
 Local Education Agency
@@ -53284,15 +53297,15 @@
 Teacher Preparation Provider
 </x:v>
       </x:c>
-      <x:c r="C103" s="2" t="str">
+      <x:c r="C104" s="2" t="str">
         <x:v>The classification of the education agency within the geographic boundaries of a state according to the level of administrative and operational control granted by the state.</x:v>
       </x:c>
     </x:row>
-    <x:row r="104">
-      <x:c r="A104" s="2" t="str">
+    <x:row r="105">
+      <x:c r="A105" s="2" t="str">
         <x:v>EducationOrganizationIdentificationSystemMapType</x:v>
       </x:c>
-      <x:c r="B104" s="2" t="str">
+      <x:c r="B105" s="2" t="str">
         <x:v>ACT
 DUNS
 Federal
@@ -53306,15 +53319,15 @@
 USDE - OPE
 </x:v>
       </x:c>
-      <x:c r="C104" s="2" t="str">
+      <x:c r="C105" s="2" t="str">
         <x:v>A coding scheme that is used for identification and record-keeping purposes by education organizations, social services or other agencies to refer to an education organization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="105">
-      <x:c r="A105" s="2" t="str">
+    <x:row r="106">
+      <x:c r="A106" s="2" t="str">
         <x:v>EducationPlanType</x:v>
       </x:c>
-      <x:c r="B105" s="2" t="str">
+      <x:c r="B106" s="2" t="str">
         <x:v>504 Plan
 Career Pathways
 Career Suggestions
@@ -53329,45 +53342,58 @@
 Student Success Plan
 </x:v>
       </x:c>
-      <x:c r="C105" s="2" t="str">
+      <x:c r="C106" s="2" t="str">
         <x:v>The type of education plan(s) the student is following, if appropriate. For example:
     Special education
     Vocational.</x:v>
       </x:c>
     </x:row>
-    <x:row r="106">
-      <x:c r="A106" s="2" t="str">
+    <x:row r="107">
+      <x:c r="A107" s="2" t="str">
+        <x:v>EffectivenessRating</x:v>
+      </x:c>
+      <x:c r="B107" s="2" t="str">
+        <x:v>minLength: 1
+maxLength: 32
+</x:v>
+      </x:c>
+      <x:c r="C107" s="2" t="str">
+        <x:v>The effectiveness rating provided for the teacher.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108">
+      <x:c r="A108" s="2" t="str">
         <x:v>ElectronicMailAddress</x:v>
       </x:c>
-      <x:c r="B106" s="2" t="str">
+      <x:c r="B108" s="2" t="str">
         <x:v>minLength: 7
 maxLength: 128
 </x:v>
       </x:c>
-      <x:c r="C106" s="2" t="str">
+      <x:c r="C108" s="2" t="str">
         <x:v>The electronic mail (e-mail) address listed for an individual or organization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="107">
-      <x:c r="A107" s="2" t="str">
+    <x:row r="109">
+      <x:c r="A109" s="2" t="str">
         <x:v>ElectronicMailType</x:v>
       </x:c>
-      <x:c r="B107" s="2" t="str">
+      <x:c r="B109" s="2" t="str">
         <x:v>Home/Personal
 Organization
 Other
 Work
 </x:v>
       </x:c>
-      <x:c r="C107" s="2" t="str">
+      <x:c r="C109" s="2" t="str">
         <x:v>The type of email listed for an individual or organization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="108">
-      <x:c r="A108" s="2" t="str">
+    <x:row r="110">
+      <x:c r="A110" s="2" t="str">
         <x:v>EmploymentStatusMapType</x:v>
       </x:c>
-      <x:c r="B108" s="2" t="str">
+      <x:c r="B110" s="2" t="str">
         <x:v>Probationary
 Contractual
 Substitute/temporary
@@ -53380,15 +53406,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C108" s="2" t="str">
+      <x:c r="C110" s="2" t="str">
         <x:v>Reflects the type of employment or contract.</x:v>
       </x:c>
     </x:row>
-    <x:row r="109">
-      <x:c r="A109" s="2" t="str">
+    <x:row r="111">
+      <x:c r="A111" s="2" t="str">
         <x:v>EntryGradeLevelReasonType</x:v>
       </x:c>
-      <x:c r="B109" s="2" t="str">
+      <x:c r="B111" s="2" t="str">
         <x:v>Promotion - Accelerated promotion
 Promotion - Continuous promotion
 Promotion - Probationary promotion
@@ -53404,15 +53430,15 @@
 Nonpromotion - Other
 </x:v>
       </x:c>
-      <x:c r="C109" s="2" t="str">
+      <x:c r="C111" s="2" t="str">
         <x:v>The primary reason as to why a staff member determined that a student should be promoted or not (or be demoted) at the end of a given school term.</x:v>
       </x:c>
     </x:row>
-    <x:row r="110">
-      <x:c r="A110" s="2" t="str">
+    <x:row r="112">
+      <x:c r="A112" s="2" t="str">
         <x:v>EntryTypeMapType</x:v>
       </x:c>
-      <x:c r="B110" s="2" t="str">
+      <x:c r="B112" s="2" t="str">
         <x:v>Transfer
 Re-entry
 Next year school
@@ -53420,15 +53446,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C110" s="2" t="str">
+      <x:c r="C112" s="2" t="str">
         <x:v>The process by which a student enters a school during a given academic session.</x:v>
       </x:c>
     </x:row>
-    <x:row r="111">
-      <x:c r="A111" s="2" t="str">
+    <x:row r="113">
+      <x:c r="A113" s="2" t="str">
         <x:v>EventCircumstanceType</x:v>
       </x:c>
-      <x:c r="B111" s="2" t="str">
+      <x:c r="B113" s="2" t="str">
         <x:v>Long-term suspension - non-special education
 Short-term suspension - non-special education
 Suspension - special education
@@ -53463,28 +53489,28 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C111" s="2" t="str">
+      <x:c r="C113" s="2" t="str">
         <x:v>An unusual event occurred during the administration of the assessment. This could include fire alarm, student became ill, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="112">
-      <x:c r="A112" s="2" t="str">
+    <x:row r="114">
+      <x:c r="A114" s="2" t="str">
         <x:v>EventDuration</x:v>
       </x:c>
-      <x:c r="B112" s="2" t="str">
+      <x:c r="B114" s="2" t="str">
         <x:v>totalDigits: 3
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C112" s="2" t="str">
+      <x:c r="C114" s="2" t="str">
         <x:v>The amount of time for the event as recognized by the school: 1 day = 1, 1/2 day = 0.5, 1/3 day = 0.33.</x:v>
       </x:c>
     </x:row>
-    <x:row r="113">
-      <x:c r="A113" s="2" t="str">
+    <x:row r="115">
+      <x:c r="A115" s="2" t="str">
         <x:v>ExitWithdrawTypeMapType</x:v>
       </x:c>
-      <x:c r="B113" s="2" t="str">
+      <x:c r="B115" s="2" t="str">
         <x:v>Transferred
 Graduated
 Completed
@@ -53502,15 +53528,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C113" s="2" t="str">
+      <x:c r="C115" s="2" t="str">
         <x:v>The circumstances under which the student exited from membership in an educational institution.</x:v>
       </x:c>
     </x:row>
-    <x:row r="114">
-      <x:c r="A114" s="2" t="str">
+    <x:row r="116">
+      <x:c r="A116" s="2" t="str">
         <x:v>EXTENSION-AbsenceEventCategoryMapType</x:v>
       </x:c>
-      <x:c r="B114" s="2" t="str">
+      <x:c r="B116" s="2" t="str">
         <x:v>Doctor
 Family
 Injured
@@ -53520,54 +53546,54 @@
 Vacation
 </x:v>
       </x:c>
-      <x:c r="C114" s="2" t="str">
+      <x:c r="C116" s="2" t="str">
         <x:v>Map for the code describing the type of leave taken, for example: Sick, Personal, Vacation.</x:v>
       </x:c>
     </x:row>
-    <x:row r="115">
-      <x:c r="A115" s="2" t="str">
+    <x:row r="117">
+      <x:c r="A117" s="2" t="str">
         <x:v>EXTENSION-AbsenceEventReason</x:v>
       </x:c>
-      <x:c r="B115" s="2" t="str">
+      <x:c r="B117" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 40
 </x:v>
       </x:c>
-      <x:c r="C115" s="2" t="str">
+      <x:c r="C117" s="2" t="str">
         <x:v>Expanded reason for the staff absence.</x:v>
       </x:c>
     </x:row>
-    <x:row r="116">
-      <x:c r="A116" s="2" t="str">
+    <x:row r="118">
+      <x:c r="A118" s="2" t="str">
         <x:v>EXTENSION-AdmissionStatus</x:v>
       </x:c>
-      <x:c r="B116" s="2" t="str">
+      <x:c r="B118" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 32
 </x:v>
       </x:c>
-      <x:c r="C116" s="2" t="str">
+      <x:c r="C118" s="2" t="str">
         <x:v>The admission status of the teacher candidate, if the teacher candidate is fully admitted or not fully admitted.</x:v>
       </x:c>
     </x:row>
-    <x:row r="117">
-      <x:c r="A117" s="2" t="str">
+    <x:row r="119">
+      <x:c r="A119" s="2" t="str">
         <x:v>EXTENSION-AggregatedMatrixElement</x:v>
       </x:c>
-      <x:c r="B117" s="2" t="str">
+      <x:c r="B119" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C117" s="2" t="str">
+      <x:c r="C119" s="2" t="str">
         <x:v>For aggregated matrix questions, the text identifying each row of the matrix.</x:v>
       </x:c>
     </x:row>
-    <x:row r="118">
-      <x:c r="A118" s="2" t="str">
+    <x:row r="120">
+      <x:c r="A120" s="2" t="str">
         <x:v>EXTENSION-AidTypeMapType</x:v>
       </x:c>
-      <x:c r="B118" s="2" t="str">
+      <x:c r="B120" s="2" t="str">
         <x:v>Pell Grants
 Other Federal Grants
 State and Local Grants
@@ -53594,39 +53620,13 @@
 Loan Forgiveness
 </x:v>
       </x:c>
-      <x:c r="C118" s="2" t="str">
+      <x:c r="C120" s="2" t="str">
         <x:v>The classification of financial aid awarded to a person for the academic term/year.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="119">
-      <x:c r="A119" s="2" t="str">
-        <x:v>EXTENSION-AnonymizedStudentIdentifier</x:v>
-      </x:c>
-      <x:c r="B119" s="2" t="str">
-        <x:v>minLength: 1
-maxLength: 60
-</x:v>
-      </x:c>
-      <x:c r="C119" s="2" t="str">
-        <x:v>Unique identifier for anonymized student</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="120">
-      <x:c r="A120" s="2" t="str">
-        <x:v>EXTENSION-ApplicantIdentifier</x:v>
-      </x:c>
-      <x:c r="B120" s="2" t="str">
-        <x:v>minLength: 1
-maxLength: 32
-</x:v>
-      </x:c>
-      <x:c r="C120" s="2" t="str">
-        <x:v>Identifier assigned to a person making formal application for an open staff position.</x:v>
       </x:c>
     </x:row>
     <x:row r="121">
       <x:c r="A121" s="2" t="str">
-        <x:v>EXTENSION-AssessmentIdentifier</x:v>
+        <x:v>EXTENSION-AnonymizedStudentIdentifier</x:v>
       </x:c>
       <x:c r="B121" s="2" t="str">
         <x:v>minLength: 1
@@ -53634,27 +53634,53 @@
 </x:v>
       </x:c>
       <x:c r="C121" s="2" t="str">
-        <x:v>An identifier that uniquely identifies the assessment to which the student results are associated.</x:v>
+        <x:v>Unique identifier for anonymized student</x:v>
       </x:c>
     </x:row>
     <x:row r="122">
       <x:c r="A122" s="2" t="str">
+        <x:v>EXTENSION-ApplicantIdentifier</x:v>
+      </x:c>
+      <x:c r="B122" s="2" t="str">
+        <x:v>minLength: 1
+maxLength: 32
+</x:v>
+      </x:c>
+      <x:c r="C122" s="2" t="str">
+        <x:v>Identifier assigned to a person making formal application for an open staff position.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123">
+      <x:c r="A123" s="2" t="str">
+        <x:v>EXTENSION-AssessmentIdentifier</x:v>
+      </x:c>
+      <x:c r="B123" s="2" t="str">
+        <x:v>minLength: 1
+maxLength: 60
+</x:v>
+      </x:c>
+      <x:c r="C123" s="2" t="str">
+        <x:v>An identifier that uniquely identifies the assessment to which the student results are associated.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124">
+      <x:c r="A124" s="2" t="str">
         <x:v>EXTENSION-AverageNumericResponse</x:v>
       </x:c>
-      <x:c r="B122" s="2" t="str">
+      <x:c r="B124" s="2" t="str">
         <x:v>totalDigits: 18
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C122" s="2" t="str">
+      <x:c r="C124" s="2" t="str">
         <x:v>The average numeric response for the survey.</x:v>
       </x:c>
     </x:row>
-    <x:row r="123">
-      <x:c r="A123" s="2" t="str">
+    <x:row r="125">
+      <x:c r="A125" s="2" t="str">
         <x:v>EXTENSION-BackgroundCheckStatusMapType</x:v>
       </x:c>
-      <x:c r="B123" s="2" t="str">
+      <x:c r="B125" s="2" t="str">
         <x:v>Eligible
 Employer Review
 Not Eligible
@@ -53663,15 +53689,15 @@
 Waiting
 </x:v>
       </x:c>
-      <x:c r="C123" s="2" t="str">
+      <x:c r="C125" s="2" t="str">
         <x:v>The status of the background check (e.g., pending, under investigation, offense(s) found, etc.).</x:v>
       </x:c>
     </x:row>
-    <x:row r="124">
-      <x:c r="A124" s="2" t="str">
+    <x:row r="126">
+      <x:c r="A126" s="2" t="str">
         <x:v>EXTENSION-BackgroundCheckTypeMapType</x:v>
       </x:c>
-      <x:c r="B124" s="2" t="str">
+      <x:c r="B126" s="2" t="str">
         <x:v>City
 County
 Federal
@@ -53679,15 +53705,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C124" s="2" t="str">
+      <x:c r="C126" s="2" t="str">
         <x:v>This descriptor defines the classification of the background check a person receives.</x:v>
       </x:c>
     </x:row>
-    <x:row r="125">
-      <x:c r="A125" s="2" t="str">
+    <x:row r="127">
+      <x:c r="A127" s="2" t="str">
         <x:v>EXTENSION-BoardCertificationTypeMapType</x:v>
       </x:c>
-      <x:c r="B125" s="2" t="str">
+      <x:c r="B127" s="2" t="str">
         <x:v>None
 Art/Early Adolescence through Young Adulthood
 Art/Early and Middle Childhood
@@ -53719,251 +53745,251 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C125" s="2" t="str">
+      <x:c r="C127" s="2" t="str">
         <x:v>Map for the board certification board types.</x:v>
       </x:c>
     </x:row>
-    <x:row r="126">
-      <x:c r="A126" s="2" t="str">
+    <x:row r="128">
+      <x:c r="A128" s="2" t="str">
         <x:v>EXTENSION-CertificationExamTitle</x:v>
       </x:c>
-      <x:c r="B126" s="2" t="str">
+      <x:c r="B128" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C126" s="2" t="str">
+      <x:c r="C128" s="2" t="str">
         <x:v>The title or name of the certification.</x:v>
       </x:c>
     </x:row>
-    <x:row r="127">
-      <x:c r="A127" s="2" t="str">
+    <x:row r="129">
+      <x:c r="A129" s="2" t="str">
         <x:v>EXTENSION-CertificationExamTypeMapType</x:v>
       </x:c>
-      <x:c r="B127" s="2" t="str">
+      <x:c r="B129" s="2" t="str">
         <x:v>National
 State
 Other
 </x:v>
       </x:c>
-      <x:c r="C127" s="2" t="str">
+      <x:c r="C129" s="2" t="str">
         <x:v>Map for the certification exam types.</x:v>
       </x:c>
     </x:row>
-    <x:row r="128">
-      <x:c r="A128" s="2" t="str">
+    <x:row r="130">
+      <x:c r="A130" s="2" t="str">
         <x:v>EXTENSION-Comments</x:v>
       </x:c>
-      <x:c r="B128" s="2" t="str">
+      <x:c r="B130" s="2" t="str">
         <x:v>maxLength: 1024
 </x:v>
       </x:c>
-      <x:c r="C128" s="2" t="str">
+      <x:c r="C130" s="2" t="str">
         <x:v>Any comments about the performance measure to be captured</x:v>
       </x:c>
     </x:row>
-    <x:row r="129">
-      <x:c r="A129" s="2" t="str">
+    <x:row r="131">
+      <x:c r="A131" s="2" t="str">
         <x:v>EXTENSION-EnglishLanguageExamMapType</x:v>
       </x:c>
-      <x:c r="B129" s="2" t="str">
+      <x:c r="B131" s="2" t="str">
         <x:v>Pass
 Fail
 N/A
 Other
 </x:v>
       </x:c>
-      <x:c r="C129" s="2" t="str">
+      <x:c r="C131" s="2" t="str">
         <x:v>The rating the individual received on the English Language assessment.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="130">
-      <x:c r="A130" s="2" t="str">
-        <x:v>EXTENSION-EventDescription</x:v>
-      </x:c>
-      <x:c r="B130" s="2" t="str">
-        <x:v>maxLength: 255
-</x:v>
-      </x:c>
-      <x:c r="C130" s="2" t="str">
-        <x:v>The long description of the event.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="131">
-      <x:c r="A131" s="2" t="str">
-        <x:v>EXTENSION-EventLocation</x:v>
-      </x:c>
-      <x:c r="B131" s="2" t="str">
-        <x:v>maxLength: 255
-</x:v>
-      </x:c>
-      <x:c r="C131" s="2" t="str">
-        <x:v>The location of the event.</x:v>
       </x:c>
     </x:row>
     <x:row r="132">
       <x:c r="A132" s="2" t="str">
-        <x:v>EXTENSION-EventTitle</x:v>
+        <x:v>EXTENSION-EventDescription</x:v>
       </x:c>
       <x:c r="B132" s="2" t="str">
-        <x:v>maxLength: 50
+        <x:v>maxLength: 255
 </x:v>
       </x:c>
       <x:c r="C132" s="2" t="str">
-        <x:v>The tiltle of the event.</x:v>
+        <x:v>The long description of the event.</x:v>
       </x:c>
     </x:row>
     <x:row r="133">
       <x:c r="A133" s="2" t="str">
+        <x:v>EXTENSION-EventLocation</x:v>
+      </x:c>
+      <x:c r="B133" s="2" t="str">
+        <x:v>maxLength: 255
+</x:v>
+      </x:c>
+      <x:c r="C133" s="2" t="str">
+        <x:v>The location of the event.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134">
+      <x:c r="A134" s="2" t="str">
+        <x:v>EXTENSION-EventTitle</x:v>
+      </x:c>
+      <x:c r="B134" s="2" t="str">
+        <x:v>maxLength: 50
+</x:v>
+      </x:c>
+      <x:c r="C134" s="2" t="str">
+        <x:v>The tiltle of the event.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135">
+      <x:c r="A135" s="2" t="str">
         <x:v>EXTENSION-ExternalTerm</x:v>
       </x:c>
-      <x:c r="B133" s="2" t="str">
+      <x:c r="B135" s="2" t="str">
         <x:v>maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C133" s="2" t="str">
+      <x:c r="C135" s="2" t="str">
         <x:v>Defines the external term of a session during the school
                    year (e.g., Fall Semester) of an ExternalEducationOrganization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="134">
-      <x:c r="A134" s="2" t="str">
+    <x:row r="136">
+      <x:c r="A136" s="2" t="str">
         <x:v>EXTENSION-FieldworkIdentifier</x:v>
       </x:c>
-      <x:c r="B134" s="2" t="str">
+      <x:c r="B136" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C134" s="2" t="str">
+      <x:c r="C136" s="2" t="str">
         <x:v>The unique identifier for the fieldwork experience</x:v>
       </x:c>
     </x:row>
-    <x:row r="135">
-      <x:c r="A135" s="2" t="str">
+    <x:row r="137">
+      <x:c r="A137" s="2" t="str">
         <x:v>EXTENSION-FieldworkSchool</x:v>
       </x:c>
-      <x:c r="B135" s="2" t="str">
+      <x:c r="B137" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C135" s="2" t="str">
+      <x:c r="C137" s="2" t="str">
         <x:v>The school at which the teacher candidate completed each fieldwork experience.</x:v>
       </x:c>
     </x:row>
-    <x:row r="136">
-      <x:c r="A136" s="2" t="str">
+    <x:row r="138">
+      <x:c r="A138" s="2" t="str">
         <x:v>EXTENSION-FieldworkTypeMapType</x:v>
       </x:c>
-      <x:c r="B136" s="2" t="str">
+      <x:c r="B138" s="2" t="str">
         <x:v>Clinical Experience
 Field Placement
 Residential Program
 Other
 </x:v>
       </x:c>
-      <x:c r="C136" s="2" t="str">
+      <x:c r="C138" s="2" t="str">
         <x:v>Map for the fieldwork types.</x:v>
       </x:c>
     </x:row>
-    <x:row r="137">
-      <x:c r="A137" s="2" t="str">
+    <x:row r="139">
+      <x:c r="A139" s="2" t="str">
         <x:v>EXTENSION-FileStatus</x:v>
       </x:c>
-      <x:c r="B137" s="2" t="str">
+      <x:c r="B139" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 32
 </x:v>
       </x:c>
-      <x:c r="C137" s="2" t="str">
+      <x:c r="C139" s="2" t="str">
         <x:v>An indication of whether the teacher candidate is from the Admissions file or the Completer file.</x:v>
       </x:c>
     </x:row>
-    <x:row r="138">
-      <x:c r="A138" s="2" t="str">
+    <x:row r="140">
+      <x:c r="A140" s="2" t="str">
         <x:v>EXTENSION-FullName</x:v>
       </x:c>
-      <x:c r="B138" s="2" t="str">
+      <x:c r="B140" s="2" t="str">
         <x:v>maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C138" s="2" t="str">
+      <x:c r="C140" s="2" t="str">
         <x:v>Full name of a person.</x:v>
       </x:c>
     </x:row>
-    <x:row r="139">
-      <x:c r="A139" s="2" t="str">
+    <x:row r="141">
+      <x:c r="A141" s="2" t="str">
         <x:v>EXTENSION-GenderType</x:v>
       </x:c>
-      <x:c r="B139" s="2" t="str">
+      <x:c r="B141" s="2" t="str">
         <x:v>Female
 Male
 Not Selected
 </x:v>
       </x:c>
-      <x:c r="C139" s="2" t="str">
+      <x:c r="C141" s="2" t="str">
         <x:v>The gender with with a person associates.</x:v>
       </x:c>
     </x:row>
-    <x:row r="140">
-      <x:c r="A140" s="2" t="str">
+    <x:row r="142">
+      <x:c r="A142" s="2" t="str">
         <x:v>EXTENSION-HoursPerDay</x:v>
       </x:c>
-      <x:c r="B140" s="2" t="str">
+      <x:c r="B142" s="2" t="str">
         <x:v>minInclusive: 0
 maxInclusive: 8
 totalDigits: 3
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C140" s="2" t="str">
+      <x:c r="C142" s="2" t="str">
         <x:v>The number of working hours per day (based on an 8 hour workday).</x:v>
       </x:c>
     </x:row>
-    <x:row r="141">
-      <x:c r="A141" s="2" t="str">
+    <x:row r="143">
+      <x:c r="A143" s="2" t="str">
         <x:v>EXTENSION-IndicatorCriteria</x:v>
       </x:c>
-      <x:c r="B141" s="2" t="str">
+      <x:c r="B143" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C141" s="2" t="str">
+      <x:c r="C143" s="2" t="str">
         <x:v>The name of the indicator.</x:v>
       </x:c>
     </x:row>
-    <x:row r="142">
-      <x:c r="A142" s="2" t="str">
+    <x:row r="144">
+      <x:c r="A144" s="2" t="str">
         <x:v>EXTENSION-IndicatorFacts</x:v>
       </x:c>
-      <x:c r="B142" s="2" t="str">
+      <x:c r="B144" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C142" s="2" t="str">
+      <x:c r="C144" s="2" t="str">
         <x:v>The category of the indicator.</x:v>
       </x:c>
     </x:row>
-    <x:row r="143">
-      <x:c r="A143" s="2" t="str">
+    <x:row r="145">
+      <x:c r="A145" s="2" t="str">
         <x:v>EXTENSION-LevelDescription</x:v>
       </x:c>
-      <x:c r="B143" s="2" t="str">
+      <x:c r="B145" s="2" t="str">
         <x:v>maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C143" s="2" t="str">
+      <x:c r="C145" s="2" t="str">
         <x:v>The description of the level of the rubric at which the data is captured.</x:v>
       </x:c>
     </x:row>
-    <x:row r="144">
-      <x:c r="A144" s="2" t="str">
+    <x:row r="146">
+      <x:c r="A146" s="2" t="str">
         <x:v>EXTENSION-LevelOfDegreeAwardedMapType</x:v>
       </x:c>
-      <x:c r="B144" s="2" t="str">
+      <x:c r="B146" s="2" t="str">
         <x:v>Associates
 Bachelors
 Masters
@@ -53971,27 +53997,27 @@
 PhD
 </x:v>
       </x:c>
-      <x:c r="C144" s="2" t="str">
+      <x:c r="C146" s="2" t="str">
         <x:v>Map for the level of degree awarded by the teacher prep program to the person (e.g., Certificate Only, Bachelor's, Master's, etc.).</x:v>
       </x:c>
     </x:row>
-    <x:row r="145">
-      <x:c r="A145" s="2" t="str">
+    <x:row r="147">
+      <x:c r="A147" s="2" t="str">
         <x:v>EXTENSION-LevelTitle</x:v>
       </x:c>
-      <x:c r="B145" s="2" t="str">
+      <x:c r="B147" s="2" t="str">
         <x:v>maxLength: 240
 </x:v>
       </x:c>
-      <x:c r="C145" s="2" t="str">
+      <x:c r="C147" s="2" t="str">
         <x:v>The title of the level of the rubric at which the data is captured.</x:v>
       </x:c>
     </x:row>
-    <x:row r="146">
-      <x:c r="A146" s="2" t="str">
+    <x:row r="148">
+      <x:c r="A148" s="2" t="str">
         <x:v>EXTENSION-LevelTypeMapType</x:v>
       </x:c>
-      <x:c r="B146" s="2" t="str">
+      <x:c r="B148" s="2" t="str">
         <x:v>1
 2
 3
@@ -54000,106 +54026,106 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C146" s="2" t="str">
+      <x:c r="C148" s="2" t="str">
         <x:v>Map for the level types.</x:v>
       </x:c>
     </x:row>
-    <x:row r="147">
-      <x:c r="A147" s="2" t="str">
+    <x:row r="149">
+      <x:c r="A149" s="2" t="str">
         <x:v>EXTENSION-MajorSpecialization</x:v>
       </x:c>
-      <x:c r="B147" s="2" t="str">
+      <x:c r="B149" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C147" s="2" t="str">
+      <x:c r="C149" s="2" t="str">
         <x:v>The major area for a degree or area of specialization for a certificate.</x:v>
       </x:c>
     </x:row>
-    <x:row r="148">
-      <x:c r="A148" s="2" t="str">
+    <x:row r="150">
+      <x:c r="A150" s="2" t="str">
         <x:v>EXTENSION-MatrixElement</x:v>
       </x:c>
-      <x:c r="B148" s="2" t="str">
+      <x:c r="B150" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C148" s="2" t="str">
+      <x:c r="C150" s="2" t="str">
         <x:v>For matrix questions, the text identifying each row of the matrix.</x:v>
       </x:c>
     </x:row>
-    <x:row r="149">
-      <x:c r="A149" s="2" t="str">
+    <x:row r="151">
+      <x:c r="A151" s="2" t="str">
         <x:v>EXTENSION-NMEthnicity</x:v>
       </x:c>
-      <x:c r="B149" s="2" t="str">
+      <x:c r="B151" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 32
 </x:v>
       </x:c>
-      <x:c r="C149" s="2" t="str">
+      <x:c r="C151" s="2" t="str">
         <x:v>The ethnicity for the teacher as provided by the New Mexico EPP.</x:v>
       </x:c>
     </x:row>
-    <x:row r="150">
-      <x:c r="A150" s="2" t="str">
+    <x:row r="152">
+      <x:c r="A152" s="2" t="str">
         <x:v>EXTENSION-Notes</x:v>
       </x:c>
-      <x:c r="B150" s="2" t="str">
+      <x:c r="B152" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C150" s="2" t="str">
+      <x:c r="C152" s="2" t="str">
         <x:v>Additional notes about the prospect.</x:v>
       </x:c>
     </x:row>
-    <x:row r="151">
-      <x:c r="A151" s="2" t="str">
+    <x:row r="153">
+      <x:c r="A153" s="2" t="str">
         <x:v>EXTENSION-NumericChoice</x:v>
       </x:c>
-      <x:c r="B151" s="2" t="str">
+      <x:c r="B153" s="2" t="str">
         <x:v>minInclusive: 0
 maxInclusive: 100
 </x:v>
       </x:c>
-      <x:c r="C151" s="2" t="str">
+      <x:c r="C153" s="2" t="str">
         <x:v>The numeric choice available for the question (i.e. 0-100 or 0-10).</x:v>
       </x:c>
     </x:row>
-    <x:row r="152">
-      <x:c r="A152" s="2" t="str">
+    <x:row r="154">
+      <x:c r="A154" s="2" t="str">
         <x:v>EXTENSION-NumericResponse</x:v>
       </x:c>
-      <x:c r="B152" s="2" t="str">
+      <x:c r="B154" s="2" t="str">
         <x:v>minInclusive: 0
 maxInclusive: 100
 </x:v>
       </x:c>
-      <x:c r="C152" s="2" t="str">
+      <x:c r="C154" s="2" t="str">
         <x:v>The numeric response to the question.</x:v>
       </x:c>
     </x:row>
-    <x:row r="153">
-      <x:c r="A153" s="2" t="str">
+    <x:row r="155">
+      <x:c r="A155" s="2" t="str">
         <x:v>EXTENSION-PerformanceMeasureIdentifier</x:v>
       </x:c>
-      <x:c r="B153" s="2" t="str">
+      <x:c r="B155" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 64
 </x:v>
       </x:c>
-      <x:c r="C153" s="2" t="str">
+      <x:c r="C155" s="2" t="str">
         <x:v>An assigned unique identifier for the performance measure instance.</x:v>
       </x:c>
     </x:row>
-    <x:row r="154">
-      <x:c r="A154" s="2" t="str">
+    <x:row r="156">
+      <x:c r="A156" s="2" t="str">
         <x:v>EXTENSION-PerformanceMeasureTypeMapType</x:v>
       </x:c>
-      <x:c r="B154" s="2" t="str">
+      <x:c r="B156" s="2" t="str">
         <x:v>Formal Observation
 Informal Observation
 Self Reflection
@@ -54109,28 +54135,28 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C154" s="2" t="str">
+      <x:c r="C156" s="2" t="str">
         <x:v>Map for the performance measure types.</x:v>
       </x:c>
     </x:row>
-    <x:row r="155">
-      <x:c r="A155" s="2" t="str">
+    <x:row r="157">
+      <x:c r="A157" s="2" t="str">
         <x:v>EXTENSION-PointsPossible</x:v>
       </x:c>
-      <x:c r="B155" s="2" t="str">
+      <x:c r="B157" s="2" t="str">
         <x:v>totalDigits: 18
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C155" s="2" t="str">
+      <x:c r="C157" s="2" t="str">
         <x:v>The possible points for the indicator.</x:v>
       </x:c>
     </x:row>
-    <x:row r="156">
-      <x:c r="A156" s="2" t="str">
+    <x:row r="158">
+      <x:c r="A158" s="2" t="str">
         <x:v>EXTENSION-PreviousCareerMapType</x:v>
       </x:c>
-      <x:c r="B156" s="2" t="str">
+      <x:c r="B158" s="2" t="str">
         <x:v>Accounting
 Consulting
 Maintenance
@@ -54140,56 +54166,56 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C156" s="2" t="str">
+      <x:c r="C158" s="2" t="str">
         <x:v>Map for the type of previous careers.</x:v>
       </x:c>
     </x:row>
-    <x:row r="157">
-      <x:c r="A157" s="2" t="str">
+    <x:row r="159">
+      <x:c r="A159" s="2" t="str">
         <x:v>EXTENSION-ProfessionalDevelopmentOfferedByMapType</x:v>
       </x:c>
-      <x:c r="B157" s="2" t="str">
+      <x:c r="B159" s="2" t="str">
         <x:v>State
 District
 School
 Teacher Preparation Provider
 </x:v>
       </x:c>
-      <x:c r="C157" s="2" t="str">
+      <x:c r="C159" s="2" t="str">
         <x:v>Map for the type of organizations that the professional development is offered by.</x:v>
       </x:c>
     </x:row>
-    <x:row r="158">
-      <x:c r="A158" s="2" t="str">
+    <x:row r="160">
+      <x:c r="A160" s="2" t="str">
         <x:v>EXTENSION-ProfessionalDevelopmentReason</x:v>
       </x:c>
-      <x:c r="B158" s="2" t="str">
+      <x:c r="B160" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C158" s="2" t="str">
+      <x:c r="C160" s="2" t="str">
         <x:v>The reported reason for a teacher candidate's professional development.</x:v>
       </x:c>
     </x:row>
-    <x:row r="159">
-      <x:c r="A159" s="2" t="str">
+    <x:row r="161">
+      <x:c r="A161" s="2" t="str">
         <x:v>EXTENSION-ProfessionalDevelopmentTitle</x:v>
       </x:c>
-      <x:c r="B159" s="2" t="str">
+      <x:c r="B161" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C159" s="2" t="str">
+      <x:c r="C161" s="2" t="str">
         <x:v>The title or name for a professional development.</x:v>
       </x:c>
     </x:row>
-    <x:row r="160">
-      <x:c r="A160" s="2" t="str">
+    <x:row r="162">
+      <x:c r="A162" s="2" t="str">
         <x:v>EXTENSION-ProgramGatewayMapType</x:v>
       </x:c>
-      <x:c r="B160" s="2" t="str">
+      <x:c r="B162" s="2" t="str">
         <x:v>Gateway 1
 Gateway 2
 Gateway 3
@@ -54197,41 +54223,41 @@
 Gateway 5
 </x:v>
       </x:c>
-      <x:c r="C160" s="2" t="str">
+      <x:c r="C162" s="2" t="str">
         <x:v>Map for the type of program gateway.</x:v>
       </x:c>
     </x:row>
-    <x:row r="161">
-      <x:c r="A161" s="2" t="str">
+    <x:row r="163">
+      <x:c r="A163" s="2" t="str">
         <x:v>EXTENSION-ProspectIdentifier</x:v>
       </x:c>
-      <x:c r="B161" s="2" t="str">
+      <x:c r="B163" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 32
 </x:v>
       </x:c>
-      <x:c r="C161" s="2" t="str">
+      <x:c r="C163" s="2" t="str">
         <x:v>Identifier assigned to a prospect for employment or contract.</x:v>
       </x:c>
     </x:row>
-    <x:row r="162">
-      <x:c r="A162" s="2" t="str">
+    <x:row r="164">
+      <x:c r="A164" s="2" t="str">
         <x:v>EXTENSION-QuestionCode</x:v>
       </x:c>
-      <x:c r="B162" s="2" t="str">
+      <x:c r="B164" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C162" s="2" t="str">
+      <x:c r="C164" s="2" t="str">
         <x:v>The identifying code for the question, unique for the survey.</x:v>
       </x:c>
     </x:row>
-    <x:row r="163">
-      <x:c r="A163" s="2" t="str">
+    <x:row r="165">
+      <x:c r="A165" s="2" t="str">
         <x:v>EXTENSION-QuestionFormType</x:v>
       </x:c>
-      <x:c r="B163" s="2" t="str">
+      <x:c r="B165" s="2" t="str">
         <x:v>Radio box
 Checkbox
 Dropdown
@@ -54242,119 +54268,119 @@
 Matrix of textboxes
 </x:v>
       </x:c>
-      <x:c r="C163" s="2" t="str">
+      <x:c r="C165" s="2" t="str">
         <x:v>The form of question: 1) Radio box: multiple choice, single selection; 2) Checkbox: Multiple choice, multiple selection; 3) Dropdown: multiple choice, single selection; 4) Matrix, numeric rating scale; 5) Matrix of dropdowns; 6) Ranking; 7) Single textbox; 8) Matrix of text boxes.</x:v>
       </x:c>
     </x:row>
-    <x:row r="164">
-      <x:c r="A164" s="2" t="str">
+    <x:row r="166">
+      <x:c r="A166" s="2" t="str">
         <x:v>EXTENSION-QuestionText</x:v>
       </x:c>
-      <x:c r="B164" s="2" t="str">
+      <x:c r="B166" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C164" s="2" t="str">
+      <x:c r="C166" s="2" t="str">
         <x:v>The text of the question.</x:v>
       </x:c>
     </x:row>
-    <x:row r="165">
-      <x:c r="A165" s="2" t="str">
+    <x:row r="167">
+      <x:c r="A167" s="2" t="str">
         <x:v>EXTENSION-ReferredBy</x:v>
       </x:c>
-      <x:c r="B165" s="2" t="str">
+      <x:c r="B167" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C165" s="2" t="str">
+      <x:c r="C167" s="2" t="str">
         <x:v>The person making the referral.</x:v>
       </x:c>
     </x:row>
-    <x:row r="166">
-      <x:c r="A166" s="2" t="str">
+    <x:row r="168">
+      <x:c r="A168" s="2" t="str">
         <x:v>EXTENSION-ResearchExperienceTitle</x:v>
       </x:c>
-      <x:c r="B166" s="2" t="str">
+      <x:c r="B168" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C166" s="2" t="str">
+      <x:c r="C168" s="2" t="str">
         <x:v>The title of the research experience.</x:v>
       </x:c>
     </x:row>
-    <x:row r="167">
-      <x:c r="A167" s="2" t="str">
+    <x:row r="169">
+      <x:c r="A169" s="2" t="str">
         <x:v>EXTENSION-RevocationReason</x:v>
       </x:c>
-      <x:c r="B167" s="2" t="str">
+      <x:c r="B169" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 40
 </x:v>
       </x:c>
-      <x:c r="C167" s="2" t="str">
+      <x:c r="C169" s="2" t="str">
         <x:v>Expanded reason for the revocation of credential.</x:v>
       </x:c>
     </x:row>
-    <x:row r="168">
-      <x:c r="A168" s="2" t="str">
+    <x:row r="170">
+      <x:c r="A170" s="2" t="str">
         <x:v>EXTENSION-RubricDescription</x:v>
       </x:c>
-      <x:c r="B168" s="2" t="str">
+      <x:c r="B170" s="2" t="str">
         <x:v>maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C168" s="2" t="str">
+      <x:c r="C170" s="2" t="str">
         <x:v>The description of the rubric.</x:v>
       </x:c>
     </x:row>
-    <x:row r="169">
-      <x:c r="A169" s="2" t="str">
+    <x:row r="171">
+      <x:c r="A171" s="2" t="str">
         <x:v>EXTENSION-RubricLevelCode</x:v>
       </x:c>
-      <x:c r="B169" s="2" t="str">
+      <x:c r="B171" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C169" s="2" t="str">
+      <x:c r="C171" s="2" t="str">
         <x:v>The identifying code for the question, unique for the rubric.</x:v>
       </x:c>
     </x:row>
-    <x:row r="170">
-      <x:c r="A170" s="2" t="str">
+    <x:row r="172">
+      <x:c r="A172" s="2" t="str">
         <x:v>EXTENSION-RubricTitle</x:v>
       </x:c>
-      <x:c r="B170" s="2" t="str">
+      <x:c r="B172" s="2" t="str">
         <x:v>maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C170" s="2" t="str">
+      <x:c r="C172" s="2" t="str">
         <x:v>The title or name of the rubric.</x:v>
       </x:c>
     </x:row>
-    <x:row r="171">
-      <x:c r="A171" s="2" t="str">
+    <x:row r="173">
+      <x:c r="A173" s="2" t="str">
         <x:v>EXTENSION-RubricTypeMapType</x:v>
       </x:c>
-      <x:c r="B171" s="2" t="str">
+      <x:c r="B173" s="2" t="str">
         <x:v>State
 District
 Teacher Preparation Provider
 Other
 </x:v>
       </x:c>
-      <x:c r="C171" s="2" t="str">
+      <x:c r="C173" s="2" t="str">
         <x:v>Map for the rubric types.</x:v>
       </x:c>
     </x:row>
-    <x:row r="172">
-      <x:c r="A172" s="2" t="str">
+    <x:row r="174">
+      <x:c r="A174" s="2" t="str">
         <x:v>EXTENSION-SalaryTypeMapType</x:v>
       </x:c>
-      <x:c r="B172" s="2" t="str">
+      <x:c r="B174" s="2" t="str">
         <x:v>Hourly
 Part Time
 Full Time
@@ -54362,110 +54388,110 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C172" s="2" t="str">
+      <x:c r="C174" s="2" t="str">
         <x:v>Map for the salary types.</x:v>
       </x:c>
     </x:row>
-    <x:row r="173">
-      <x:c r="A173" s="2" t="str">
+    <x:row r="175">
+      <x:c r="A175" s="2" t="str">
         <x:v>EXTENSION-SchoolStatusMapType</x:v>
       </x:c>
-      <x:c r="B173" s="2" t="str">
+      <x:c r="B175" s="2" t="str">
         <x:v>Priority
 Focus
 Other
 </x:v>
       </x:c>
-      <x:c r="C173" s="2" t="str">
+      <x:c r="C175" s="2" t="str">
         <x:v>Map for the type of the school status.</x:v>
       </x:c>
     </x:row>
-    <x:row r="174">
-      <x:c r="A174" s="2" t="str">
+    <x:row r="176">
+      <x:c r="A176" s="2" t="str">
         <x:v>EXTENSION-ScoreResultAverage</x:v>
       </x:c>
-      <x:c r="B174" s="2" t="str">
+      <x:c r="B176" s="2" t="str">
         <x:v>totalDigits: 18
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C174" s="2" t="str">
+      <x:c r="C176" s="2" t="str">
         <x:v>A meaningful average score or statistical expression of the performance of an group. The results can be expressed as a number, percentile, range, level, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="175">
-      <x:c r="A175" s="2" t="str">
+    <x:row r="177">
+      <x:c r="A177" s="2" t="str">
         <x:v>EXTENSION-SectionRating</x:v>
       </x:c>
-      <x:c r="B175" s="2" t="str">
+      <x:c r="B177" s="2" t="str">
         <x:v>minInclusive: 0
 totalDigits: 9
 fractionDigits: 3
 </x:v>
       </x:c>
-      <x:c r="C175" s="2" t="str">
+      <x:c r="C177" s="2" t="str">
         <x:v>The type for survey section ratings.</x:v>
       </x:c>
     </x:row>
-    <x:row r="176">
-      <x:c r="A176" s="2" t="str">
+    <x:row r="178">
+      <x:c r="A178" s="2" t="str">
         <x:v>EXTENSION-SocialMediaNetworkName</x:v>
       </x:c>
-      <x:c r="B176" s="2" t="str">
+      <x:c r="B178" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C176" s="2" t="str">
+      <x:c r="C178" s="2" t="str">
         <x:v>The social media network name (e.g., LinkedIn, Twitter, etc.) associated with the SocialMediaUserName.</x:v>
       </x:c>
     </x:row>
-    <x:row r="177">
-      <x:c r="A177" s="2" t="str">
+    <x:row r="179">
+      <x:c r="A179" s="2" t="str">
         <x:v>EXTENSION-SocialMediaUserName</x:v>
       </x:c>
-      <x:c r="B177" s="2" t="str">
+      <x:c r="B179" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C177" s="2" t="str">
+      <x:c r="C179" s="2" t="str">
         <x:v>The user name of the person on social media.</x:v>
       </x:c>
     </x:row>
-    <x:row r="178">
-      <x:c r="A178" s="2" t="str">
+    <x:row r="180">
+      <x:c r="A180" s="2" t="str">
         <x:v>EXTENSION-Specialization</x:v>
       </x:c>
-      <x:c r="B178" s="2" t="str">
+      <x:c r="B180" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C178" s="2" t="str">
+      <x:c r="C180" s="2" t="str">
         <x:v>An area of specialization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="179">
-      <x:c r="A179" s="2" t="str">
+    <x:row r="181">
+      <x:c r="A181" s="2" t="str">
         <x:v>EXTENSION-StudentGrowthTypeMapType</x:v>
       </x:c>
-      <x:c r="B179" s="2" t="str">
+      <x:c r="B181" s="2" t="str">
         <x:v>Value Add
 Growth Percentile
 Student Learning Objective (SLO)
 Other
 </x:v>
       </x:c>
-      <x:c r="C179" s="2" t="str">
+      <x:c r="C181" s="2" t="str">
         <x:v>Identification of the type of score that was used to determine student growth</x:v>
       </x:c>
     </x:row>
-    <x:row r="180">
-      <x:c r="A180" s="2" t="str">
+    <x:row r="182">
+      <x:c r="A182" s="2" t="str">
         <x:v>EXTENSION-SurveyCategoryMapType</x:v>
       </x:c>
-      <x:c r="B180" s="2" t="str">
+      <x:c r="B182" s="2" t="str">
         <x:v>Administrator
 Applicant
 Community
@@ -54484,80 +54510,80 @@
 Disposition
 </x:v>
       </x:c>
-      <x:c r="C180" s="2" t="str">
+      <x:c r="C182" s="2" t="str">
         <x:v>Map for the category or type of survey.</x:v>
       </x:c>
     </x:row>
-    <x:row r="181">
-      <x:c r="A181" s="2" t="str">
+    <x:row r="183">
+      <x:c r="A183" s="2" t="str">
         <x:v>EXTENSION-SurveyIdentifier</x:v>
       </x:c>
-      <x:c r="B181" s="2" t="str">
+      <x:c r="B183" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 64
 </x:v>
       </x:c>
-      <x:c r="C181" s="2" t="str">
+      <x:c r="C183" s="2" t="str">
         <x:v>The external unique identifier of the survey.</x:v>
       </x:c>
     </x:row>
-    <x:row r="182">
-      <x:c r="A182" s="2" t="str">
+    <x:row r="184">
+      <x:c r="A184" s="2" t="str">
         <x:v>EXTENSION-SurveyResponseIdentifier</x:v>
       </x:c>
-      <x:c r="B182" s="2" t="str">
+      <x:c r="B184" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 64
 </x:v>
       </x:c>
-      <x:c r="C182" s="2" t="str">
+      <x:c r="C184" s="2" t="str">
         <x:v>The external unique identifier of the survey response.</x:v>
       </x:c>
     </x:row>
-    <x:row r="183">
-      <x:c r="A183" s="2" t="str">
+    <x:row r="185">
+      <x:c r="A185" s="2" t="str">
         <x:v>EXTENSION-SurveySectionTitle</x:v>
       </x:c>
-      <x:c r="B183" s="2" t="str">
+      <x:c r="B185" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C183" s="2" t="str">
+      <x:c r="C185" s="2" t="str">
         <x:v>The title or label for the survey section.</x:v>
       </x:c>
     </x:row>
-    <x:row r="184">
-      <x:c r="A184" s="2" t="str">
+    <x:row r="186">
+      <x:c r="A186" s="2" t="str">
         <x:v>EXTENSION-SurveyTitle</x:v>
       </x:c>
-      <x:c r="B184" s="2" t="str">
+      <x:c r="B186" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C184" s="2" t="str">
+      <x:c r="C186" s="2" t="str">
         <x:v>The title of the survey.</x:v>
       </x:c>
     </x:row>
-    <x:row r="185">
-      <x:c r="A185" s="2" t="str">
+    <x:row r="187">
+      <x:c r="A187" s="2" t="str">
         <x:v>EXTENSION-SuspensionReason</x:v>
       </x:c>
-      <x:c r="B185" s="2" t="str">
+      <x:c r="B187" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 40
 </x:v>
       </x:c>
-      <x:c r="C185" s="2" t="str">
+      <x:c r="C187" s="2" t="str">
         <x:v>Expanded reason for the suspension of credential.</x:v>
       </x:c>
     </x:row>
-    <x:row r="186">
-      <x:c r="A186" s="2" t="str">
+    <x:row r="188">
+      <x:c r="A188" s="2" t="str">
         <x:v>EXTENSION-TeacherCandidateCharacteristicMapType</x:v>
       </x:c>
-      <x:c r="B186" s="2" t="str">
+      <x:c r="B188" s="2" t="str">
         <x:v>Asylee
 Displaced Homemaker
 Foster Care
@@ -54577,94 +54603,94 @@
 First Generation College Student
 </x:v>
       </x:c>
-      <x:c r="C186" s="2" t="str">
+      <x:c r="C188" s="2" t="str">
         <x:v>The characteristic designated for the TeacherCandidate.</x:v>
       </x:c>
     </x:row>
-    <x:row r="187">
-      <x:c r="A187" s="2" t="str">
+    <x:row r="189">
+      <x:c r="A189" s="2" t="str">
         <x:v>EXTENSION-TeacherCandidateIdentifier</x:v>
       </x:c>
-      <x:c r="B187" s="2" t="str">
+      <x:c r="B189" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 32
 </x:v>
       </x:c>
-      <x:c r="C187" s="2" t="str">
+      <x:c r="C189" s="2" t="str">
         <x:v>A unique alphanumeric code assigned to a teacher candidate.</x:v>
       </x:c>
     </x:row>
-    <x:row r="188">
-      <x:c r="A188" s="2" t="str">
+    <x:row r="190">
+      <x:c r="A190" s="2" t="str">
         <x:v>EXTENSION-TeacherPreparationProgramIdentifier</x:v>
       </x:c>
-      <x:c r="B188" s="2" t="str">
+      <x:c r="B190" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C188" s="2" t="str">
+      <x:c r="C190" s="2" t="str">
         <x:v>An ID assigned to the teacher preparation program.</x:v>
       </x:c>
     </x:row>
-    <x:row r="189">
-      <x:c r="A189" s="2" t="str">
+    <x:row r="191">
+      <x:c r="A191" s="2" t="str">
         <x:v>EXTENSION-TeacherPreparationProgramName</x:v>
       </x:c>
-      <x:c r="B189" s="2" t="str">
+      <x:c r="B191" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C189" s="2" t="str">
+      <x:c r="C191" s="2" t="str">
         <x:v>The name of the Teacher Preparation Program.</x:v>
       </x:c>
     </x:row>
-    <x:row r="190">
-      <x:c r="A190" s="2" t="str">
+    <x:row r="192">
+      <x:c r="A192" s="2" t="str">
         <x:v>EXTENSION-TeacherPreparationProgramTypeMapType</x:v>
       </x:c>
-      <x:c r="B190" s="2" t="str">
+      <x:c r="B192" s="2" t="str">
         <x:v>Alternate
 Other
 Traditional
 </x:v>
       </x:c>
-      <x:c r="C190" s="2" t="str">
+      <x:c r="C192" s="2" t="str">
         <x:v>Map for the type of teacher prep program (e.g., college, alternative, TFA, etc.).</x:v>
       </x:c>
     </x:row>
-    <x:row r="191">
-      <x:c r="A191" s="2" t="str">
+    <x:row r="193">
+      <x:c r="A193" s="2" t="str">
         <x:v>EXTENSION-TextChoice</x:v>
       </x:c>
-      <x:c r="B191" s="2" t="str">
+      <x:c r="B193" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C191" s="2" t="str">
+      <x:c r="C193" s="2" t="str">
         <x:v>For radio buttons, checkboxes, dropdowns, matrix of drop downs - the list of choices.</x:v>
       </x:c>
     </x:row>
-    <x:row r="192">
-      <x:c r="A192" s="2" t="str">
+    <x:row r="194">
+      <x:c r="A194" s="2" t="str">
         <x:v>EXTENSION-TextResponse</x:v>
       </x:c>
-      <x:c r="B192" s="2" t="str">
+      <x:c r="B194" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C192" s="2" t="str">
+      <x:c r="C194" s="2" t="str">
         <x:v>The text response(s) for the question.</x:v>
       </x:c>
     </x:row>
-    <x:row r="193">
-      <x:c r="A193" s="2" t="str">
+    <x:row r="195">
+      <x:c r="A195" s="2" t="str">
         <x:v>EXTENSION-ThemeMapType</x:v>
       </x:c>
-      <x:c r="B193" s="2" t="str">
+      <x:c r="B195" s="2" t="str">
         <x:v>Effective Planning
 Classroom Environment
 Classroom Instruction
@@ -54677,28 +54703,28 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C193" s="2" t="str">
+      <x:c r="C195" s="2" t="str">
         <x:v>Map for the theme types.</x:v>
       </x:c>
     </x:row>
-    <x:row r="194">
-      <x:c r="A194" s="2" t="str">
+    <x:row r="196">
+      <x:c r="A196" s="2" t="str">
         <x:v>EXTENSION-TouchpointContent</x:v>
       </x:c>
-      <x:c r="B194" s="2" t="str">
+      <x:c r="B196" s="2" t="str">
         <x:v>minLength: 0
 maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C194" s="2" t="str">
+      <x:c r="C196" s="2" t="str">
         <x:v>The content associated with or an artifact from the touchpoint.</x:v>
       </x:c>
     </x:row>
-    <x:row r="195">
-      <x:c r="A195" s="2" t="str">
+    <x:row r="197">
+      <x:c r="A197" s="2" t="str">
         <x:v>EXTENSION-TPPDegreeTypeMapType</x:v>
       </x:c>
-      <x:c r="B195" s="2" t="str">
+      <x:c r="B197" s="2" t="str">
         <x:v>Master's of Arts
 Master's of Science
 Master's of Education
@@ -54710,15 +54736,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C195" s="2" t="str">
+      <x:c r="C197" s="2" t="str">
         <x:v>Map for the type of degree awarded.</x:v>
       </x:c>
     </x:row>
-    <x:row r="196">
-      <x:c r="A196" s="2" t="str">
+    <x:row r="198">
+      <x:c r="A198" s="2" t="str">
         <x:v>EXTENSION-TPPProgramPathwayMapType</x:v>
       </x:c>
-      <x:c r="B196" s="2" t="str">
+      <x:c r="B198" s="2" t="str">
         <x:v>Residency
 Internship
 Fellowship
@@ -54726,54 +54752,54 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C196" s="2" t="str">
+      <x:c r="C198" s="2" t="str">
         <x:v>Map for the program pathways.</x:v>
       </x:c>
     </x:row>
-    <x:row r="197">
-      <x:c r="A197" s="2" t="str">
+    <x:row r="199">
+      <x:c r="A199" s="2" t="str">
         <x:v>EXTENSION-ValueAdd</x:v>
       </x:c>
-      <x:c r="B197" s="2" t="str">
+      <x:c r="B199" s="2" t="str">
         <x:v>totalDigits: 18
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C197" s="2" t="str">
+      <x:c r="C199" s="2" t="str">
         <x:v>The possible points for the student achievement indicator for the teacher evaluation.</x:v>
       </x:c>
     </x:row>
-    <x:row r="198">
-      <x:c r="A198" s="2" t="str">
+    <x:row r="200">
+      <x:c r="A200" s="2" t="str">
         <x:v>EXTENSION-Whereabouts</x:v>
       </x:c>
-      <x:c r="B198" s="2" t="str">
+      <x:c r="B200" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C198" s="2" t="str">
+      <x:c r="C200" s="2" t="str">
         <x:v>The location, typically City and State, for the institution.</x:v>
       </x:c>
     </x:row>
-    <x:row r="199">
-      <x:c r="A199" s="2" t="str">
+    <x:row r="201">
+      <x:c r="A201" s="2" t="str">
         <x:v>EXTENSION-YearsOfService</x:v>
       </x:c>
-      <x:c r="B199" s="2" t="str">
+      <x:c r="B201" s="2" t="str">
         <x:v>totalDigits: 5
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C199" s="2" t="str">
+      <x:c r="C201" s="2" t="str">
         <x:v>Years of service</x:v>
       </x:c>
     </x:row>
-    <x:row r="200">
-      <x:c r="A200" s="2" t="str">
+    <x:row r="202">
+      <x:c r="A202" s="2" t="str">
         <x:v>FederalLocaleCodeMapType</x:v>
       </x:c>
-      <x:c r="B200" s="2" t="str">
+      <x:c r="B202" s="2" t="str">
         <x:v>City
 Suburb
 Other
@@ -54781,68 +54807,68 @@
 Rural
 </x:v>
       </x:c>
-      <x:c r="C200" s="2" t="str">
+      <x:c r="C202" s="2" t="str">
         <x:v>Map for the type federal local codes.</x:v>
       </x:c>
     </x:row>
-    <x:row r="201">
-      <x:c r="A201" s="2" t="str">
+    <x:row r="203">
+      <x:c r="A203" s="2" t="str">
         <x:v>FirstName</x:v>
       </x:c>
-      <x:c r="B201" s="2" t="str">
+      <x:c r="B203" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C201" s="2" t="str">
+      <x:c r="C203" s="2" t="str">
         <x:v>A name given to an individual at birth, baptism, or during another naming ceremony, or through legal change.</x:v>
       </x:c>
     </x:row>
-    <x:row r="202">
-      <x:c r="A202" s="2" t="str">
+    <x:row r="204">
+      <x:c r="A204" s="2" t="str">
         <x:v>GenerationCodeSuffix</x:v>
       </x:c>
-      <x:c r="B202" s="2" t="str">
+      <x:c r="B204" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 10
 </x:v>
       </x:c>
-      <x:c r="C202" s="2" t="str">
+      <x:c r="C204" s="2" t="str">
         <x:v>An appendage, if any, used to denote an individual's generation in his family (e.g., Jr., Sr., III).</x:v>
       </x:c>
     </x:row>
-    <x:row r="203">
-      <x:c r="A203" s="2" t="str">
+    <x:row r="205">
+      <x:c r="A205" s="2" t="str">
         <x:v>GPA</x:v>
       </x:c>
-      <x:c r="B203" s="2" t="str">
+      <x:c r="B205" s="2" t="str">
         <x:v>minInclusive: 0
 totalDigits: 18
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C203" s="2" t="str">
+      <x:c r="C205" s="2" t="str">
         <x:v>Grade Point Average computed for a grading period or cumulatively.</x:v>
       </x:c>
     </x:row>
-    <x:row r="204">
-      <x:c r="A204" s="2" t="str">
+    <x:row r="206">
+      <x:c r="A206" s="2" t="str">
         <x:v>GradebookEntryTitle</x:v>
       </x:c>
-      <x:c r="B204" s="2" t="str">
+      <x:c r="B206" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C204" s="2" t="str">
+      <x:c r="C206" s="2" t="str">
         <x:v>The name or title of the activity to be recorded in the gradebook entry.</x:v>
       </x:c>
     </x:row>
-    <x:row r="205">
-      <x:c r="A205" s="2" t="str">
+    <x:row r="207">
+      <x:c r="A207" s="2" t="str">
         <x:v>GradebookEntryType</x:v>
       </x:c>
-      <x:c r="B205" s="2" t="str">
+      <x:c r="B207" s="2" t="str">
         <x:v>Activity
 Assignment
 Classroom Assessment
@@ -54853,28 +54879,28 @@
 Unit Test
 </x:v>
       </x:c>
-      <x:c r="C205" s="2" t="str">
+      <x:c r="C207" s="2" t="str">
         <x:v>The type of the gradebook entry; for example, homework, assignment, quiz, unit test, oral presentation, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="206">
-      <x:c r="A206" s="2" t="str">
+    <x:row r="208">
+      <x:c r="A208" s="2" t="str">
         <x:v>GradeEarned</x:v>
       </x:c>
-      <x:c r="B206" s="2" t="str">
+      <x:c r="B208" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C206" s="2" t="str">
+      <x:c r="C208" s="2" t="str">
         <x:v>A final or interim (grading period) indicator of student performance in a class as submitted by the instructor.</x:v>
       </x:c>
     </x:row>
-    <x:row r="207">
-      <x:c r="A207" s="2" t="str">
+    <x:row r="209">
+      <x:c r="A209" s="2" t="str">
         <x:v>GradeLevelMapType</x:v>
       </x:c>
-      <x:c r="B207" s="2" t="str">
+      <x:c r="B209" s="2" t="str">
         <x:v>Adult Education
 Early Education
 Eighth grade
@@ -54901,15 +54927,15 @@
 Professional Certification
 </x:v>
       </x:c>
-      <x:c r="C207" s="2" t="str">
+      <x:c r="C209" s="2" t="str">
         <x:v>The enumeration items for the set of grade levels.</x:v>
       </x:c>
     </x:row>
-    <x:row r="208">
-      <x:c r="A208" s="2" t="str">
+    <x:row r="210">
+      <x:c r="A210" s="2" t="str">
         <x:v>GradeType</x:v>
       </x:c>
-      <x:c r="B208" s="2" t="str">
+      <x:c r="B210" s="2" t="str">
         <x:v>Conduct
 Exam
 Final
@@ -54919,28 +54945,28 @@
 Semester
 </x:v>
       </x:c>
-      <x:c r="C208" s="2" t="str">
+      <x:c r="C210" s="2" t="str">
         <x:v>The type of grade in a report card or transcript (e.g., Final, Exam, Grading Period).</x:v>
       </x:c>
     </x:row>
-    <x:row r="209">
-      <x:c r="A209" s="2" t="str">
+    <x:row r="211">
+      <x:c r="A211" s="2" t="str">
         <x:v>GradeValueQualifier</x:v>
       </x:c>
-      <x:c r="B209" s="2" t="str">
+      <x:c r="B211" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C209" s="2" t="str">
+      <x:c r="C211" s="2" t="str">
         <x:v>The scale of equivalents, if applicable, for grades awarded as indicators of performance in schoolwork. For example, numerical equivalents for letter grades used in determining a student's Grade Point Average (A=4, B=3, C=2, D=1 in a four-point system) or letter equivalents for percentage grades (90-100%=A, 80-90%=B, etc.)</x:v>
       </x:c>
     </x:row>
-    <x:row r="210">
-      <x:c r="A210" s="2" t="str">
+    <x:row r="212">
+      <x:c r="A212" s="2" t="str">
         <x:v>GradingPeriodMapType</x:v>
       </x:c>
-      <x:c r="B210" s="2" t="str">
+      <x:c r="B212" s="2" t="str">
         <x:v>First Six Weeks
 Second Six Weeks
 Third Six Weeks
@@ -54963,15 +54989,15 @@
 End of Year
 </x:v>
       </x:c>
-      <x:c r="C210" s="2" t="str">
+      <x:c r="C212" s="2" t="str">
         <x:v>The name of the period for which grades are reported.</x:v>
       </x:c>
     </x:row>
-    <x:row r="211">
-      <x:c r="A211" s="2" t="str">
+    <x:row r="213">
+      <x:c r="A213" s="2" t="str">
         <x:v>GraduationPlanTypeMapType</x:v>
       </x:c>
-      <x:c r="B211" s="2" t="str">
+      <x:c r="B213" s="2" t="str">
         <x:v>Career and Technical Education
 Distinguished
 Minimum
@@ -54979,109 +55005,109 @@
 Standard
 </x:v>
       </x:c>
-      <x:c r="C211" s="2" t="str">
+      <x:c r="C213" s="2" t="str">
         <x:v>The type of academic plan the student is following for graduation.</x:v>
       </x:c>
     </x:row>
-    <x:row r="212">
-      <x:c r="A212" s="2" t="str">
+    <x:row r="214">
+      <x:c r="A214" s="2" t="str">
         <x:v>GunFreeSchoolsActReportingStatusType</x:v>
       </x:c>
-      <x:c r="B212" s="2" t="str">
+      <x:c r="B214" s="2" t="str">
         <x:v>Yes, with reporting of one or more students for an offense
 Yes, with no reported offenses
 No
 Not applicable
 </x:v>
       </x:c>
-      <x:c r="C212" s="2" t="str">
+      <x:c r="C214" s="2" t="str">
         <x:v>An indication of whether the school or local education agency (LEA) submitted a Gun-Free Schools Act (GFSA) of 1994 report to the state, as defined by Title 18, Section 921.</x:v>
       </x:c>
     </x:row>
-    <x:row r="213">
-      <x:c r="A213" s="2" t="str">
+    <x:row r="215">
+      <x:c r="A215" s="2" t="str">
         <x:v>HonorDescription</x:v>
       </x:c>
-      <x:c r="B213" s="2" t="str">
+      <x:c r="B215" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C213" s="2" t="str">
+      <x:c r="C215" s="2" t="str">
         <x:v>A description of the type of academic distinctions earned by or awarded to the individual.</x:v>
       </x:c>
     </x:row>
-    <x:row r="214">
-      <x:c r="A214" s="2" t="str">
+    <x:row r="216">
+      <x:c r="A216" s="2" t="str">
         <x:v>HoursOnLeave</x:v>
       </x:c>
-      <x:c r="B214" s="2" t="str">
+      <x:c r="B216" s="2" t="str">
         <x:v>totalDigits: 18
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C214" s="2" t="str">
+      <x:c r="C216" s="2" t="str">
         <x:v>The hours the staff was absent, if not the entire working day.</x:v>
       </x:c>
     </x:row>
-    <x:row r="215">
-      <x:c r="A215" s="2" t="str">
+    <x:row r="217">
+      <x:c r="A217" s="2" t="str">
         <x:v>HoursPerWeek</x:v>
       </x:c>
-      <x:c r="B215" s="2" t="str">
+      <x:c r="B217" s="2" t="str">
         <x:v>totalDigits: 5
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C215" s="2" t="str">
+      <x:c r="C217" s="2" t="str">
         <x:v>The number of hours per week used on an activity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="216">
-      <x:c r="A216" s="2" t="str">
+    <x:row r="218">
+      <x:c r="A218" s="2" t="str">
         <x:v>IdentificationCode</x:v>
       </x:c>
-      <x:c r="B216" s="2" t="str">
+      <x:c r="B218" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C216" s="2" t="str">
+      <x:c r="C218" s="2" t="str">
         <x:v>A unique number or alphanumeric code assigned to a space, room, site, building, individual, organization, program, or institution by a school, school system, a state, or other agency or entity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="217">
-      <x:c r="A217" s="2" t="str">
+    <x:row r="219">
+      <x:c r="A219" s="2" t="str">
         <x:v>IdentificationDocumentUseType</x:v>
       </x:c>
-      <x:c r="B217" s="2" t="str">
+      <x:c r="B219" s="2" t="str">
         <x:v>Personal Information Verification
 US Citizenship Identification
 Foreign Citizenship Identification
 </x:v>
       </x:c>
-      <x:c r="C217" s="2" t="str">
+      <x:c r="C219" s="2" t="str">
         <x:v>Identifies the type of use given to an identification document.</x:v>
       </x:c>
     </x:row>
-    <x:row r="218">
-      <x:c r="A218" s="2" t="str">
+    <x:row r="220">
+      <x:c r="A220" s="2" t="str">
         <x:v>IncidentIdentifier</x:v>
       </x:c>
-      <x:c r="B218" s="2" t="str">
+      <x:c r="B220" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C218" s="2" t="str">
+      <x:c r="C220" s="2" t="str">
         <x:v>A locally assigned unique identifier (within the school or school district) to identify each specific incident or occurrence. The same identifier should be used to document the entire incident even if it included multiple offenses and multiple offenders.</x:v>
       </x:c>
     </x:row>
-    <x:row r="219">
-      <x:c r="A219" s="2" t="str">
+    <x:row r="221">
+      <x:c r="A221" s="2" t="str">
         <x:v>IncidentLocationType</x:v>
       </x:c>
-      <x:c r="B219" s="2" t="str">
+      <x:c r="B221" s="2" t="str">
         <x:v>On campus
 Administrative offices area
 Cafeteria area
@@ -55109,41 +55135,41 @@
 Unknown
 </x:v>
       </x:c>
-      <x:c r="C219" s="2" t="str">
+      <x:c r="C221" s="2" t="str">
         <x:v>Identifies where the incident occurred and whether or not it occurred on school property.</x:v>
       </x:c>
     </x:row>
-    <x:row r="220">
-      <x:c r="A220" s="2" t="str">
+    <x:row r="222">
+      <x:c r="A222" s="2" t="str">
         <x:v>Indicator</x:v>
       </x:c>
-      <x:c r="B220" s="2" t="str">
+      <x:c r="B222" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 35
 </x:v>
       </x:c>
-      <x:c r="C220" s="2" t="str">
+      <x:c r="C222" s="2" t="str">
         <x:v>Indicator or metric computed for the student (e.g., at risk) to influence more effective education or direct specific interventions.</x:v>
       </x:c>
     </x:row>
-    <x:row r="221">
-      <x:c r="A221" s="2" t="str">
+    <x:row r="223">
+      <x:c r="A223" s="2" t="str">
         <x:v>IndicatorName</x:v>
       </x:c>
-      <x:c r="B221" s="2" t="str">
+      <x:c r="B223" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C221" s="2" t="str">
+      <x:c r="C223" s="2" t="str">
         <x:v>The name of the Indicator, indicator group, or metric computed for the student (e.g., at risk) to influence more effective education or direct specific interventions.</x:v>
       </x:c>
     </x:row>
-    <x:row r="222">
-      <x:c r="A222" s="2" t="str">
+    <x:row r="224">
+      <x:c r="A224" s="2" t="str">
         <x:v>InstitutionTelephoneNumberType</x:v>
       </x:c>
-      <x:c r="B222" s="2" t="str">
+      <x:c r="B224" s="2" t="str">
         <x:v>Main
 Administrative
 Health Clinic
@@ -55153,15 +55179,15 @@
 Food Service
 </x:v>
       </x:c>
-      <x:c r="C222" s="2" t="str">
+      <x:c r="C224" s="2" t="str">
         <x:v>The type of communication number listed for an organization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="223">
-      <x:c r="A223" s="2" t="str">
+    <x:row r="225">
+      <x:c r="A225" s="2" t="str">
         <x:v>IntegratedTechnologyStatusType</x:v>
       </x:c>
-      <x:c r="B223" s="2" t="str">
+      <x:c r="B225" s="2" t="str">
         <x:v>Developing
 Approaching
 Meets
@@ -55169,59 +55195,59 @@
 Not required to report
 </x:v>
       </x:c>
-      <x:c r="C223" s="2" t="str">
+      <x:c r="C225" s="2" t="str">
         <x:v>An indication of the extent to which the district has effectively and fully integrated technology, as defined by the state.</x:v>
       </x:c>
     </x:row>
-    <x:row r="224">
-      <x:c r="A224" s="2" t="str">
+    <x:row r="226">
+      <x:c r="A226" s="2" t="str">
         <x:v>InteractivityStyleType</x:v>
       </x:c>
-      <x:c r="B224" s="2" t="str">
+      <x:c r="B226" s="2" t="str">
         <x:v>Active
 Expositive
 Mixed
 Other
 </x:v>
       </x:c>
-      <x:c r="C224" s="2" t="str">
+      <x:c r="C226" s="2" t="str">
         <x:v>The predominate mode of learning supported by the learning resource. Acceptable values are active, expositive, or mixed.</x:v>
       </x:c>
     </x:row>
-    <x:row r="225">
-      <x:c r="A225" s="2" t="str">
+    <x:row r="227">
+      <x:c r="A227" s="2" t="str">
         <x:v>InternetAccessType</x:v>
       </x:c>
-      <x:c r="B225" s="2" t="str">
+      <x:c r="B227" s="2" t="str">
         <x:v>High Speed
 Less Than High Speed
 None
 </x:v>
       </x:c>
-      <x:c r="C225" s="2" t="str">
+      <x:c r="C227" s="2" t="str">
         <x:v>The type of Internet access available.</x:v>
       </x:c>
     </x:row>
-    <x:row r="226">
-      <x:c r="A226" s="2" t="str">
+    <x:row r="228">
+      <x:c r="A228" s="2" t="str">
         <x:v>InterventionClassType</x:v>
       </x:c>
-      <x:c r="B226" s="2" t="str">
+      <x:c r="B228" s="2" t="str">
         <x:v>Curriculum
 Other
 Practice
 Supplement
 </x:v>
       </x:c>
-      <x:c r="C226" s="2" t="str">
+      <x:c r="C228" s="2" t="str">
         <x:v>The way in which an intervention is used: curriculum, supplement, or practice.</x:v>
       </x:c>
     </x:row>
-    <x:row r="227">
-      <x:c r="A227" s="2" t="str">
+    <x:row r="229">
+      <x:c r="A229" s="2" t="str">
         <x:v>InterventionEffectivenessRatingType</x:v>
       </x:c>
-      <x:c r="B227" s="2" t="str">
+      <x:c r="B229" s="2" t="str">
         <x:v>Positive Effects
 Potentially Positive Effects
 Mixed Effects
@@ -55231,42 +55257,42 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C227" s="2" t="str">
+      <x:c r="C229" s="2" t="str">
         <x:v>An intervention demonstrates effectiveness if the research has shown that the program caused an improvement in outcomes. Rating Values: positive effects, potentially positive effects, mixed effects, potentially negative effects, negative effects, and no discernible effects.</x:v>
       </x:c>
     </x:row>
-    <x:row r="228">
-      <x:c r="A228" s="2" t="str">
+    <x:row r="230">
+      <x:c r="A230" s="2" t="str">
         <x:v>IssuerName</x:v>
       </x:c>
-      <x:c r="B228" s="2" t="str">
+      <x:c r="B230" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 150
 </x:v>
       </x:c>
-      <x:c r="C228" s="2" t="str">
+      <x:c r="C230" s="2" t="str">
         <x:v>The name of the agent issuing the award.</x:v>
       </x:c>
     </x:row>
-    <x:row r="229">
-      <x:c r="A229" s="2" t="str">
+    <x:row r="231">
+      <x:c r="A231" s="2" t="str">
         <x:v>LanguageMapType</x:v>
       </x:c>
-      <x:c r="B229" s="2" t="str">
+      <x:c r="B231" s="2" t="str">
         <x:v>Spanish
 English
 Other
 </x:v>
       </x:c>
-      <x:c r="C229" s="2" t="str">
+      <x:c r="C231" s="2" t="str">
         <x:v>The category denoting language(s) spoken or written.</x:v>
       </x:c>
     </x:row>
-    <x:row r="230">
-      <x:c r="A230" s="2" t="str">
+    <x:row r="232">
+      <x:c r="A232" s="2" t="str">
         <x:v>LanguageUseType</x:v>
       </x:c>
-      <x:c r="B230" s="2" t="str">
+      <x:c r="B232" s="2" t="str">
         <x:v>Home language
 Spoken language
 Written language
@@ -55277,67 +55303,67 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C230" s="2" t="str">
+      <x:c r="C232" s="2" t="str">
         <x:v>The category denoting how a language is used.</x:v>
       </x:c>
     </x:row>
-    <x:row r="231">
-      <x:c r="A231" s="2" t="str">
+    <x:row r="233">
+      <x:c r="A233" s="2" t="str">
         <x:v>LastSurname</x:v>
       </x:c>
-      <x:c r="B231" s="2" t="str">
+      <x:c r="B233" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C231" s="2" t="str">
+      <x:c r="C233" s="2" t="str">
         <x:v>The name borne in common by members of a family.</x:v>
       </x:c>
     </x:row>
-    <x:row r="232">
-      <x:c r="A232" s="2" t="str">
+    <x:row r="234">
+      <x:c r="A234" s="2" t="str">
         <x:v>Learning</x:v>
       </x:c>
-      <x:c r="B232" s="2" t="str">
+      <x:c r="B234" s="2" t="str">
         <x:v>totalDigits: 5
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C232" s="2" t="str">
+      <x:c r="C234" s="2" t="str">
         <x:v>Student's learning method preference (ex. auditory, visual, and "kinesthetic or tactile") expressed as a normalized percentage.</x:v>
       </x:c>
     </x:row>
-    <x:row r="233">
-      <x:c r="A233" s="2" t="str">
+    <x:row r="235">
+      <x:c r="A235" s="2" t="str">
         <x:v>LearningResourceMetadataURI</x:v>
       </x:c>
-      <x:c r="B233" s="2" t="str">
+      <x:c r="B235" s="2" t="str">
         <x:v>minLength: 5
 maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C233" s="2" t="str">
+      <x:c r="C235" s="2" t="str">
         <x:v>The public web site address (URL), file, or ftp locator.</x:v>
       </x:c>
     </x:row>
-    <x:row r="234">
-      <x:c r="A234" s="2" t="str">
+    <x:row r="236">
+      <x:c r="A236" s="2" t="str">
         <x:v>LearningStandardId</x:v>
       </x:c>
-      <x:c r="B234" s="2" t="str">
+      <x:c r="B236" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C234" s="2" t="str">
+      <x:c r="C236" s="2" t="str">
         <x:v>A unique number or alphanumeric code assigned to a Learning Standard.</x:v>
       </x:c>
     </x:row>
-    <x:row r="235">
-      <x:c r="A235" s="2" t="str">
+    <x:row r="237">
+      <x:c r="A237" s="2" t="str">
         <x:v>LeaveEventCategoryType</x:v>
       </x:c>
-      <x:c r="B235" s="2" t="str">
+      <x:c r="B237" s="2" t="str">
         <x:v>Vacation
 Jury duty
 Professional development
@@ -55358,28 +55384,28 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C235" s="2" t="str">
+      <x:c r="C237" s="2" t="str">
         <x:v>A code describing the type of the leave event.</x:v>
       </x:c>
     </x:row>
-    <x:row r="236">
-      <x:c r="A236" s="2" t="str">
+    <x:row r="238">
+      <x:c r="A238" s="2" t="str">
         <x:v>LeaveEventReason</x:v>
       </x:c>
-      <x:c r="B236" s="2" t="str">
+      <x:c r="B238" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 40
 </x:v>
       </x:c>
-      <x:c r="C236" s="2" t="str">
+      <x:c r="C238" s="2" t="str">
         <x:v>Expanded reason for the staff leave.</x:v>
       </x:c>
     </x:row>
-    <x:row r="237">
-      <x:c r="A237" s="2" t="str">
+    <x:row r="239">
+      <x:c r="A239" s="2" t="str">
         <x:v>LevelOfEducationMapType</x:v>
       </x:c>
-      <x:c r="B237" s="2" t="str">
+      <x:c r="B239" s="2" t="str">
         <x:v>Did Not Graduate High School
 High School Diploma
 Some College No Degree
@@ -55389,70 +55415,70 @@
 Associate's Degree (two years or more)
 </x:v>
       </x:c>
-      <x:c r="C237" s="2" t="str">
+      <x:c r="C239" s="2" t="str">
         <x:v>The enumeration of the different levels of education achievable.</x:v>
       </x:c>
     </x:row>
-    <x:row r="238">
-      <x:c r="A238" s="2" t="str">
+    <x:row r="240">
+      <x:c r="A240" s="2" t="str">
         <x:v>LimitedEnglishProficiencyMapType</x:v>
       </x:c>
-      <x:c r="B238" s="2" t="str">
+      <x:c r="B240" s="2" t="str">
         <x:v>NotLimited
 Limited
 Limited Monitored 1
 Limited Monitored 2
 </x:v>
       </x:c>
-      <x:c r="C238" s="2" t="str">
+      <x:c r="C240" s="2" t="str">
         <x:v>An indication that the student has been identified as Limited English Proficient or English Proficient by the Language Proficiency Assessment Committee (LPAC).</x:v>
       </x:c>
     </x:row>
-    <x:row r="239">
-      <x:c r="A239" s="2" t="str">
+    <x:row r="241">
+      <x:c r="A241" s="2" t="str">
         <x:v>LocalCourseCode</x:v>
       </x:c>
-      <x:c r="B239" s="2" t="str">
+      <x:c r="B241" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C239" s="2" t="str">
+      <x:c r="C241" s="2" t="str">
         <x:v>The local code assigned by the LEA that identifies the organization of subject matter and related learning experiences provided for the instruction of students.</x:v>
       </x:c>
     </x:row>
-    <x:row r="240">
-      <x:c r="A240" s="2" t="str">
+    <x:row r="242">
+      <x:c r="A242" s="2" t="str">
         <x:v>LocalEducationAgencyCategoryType</x:v>
       </x:c>
-      <x:c r="B240" s="2" t="str">
+      <x:c r="B242" s="2" t="str">
         <x:v>Independent
 Charter
 </x:v>
       </x:c>
-      <x:c r="C240" s="2" t="str">
+      <x:c r="C242" s="2" t="str">
         <x:v>The category of local education agency/district. For example: Independent or Charter.</x:v>
       </x:c>
     </x:row>
-    <x:row r="241">
-      <x:c r="A241" s="2" t="str">
+    <x:row r="243">
+      <x:c r="A243" s="2" t="str">
         <x:v>MagnetSpecialProgramEmphasisSchoolType</x:v>
       </x:c>
-      <x:c r="B241" s="2" t="str">
+      <x:c r="B243" s="2" t="str">
         <x:v>All students participate
 No students participate
 Some, but not all, students participate
 </x:v>
       </x:c>
-      <x:c r="C241" s="2" t="str">
+      <x:c r="C243" s="2" t="str">
         <x:v>A school that has been designed to attract students of different racial/ethnic backgrounds for the purpose of reducing, preventing or eliminating racial isolation; and/or to provide an academic or social focus on a particular theme (e.g., science/math, performing arts, gifted/talented, or foreign language).</x:v>
       </x:c>
     </x:row>
-    <x:row r="242">
-      <x:c r="A242" s="2" t="str">
+    <x:row r="244">
+      <x:c r="A244" s="2" t="str">
         <x:v>MediumOfInstructionType</x:v>
       </x:c>
-      <x:c r="B242" s="2" t="str">
+      <x:c r="B244" s="2" t="str">
         <x:v>Center-based instruction
 Correspondence instruction
 Distance Learning (other than online)
@@ -55468,15 +55494,15 @@
 Virtual/On-line Distance learning
 </x:v>
       </x:c>
-      <x:c r="C242" s="2" t="str">
+      <x:c r="C244" s="2" t="str">
         <x:v>The media through which teachers provide instruction to students and students and teachers communicate about instructional matters.</x:v>
       </x:c>
     </x:row>
-    <x:row r="243">
-      <x:c r="A243" s="2" t="str">
+    <x:row r="245">
+      <x:c r="A245" s="2" t="str">
         <x:v>MeetingDayType</x:v>
       </x:c>
-      <x:c r="B243" s="2" t="str">
+      <x:c r="B245" s="2" t="str">
         <x:v>Monday
 Tuesday
 Wednesday
@@ -55486,15 +55512,15 @@
 Sunday
 </x:v>
       </x:c>
-      <x:c r="C243" s="2" t="str">
+      <x:c r="C245" s="2" t="str">
         <x:v>The enumeration items for the day(s) of the week (e.g., Monday, Wednesday) that the class meets or an indication that a class meets "out-of-school" or "self-paced".</x:v>
       </x:c>
     </x:row>
-    <x:row r="244">
-      <x:c r="A244" s="2" t="str">
+    <x:row r="246">
+      <x:c r="A246" s="2" t="str">
         <x:v>MethodCreditEarnedType</x:v>
       </x:c>
-      <x:c r="B244" s="2" t="str">
+      <x:c r="B246" s="2" t="str">
         <x:v>Classroom credit
 Converted occupational experience credit
 Correspondence credit
@@ -55505,39 +55531,13 @@
 Transfer credit
 </x:v>
       </x:c>
-      <x:c r="C244" s="2" t="str">
+      <x:c r="C246" s="2" t="str">
         <x:v>The method the credits were earned, for example:  Classroom, Examination, Transfer.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="245">
-      <x:c r="A245" s="2" t="str">
-        <x:v>MiddleName</x:v>
-      </x:c>
-      <x:c r="B245" s="2" t="str">
-        <x:v>minLength: 1
-maxLength: 75
-</x:v>
-      </x:c>
-      <x:c r="C245" s="2" t="str">
-        <x:v>A secondary name given to an individual at birth, baptism, or during another naming ceremony.</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="246">
-      <x:c r="A246" s="2" t="str">
-        <x:v>NameOfCounty</x:v>
-      </x:c>
-      <x:c r="B246" s="2" t="str">
-        <x:v>minLength: 1
-maxLength: 30
-</x:v>
-      </x:c>
-      <x:c r="C246" s="2" t="str">
-        <x:v>The name of the county, parish, borough, or comparable unit (within a state) in which an address is located.</x:v>
       </x:c>
     </x:row>
     <x:row r="247">
       <x:c r="A247" s="2" t="str">
-        <x:v>NameOfInstitution</x:v>
+        <x:v>MiddleName</x:v>
       </x:c>
       <x:c r="B247" s="2" t="str">
         <x:v>minLength: 1
@@ -55545,145 +55545,171 @@
 </x:v>
       </x:c>
       <x:c r="C247" s="2" t="str">
-        <x:v>The full, legally accepted name of the institution.</x:v>
+        <x:v>A secondary name given to an individual at birth, baptism, or during another naming ceremony.</x:v>
       </x:c>
     </x:row>
     <x:row r="248">
       <x:c r="A248" s="2" t="str">
+        <x:v>NameOfCounty</x:v>
+      </x:c>
+      <x:c r="B248" s="2" t="str">
+        <x:v>minLength: 1
+maxLength: 30
+</x:v>
+      </x:c>
+      <x:c r="C248" s="2" t="str">
+        <x:v>The name of the county, parish, borough, or comparable unit (within a state) in which an address is located.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="249">
+      <x:c r="A249" s="2" t="str">
+        <x:v>NameOfInstitution</x:v>
+      </x:c>
+      <x:c r="B249" s="2" t="str">
+        <x:v>minLength: 1
+maxLength: 75
+</x:v>
+      </x:c>
+      <x:c r="C249" s="2" t="str">
+        <x:v>The full, legally accepted name of the institution.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="250">
+      <x:c r="A250" s="2" t="str">
         <x:v>NetworkPurposeType</x:v>
       </x:c>
-      <x:c r="B248" s="2" t="str">
+      <x:c r="B250" s="2" t="str">
         <x:v>Shared Services
 Collective Procurement
 </x:v>
       </x:c>
-      <x:c r="C248" s="2" t="str">
+      <x:c r="C250" s="2" t="str">
         <x:v>The purpose(s) of the network, e.g. shared services, collective procurement, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="249">
-      <x:c r="A249" s="2" t="str">
+    <x:row r="251">
+      <x:c r="A251" s="2" t="str">
         <x:v>Nomenclature</x:v>
       </x:c>
-      <x:c r="B249" s="2" t="str">
+      <x:c r="B251" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 35
 </x:v>
       </x:c>
-      <x:c r="C249" s="2" t="str">
+      <x:c r="C251" s="2" t="str">
         <x:v>Reflects the common nomenclature for an element.</x:v>
       </x:c>
     </x:row>
-    <x:row r="250">
-      <x:c r="A250" s="2" t="str">
+    <x:row r="252">
+      <x:c r="A252" s="2" t="str">
         <x:v>NumberOfDaysAbsent</x:v>
       </x:c>
-      <x:c r="B250" s="2" t="str">
+      <x:c r="B252" s="2" t="str">
         <x:v>minInclusive: 0
 totalDigits: 18
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C250" s="2" t="str">
+      <x:c r="C252" s="2" t="str">
         <x:v>The number of days an individual is absent when school is in session during a given reporting period.</x:v>
       </x:c>
     </x:row>
-    <x:row r="251">
-      <x:c r="A251" s="2" t="str">
+    <x:row r="253">
+      <x:c r="A253" s="2" t="str">
         <x:v>NumberOfDaysInAttendance</x:v>
       </x:c>
-      <x:c r="B251" s="2" t="str">
+      <x:c r="B253" s="2" t="str">
         <x:v>minInclusive: 0
 totalDigits: 18
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C251" s="2" t="str">
+      <x:c r="C253" s="2" t="str">
         <x:v>The number of days an individual is present when school is in session during a given reporting period.</x:v>
       </x:c>
     </x:row>
-    <x:row r="252">
-      <x:c r="A252" s="2" t="str">
+    <x:row r="254">
+      <x:c r="A254" s="2" t="str">
         <x:v>NumberOfDaysTardy</x:v>
       </x:c>
-      <x:c r="B252" s="2" t="str">
+      <x:c r="B254" s="2" t="str">
         <x:v>minInclusive: 0
 </x:v>
       </x:c>
-      <x:c r="C252" s="2" t="str">
+      <x:c r="C254" s="2" t="str">
         <x:v>The number of days an individual is tardy during a given reporting period.</x:v>
       </x:c>
     </x:row>
-    <x:row r="253">
-      <x:c r="A253" s="2" t="str">
+    <x:row r="255">
+      <x:c r="A255" s="2" t="str">
         <x:v>NumberOfParts</x:v>
       </x:c>
-      <x:c r="B253" s="2" t="str">
+      <x:c r="B255" s="2" t="str">
         <x:v>minInclusive: 1
 maxInclusive: 8
 </x:v>
       </x:c>
-      <x:c r="C253" s="2" t="str">
+      <x:c r="C255" s="2" t="str">
         <x:v>The number of parts identified for a course.</x:v>
       </x:c>
     </x:row>
-    <x:row r="254">
-      <x:c r="A254" s="2" t="str">
+    <x:row r="256">
+      <x:c r="A256" s="2" t="str">
         <x:v>NumberOfYears</x:v>
       </x:c>
-      <x:c r="B254" s="2" t="str">
+      <x:c r="B256" s="2" t="str">
         <x:v>totalDigits: 5
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C254" s="2" t="str">
+      <x:c r="C256" s="2" t="str">
         <x:v>The number of years expressed as whole and fractional units.</x:v>
       </x:c>
     </x:row>
-    <x:row r="255">
-      <x:c r="A255" s="2" t="str">
+    <x:row r="257">
+      <x:c r="A257" s="2" t="str">
         <x:v>NumericGrade</x:v>
       </x:c>
-      <x:c r="B255" s="2" t="str">
+      <x:c r="B257" s="2" t="str">
         <x:v>totalDigits: 9
 fractionDigits: 2
 </x:v>
       </x:c>
-      <x:c r="C255" s="2" t="str">
+      <x:c r="C257" s="2" t="str">
         <x:v>The numeric grade expressed as whole and fractional units.</x:v>
       </x:c>
     </x:row>
-    <x:row r="256">
-      <x:c r="A256" s="2" t="str">
+    <x:row r="258">
+      <x:c r="A258" s="2" t="str">
         <x:v>Objective</x:v>
       </x:c>
-      <x:c r="B256" s="2" t="str">
+      <x:c r="B258" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C256" s="2" t="str">
+      <x:c r="C258" s="2" t="str">
         <x:v>The designated title of the learning objective.</x:v>
       </x:c>
     </x:row>
-    <x:row r="257">
-      <x:c r="A257" s="2" t="str">
+    <x:row r="259">
+      <x:c r="A259" s="2" t="str">
         <x:v>ObservationEndYear</x:v>
       </x:c>
-      <x:c r="B257" s="2" t="str">
+      <x:c r="B259" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 16
 </x:v>
       </x:c>
-      <x:c r="C257" s="2" t="str">
+      <x:c r="C259" s="2" t="str">
         <x:v>The year the last teacher observation was conducted for the staff.</x:v>
       </x:c>
     </x:row>
-    <x:row r="258">
-      <x:c r="A258" s="2" t="str">
+    <x:row r="260">
+      <x:c r="A260" s="2" t="str">
         <x:v>OldEthnicityType</x:v>
       </x:c>
-      <x:c r="B258" s="2" t="str">
+      <x:c r="B260" s="2" t="str">
         <x:v>American Indian Or Alaskan Native
 Asian Or Pacific Islander
 Black, Not Of Hispanic Origin
@@ -55691,15 +55717,15 @@
 White, Not Of Hispanic Origin
 </x:v>
       </x:c>
-      <x:c r="C258" s="2" t="str">
+      <x:c r="C260" s="2" t="str">
         <x:v>Previous definition of Ethnicity combining Hispanic/Latino and Race.</x:v>
       </x:c>
     </x:row>
-    <x:row r="259">
-      <x:c r="A259" s="2" t="str">
+    <x:row r="261">
+      <x:c r="A261" s="2" t="str">
         <x:v>OperationalStatusType</x:v>
       </x:c>
-      <x:c r="B259" s="2" t="str">
+      <x:c r="B261" s="2" t="str">
         <x:v>Active
 Added
 Changed Agency
@@ -55711,58 +55737,58 @@
 Reopened
 </x:v>
       </x:c>
-      <x:c r="C259" s="2" t="str">
+      <x:c r="C261" s="2" t="str">
         <x:v>The current operational status of the education organization (e.g., active, inactive).</x:v>
       </x:c>
     </x:row>
-    <x:row r="260">
-      <x:c r="A260" s="2" t="str">
+    <x:row r="262">
+      <x:c r="A262" s="2" t="str">
         <x:v>OtherMinor</x:v>
       </x:c>
-      <x:c r="B260" s="2" t="str">
+      <x:c r="B262" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C260" s="2" t="str">
+      <x:c r="C262" s="2" t="str">
         <x:v>An additional minor identified in the teacher candidates educational programming.</x:v>
       </x:c>
     </x:row>
-    <x:row r="261">
-      <x:c r="A261" s="2" t="str">
+    <x:row r="263">
+      <x:c r="A263" s="2" t="str">
         <x:v>OtherNameType</x:v>
       </x:c>
-      <x:c r="B261" s="2" t="str">
+      <x:c r="B263" s="2" t="str">
         <x:v>Alias
 Nickname
 Other Name
 Previous Legal Name
 </x:v>
       </x:c>
-      <x:c r="C261" s="2" t="str">
+      <x:c r="C263" s="2" t="str">
         <x:v>The types of alternate names for a person.</x:v>
       </x:c>
     </x:row>
-    <x:row r="262">
-      <x:c r="A262" s="2" t="str">
+    <x:row r="264">
+      <x:c r="A264" s="2" t="str">
         <x:v>Percent</x:v>
       </x:c>
-      <x:c r="B262" s="2" t="str">
+      <x:c r="B264" s="2" t="str">
         <x:v>minInclusive: 0
 maxInclusive: 1
 totalDigits: 5
 fractionDigits: 4
 </x:v>
       </x:c>
-      <x:c r="C262" s="2" t="str">
+      <x:c r="C264" s="2" t="str">
         <x:v>A proportion in relation to the whole (as measured in parts per one hundred).</x:v>
       </x:c>
     </x:row>
-    <x:row r="263">
-      <x:c r="A263" s="2" t="str">
+    <x:row r="265">
+      <x:c r="A265" s="2" t="str">
         <x:v>PerformanceBaseConversionType</x:v>
       </x:c>
-      <x:c r="B263" s="2" t="str">
+      <x:c r="B265" s="2" t="str">
         <x:v>Advanced
 Proficient
 Basic
@@ -55772,15 +55798,15 @@
 Fail
 </x:v>
       </x:c>
-      <x:c r="C263" s="2" t="str">
+      <x:c r="C265" s="2" t="str">
         <x:v>Defines standard levels of competency or performance that can be used for dashboard visualizations: advanced, proficient, basic, and below basic.</x:v>
       </x:c>
     </x:row>
-    <x:row r="264">
-      <x:c r="A264" s="2" t="str">
+    <x:row r="266">
+      <x:c r="A266" s="2" t="str">
         <x:v>PersonalInformationVerificationType</x:v>
       </x:c>
-      <x:c r="B264" s="2" t="str">
+      <x:c r="B266" s="2" t="str">
         <x:v>Baptismal or church certificate
 Birth certificate
 Drivers license
@@ -55798,28 +55824,28 @@
 State-issued ID
 </x:v>
       </x:c>
-      <x:c r="C264" s="2" t="str">
+      <x:c r="C266" s="2" t="str">
         <x:v>The evidence presented to verify one's personal identity; for example: driver's license, passport, birth certificate, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="265">
-      <x:c r="A265" s="2" t="str">
+    <x:row r="267">
+      <x:c r="A267" s="2" t="str">
         <x:v>PersonalTitlePrefix</x:v>
       </x:c>
-      <x:c r="B265" s="2" t="str">
+      <x:c r="B267" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 30
 </x:v>
       </x:c>
-      <x:c r="C265" s="2" t="str">
+      <x:c r="C267" s="2" t="str">
         <x:v>A prefix used to denote the title, degree, position, or seniority of the person.</x:v>
       </x:c>
     </x:row>
-    <x:row r="266">
-      <x:c r="A266" s="2" t="str">
+    <x:row r="268">
+      <x:c r="A268" s="2" t="str">
         <x:v>PopulationServedType</x:v>
       </x:c>
-      <x:c r="B266" s="2" t="str">
+      <x:c r="B268" s="2" t="str">
         <x:v>Regular Students
 Bilingual Students
 Compensatory/Remedial Education Students
@@ -55833,54 +55859,54 @@
 Economic Disadvantaged
 </x:v>
       </x:c>
-      <x:c r="C266" s="2" t="str">
+      <x:c r="C268" s="2" t="str">
         <x:v>The type of students the Section is offered and tailored to.</x:v>
       </x:c>
     </x:row>
-    <x:row r="267">
-      <x:c r="A267" s="2" t="str">
+    <x:row r="269">
+      <x:c r="A269" s="2" t="str">
         <x:v>PositionTitle</x:v>
       </x:c>
-      <x:c r="B267" s="2" t="str">
+      <x:c r="B269" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 100
 </x:v>
       </x:c>
-      <x:c r="C267" s="2" t="str">
+      <x:c r="C269" s="2" t="str">
         <x:v>The descriptive name of an individual's position.</x:v>
       </x:c>
     </x:row>
-    <x:row r="268">
-      <x:c r="A268" s="2" t="str">
+    <x:row r="270">
+      <x:c r="A270" s="2" t="str">
         <x:v>PostalCode</x:v>
       </x:c>
-      <x:c r="B268" s="2" t="str">
+      <x:c r="B270" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 17
 </x:v>
       </x:c>
-      <x:c r="C268" s="2" t="str">
+      <x:c r="C270" s="2" t="str">
         <x:v>The five or nine digit zip code or overseas postal code portion of an address.</x:v>
       </x:c>
     </x:row>
-    <x:row r="269">
-      <x:c r="A269" s="2" t="str">
+    <x:row r="271">
+      <x:c r="A271" s="2" t="str">
         <x:v>PostingResultType</x:v>
       </x:c>
-      <x:c r="B269" s="2" t="str">
+      <x:c r="B271" s="2" t="str">
         <x:v>Position Filled
 Posting Cancelled
 </x:v>
       </x:c>
-      <x:c r="C269" s="2" t="str">
+      <x:c r="C271" s="2" t="str">
         <x:v>Indication of whether the position was filled or retired without filling.</x:v>
       </x:c>
     </x:row>
-    <x:row r="270">
-      <x:c r="A270" s="2" t="str">
+    <x:row r="272">
+      <x:c r="A272" s="2" t="str">
         <x:v>PostSecondaryEventCategoryType</x:v>
       </x:c>
-      <x:c r="B270" s="2" t="str">
+      <x:c r="B272" s="2" t="str">
         <x:v>Certification Received
 College Application
 College Acceptance
@@ -55894,68 +55920,81 @@
 College Exit Date
 </x:v>
       </x:c>
-      <x:c r="C270" s="2" t="str">
+      <x:c r="C272" s="2" t="str">
         <x:v>A code describing the type of post-secondary event (e.g., college application or acceptance).</x:v>
       </x:c>
     </x:row>
-    <x:row r="271">
-      <x:c r="A271" s="2" t="str">
+    <x:row r="273">
+      <x:c r="A273" s="2" t="str">
         <x:v>PostSecondaryInstitutionId</x:v>
       </x:c>
-      <x:c r="B271" s="2" t="str">
+      <x:c r="B273" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 30
 </x:v>
       </x:c>
-      <x:c r="C271" s="2" t="str">
+      <x:c r="C273" s="2" t="str">
         <x:v>A unique number or alphanumeric code assigned to the postsecondary organization.</x:v>
       </x:c>
     </x:row>
-    <x:row r="272">
-      <x:c r="A272" s="2" t="str">
+    <x:row r="274">
+      <x:c r="A274" s="2" t="str">
         <x:v>PostSecondaryInstitutionLevelType</x:v>
       </x:c>
-      <x:c r="B272" s="2" t="str">
+      <x:c r="B274" s="2" t="str">
         <x:v>Four or more years
 At least 2 but less than 4 years
 Less than 2 years (below associate)
 </x:v>
       </x:c>
-      <x:c r="C272" s="2" t="str">
+      <x:c r="C274" s="2" t="str">
         <x:v>A classification of whether a post-secondary institution's highest level of offering is a program of 4 years or higher (4 year), 2 but less than 4 years (2 year) or less than 2 years.</x:v>
       </x:c>
     </x:row>
-    <x:row r="273">
-      <x:c r="A273" s="2" t="str">
+    <x:row r="275">
+      <x:c r="A275" s="2" t="str">
         <x:v>PrimarySubjectArea</x:v>
       </x:c>
-      <x:c r="B273" s="2" t="str">
+      <x:c r="B275" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C273" s="2" t="str">
+      <x:c r="C275" s="2" t="str">
         <x:v>The primary subject area identified in the teacher candidates educational programming.</x:v>
       </x:c>
     </x:row>
-    <x:row r="274">
-      <x:c r="A274" s="2" t="str">
+    <x:row r="276">
+      <x:c r="A276" s="2" t="str">
+        <x:v>ProfessionalismScore</x:v>
+      </x:c>
+      <x:c r="B276" s="2" t="str">
+        <x:v>totalDigits: 18
+fractionDigits: 4
+</x:v>
+      </x:c>
+      <x:c r="C276" s="2" t="str">
+        <x:v>The score that reflects the teachers professionalism.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="277">
+      <x:c r="A277" s="2" t="str">
         <x:v>ProfileThumbnail</x:v>
       </x:c>
-      <x:c r="B274" s="2" t="str">
+      <x:c r="B277" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 59
 </x:v>
       </x:c>
-      <x:c r="C274" s="2" t="str">
+      <x:c r="C277" s="2" t="str">
         <x:v>ProfileThumbnail.</x:v>
       </x:c>
     </x:row>
-    <x:row r="275">
-      <x:c r="A275" s="2" t="str">
+    <x:row r="278">
+      <x:c r="A278" s="2" t="str">
         <x:v>ProgramAssignmentMapType</x:v>
       </x:c>
-      <x:c r="B275" s="2" t="str">
+      <x:c r="B278" s="2" t="str">
         <x:v>Regular Education
 Title I-Academic
 Title I-Non-Academic
@@ -55964,53 +56003,53 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C275" s="2" t="str">
+      <x:c r="C278" s="2" t="str">
         <x:v>The name of the education program for which a teacher is assigned to a school.</x:v>
       </x:c>
     </x:row>
-    <x:row r="276">
-      <x:c r="A276" s="2" t="str">
+    <x:row r="279">
+      <x:c r="A279" s="2" t="str">
         <x:v>ProgramCharacteristicMapType</x:v>
       </x:c>
-      <x:c r="B276" s="2" t="str">
+      <x:c r="B279" s="2" t="str">
         <x:v>A McKinney-Vento Program for Homelessness
 </x:v>
       </x:c>
-      <x:c r="C276" s="2" t="str">
+      <x:c r="C279" s="2" t="str">
         <x:v>Reflects important characteristics of the Program, such as categories or particular indications.</x:v>
       </x:c>
     </x:row>
-    <x:row r="277">
-      <x:c r="A277" s="2" t="str">
+    <x:row r="280">
+      <x:c r="A280" s="2" t="str">
         <x:v>ProgramId</x:v>
       </x:c>
-      <x:c r="B277" s="2" t="str">
+      <x:c r="B280" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C277" s="2" t="str">
+      <x:c r="C280" s="2" t="str">
         <x:v>A unique number or alphanumeric code assigned to a program by a school, school system, a state, or other agency or entity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="278">
-      <x:c r="A278" s="2" t="str">
+    <x:row r="281">
+      <x:c r="A281" s="2" t="str">
         <x:v>ProgramName</x:v>
       </x:c>
-      <x:c r="B278" s="2" t="str">
+      <x:c r="B281" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C278" s="2" t="str">
+      <x:c r="C281" s="2" t="str">
         <x:v>The formal name of the program of instruction, training, services, or benefits available through federal, state, or local agencies.</x:v>
       </x:c>
     </x:row>
-    <x:row r="279">
-      <x:c r="A279" s="2" t="str">
+    <x:row r="282">
+      <x:c r="A282" s="2" t="str">
         <x:v>ProgramSponsorType</x:v>
       </x:c>
-      <x:c r="B279" s="2" t="str">
+      <x:c r="B282" s="2" t="str">
         <x:v>Business
 Federal government
 State Education Agency
@@ -56025,15 +56064,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C279" s="2" t="str">
+      <x:c r="C282" s="2" t="str">
         <x:v>Ultimate and intermediate providers of funds for a particular educational or service program or activity or for an individual's participation in the program or activity (e.g., Federal, State, ESC, District, School, Private Org).</x:v>
       </x:c>
     </x:row>
-    <x:row r="280">
-      <x:c r="A280" s="2" t="str">
+    <x:row r="283">
+      <x:c r="A283" s="2" t="str">
         <x:v>ProgramType</x:v>
       </x:c>
-      <x:c r="B280" s="2" t="str">
+      <x:c r="B283" s="2" t="str">
         <x:v>Adult/Continuing Education
 Alternative Education
 Athletics
@@ -56094,15 +56133,15 @@
 Vocational Education
 </x:v>
       </x:c>
-      <x:c r="C280" s="2" t="str">
+      <x:c r="C283" s="2" t="str">
         <x:v>The formal name of the program of instruction, training, services, or benefits available through federal, state, or local agencies.</x:v>
       </x:c>
     </x:row>
-    <x:row r="281">
-      <x:c r="A281" s="2" t="str">
+    <x:row r="284">
+      <x:c r="A284" s="2" t="str">
         <x:v>PublicationStatusType</x:v>
       </x:c>
-      <x:c r="B281" s="2" t="str">
+      <x:c r="B284" s="2" t="str">
         <x:v>Adopted
 Draft
 Published
@@ -56110,28 +56149,28 @@
 Unknown
 </x:v>
       </x:c>
-      <x:c r="C281" s="2" t="str">
+      <x:c r="C284" s="2" t="str">
         <x:v>The publication status of the document (i.e., Adopted, Draft, Published, Deprecated, Unknown).</x:v>
       </x:c>
     </x:row>
-    <x:row r="282">
-      <x:c r="A282" s="2" t="str">
+    <x:row r="285">
+      <x:c r="A285" s="2" t="str">
         <x:v>Publisher</x:v>
       </x:c>
-      <x:c r="B282" s="2" t="str">
+      <x:c r="B285" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C282" s="2" t="str">
+      <x:c r="C285" s="2" t="str">
         <x:v>The organization credited with publishing the resource.</x:v>
       </x:c>
     </x:row>
-    <x:row r="283">
-      <x:c r="A283" s="2" t="str">
+    <x:row r="286">
+      <x:c r="A286" s="2" t="str">
         <x:v>RaceType</x:v>
       </x:c>
-      <x:c r="B283" s="2" t="str">
+      <x:c r="B286" s="2" t="str">
         <x:v>American Indian - Alaskan Native
 Asian
 Black - African American
@@ -56141,67 +56180,67 @@
 White
 </x:v>
       </x:c>
-      <x:c r="C283" s="2" t="str">
+      <x:c r="C286" s="2" t="str">
         <x:v>The enumeration items defining the racial categories which most clearly reflects the individual's recognition of his or her community or with which the individual most identifies.</x:v>
       </x:c>
     </x:row>
-    <x:row r="284">
-      <x:c r="A284" s="2" t="str">
+    <x:row r="287">
+      <x:c r="A287" s="2" t="str">
         <x:v>Rating</x:v>
       </x:c>
-      <x:c r="B284" s="2" t="str">
+      <x:c r="B287" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 35
 </x:v>
       </x:c>
-      <x:c r="C284" s="2" t="str">
+      <x:c r="C287" s="2" t="str">
         <x:v>An accountability rating level, designation, or assessment.</x:v>
       </x:c>
     </x:row>
-    <x:row r="285">
-      <x:c r="A285" s="2" t="str">
+    <x:row r="288">
+      <x:c r="A288" s="2" t="str">
         <x:v>RatingOrganization</x:v>
       </x:c>
-      <x:c r="B285" s="2" t="str">
+      <x:c r="B288" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 35
 </x:v>
       </x:c>
-      <x:c r="C285" s="2" t="str">
+      <x:c r="C288" s="2" t="str">
         <x:v>The organization assigning the accountability rating.</x:v>
       </x:c>
     </x:row>
-    <x:row r="286">
-      <x:c r="A286" s="2" t="str">
+    <x:row r="289">
+      <x:c r="A289" s="2" t="str">
         <x:v>RatingProgram</x:v>
       </x:c>
-      <x:c r="B286" s="2" t="str">
+      <x:c r="B289" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 30
 </x:v>
       </x:c>
-      <x:c r="C286" s="2" t="str">
+      <x:c r="C289" s="2" t="str">
         <x:v>The rating program (e.g., NCLB).</x:v>
       </x:c>
     </x:row>
-    <x:row r="287">
-      <x:c r="A287" s="2" t="str">
+    <x:row r="290">
+      <x:c r="A290" s="2" t="str">
         <x:v>RatingTitleType</x:v>
       </x:c>
-      <x:c r="B287" s="2" t="str">
+      <x:c r="B290" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C287" s="2" t="str">
+      <x:c r="C290" s="2" t="str">
         <x:v>The title of the rating (e.g., School Rating, Safety Score).</x:v>
       </x:c>
     </x:row>
-    <x:row r="288">
-      <x:c r="A288" s="2" t="str">
+    <x:row r="291">
+      <x:c r="A291" s="2" t="str">
         <x:v>ReasonExitedMapType</x:v>
       </x:c>
-      <x:c r="B288" s="2" t="str">
+      <x:c r="B291" s="2" t="str">
         <x:v>Died or is permanently incapacitated
 Reached maximum age
 Discontinued schooling
@@ -56215,15 +56254,15 @@
 Unknown reason
 </x:v>
       </x:c>
-      <x:c r="C288" s="2" t="str">
+      <x:c r="C291" s="2" t="str">
         <x:v>The reason the child left the program within a school or district.</x:v>
       </x:c>
     </x:row>
-    <x:row r="289">
-      <x:c r="A289" s="2" t="str">
+    <x:row r="292">
+      <x:c r="A292" s="2" t="str">
         <x:v>ReasonNotTestedType</x:v>
       </x:c>
-      <x:c r="B289" s="2" t="str">
+      <x:c r="B292" s="2" t="str">
         <x:v>Absent
 LEP exempt
 LEP postponement
@@ -56240,7 +56279,7 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C289" s="2" t="str">
+      <x:c r="C292" s="2" t="str">
         <x:v>The primary reason student is not tested. For example:
     Absent
     Refusal by parent
@@ -56252,24 +56291,24 @@
     '...</x:v>
       </x:c>
     </x:row>
-    <x:row r="290">
-      <x:c r="A290" s="2" t="str">
+    <x:row r="293">
+      <x:c r="A293" s="2" t="str">
         <x:v>RecognitionDescription</x:v>
       </x:c>
-      <x:c r="B290" s="2" t="str">
+      <x:c r="B293" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C290" s="2" t="str">
+      <x:c r="C293" s="2" t="str">
         <x:v>The description of recognition given to the student for accomplishments in a co-curricular or extra-curricular activity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="291">
-      <x:c r="A291" s="2" t="str">
+    <x:row r="294">
+      <x:c r="A294" s="2" t="str">
         <x:v>RecognitionType</x:v>
       </x:c>
-      <x:c r="B291" s="2" t="str">
+      <x:c r="B294" s="2" t="str">
         <x:v>Athletic awards
 Awarding of units of value
 Citizenship award/recognition
@@ -56284,15 +56323,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C291" s="2" t="str">
+      <x:c r="C294" s="2" t="str">
         <x:v>The nature of recognition given to the student for accomplishments in a co-curricular, or extra-curricular activity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="292">
-      <x:c r="A292" s="2" t="str">
+    <x:row r="295">
+      <x:c r="A295" s="2" t="str">
         <x:v>RelationType</x:v>
       </x:c>
-      <x:c r="B292" s="2" t="str">
+      <x:c r="B295" s="2" t="str">
         <x:v>Aunt
 Brother
 BrotherInLaw
@@ -56332,15 +56371,15 @@
 Wife
 </x:v>
       </x:c>
-      <x:c r="C292" s="2" t="str">
+      <x:c r="C295" s="2" t="str">
         <x:v>The nature of an individual's relationship to a student.</x:v>
       </x:c>
     </x:row>
-    <x:row r="293">
-      <x:c r="A293" s="2" t="str">
+    <x:row r="296">
+      <x:c r="A296" s="2" t="str">
         <x:v>RepeatIdentifierType</x:v>
       </x:c>
-      <x:c r="B293" s="2" t="str">
+      <x:c r="B296" s="2" t="str">
         <x:v>Repeated, counted in grade point average
 Repeated, not counted in grade point average
 Replacement counted
@@ -56351,15 +56390,15 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C293" s="2" t="str">
+      <x:c r="C296" s="2" t="str">
         <x:v>An indication as to whether a student has previously taken a given course.</x:v>
       </x:c>
     </x:row>
-    <x:row r="294">
-      <x:c r="A294" s="2" t="str">
+    <x:row r="297">
+      <x:c r="A297" s="2" t="str">
         <x:v>ReporterDescriptionMapType</x:v>
       </x:c>
-      <x:c r="B294" s="2" t="str">
+      <x:c r="B297" s="2" t="str">
         <x:v>Parent/guardian
 Staff
 Student
@@ -56368,41 +56407,41 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C294" s="2" t="str">
+      <x:c r="C297" s="2" t="str">
         <x:v>Information on the type of individual who reported the incident.</x:v>
       </x:c>
     </x:row>
-    <x:row r="295">
-      <x:c r="A295" s="2" t="str">
+    <x:row r="298">
+      <x:c r="A298" s="2" t="str">
         <x:v>ReporterName</x:v>
       </x:c>
-      <x:c r="B295" s="2" t="str">
+      <x:c r="B298" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C295" s="2" t="str">
+      <x:c r="C298" s="2" t="str">
         <x:v>Identifies the reporter of the incident by name.</x:v>
       </x:c>
     </x:row>
-    <x:row r="296">
-      <x:c r="A296" s="2" t="str">
+    <x:row r="299">
+      <x:c r="A299" s="2" t="str">
         <x:v>RequisitionNumber</x:v>
       </x:c>
-      <x:c r="B296" s="2" t="str">
+      <x:c r="B299" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C296" s="2" t="str">
+      <x:c r="C299" s="2" t="str">
         <x:v>The number or identifier assigned to an open staff position, typically a requisition number assigned by Human Resources.</x:v>
       </x:c>
     </x:row>
-    <x:row r="297">
-      <x:c r="A297" s="2" t="str">
+    <x:row r="300">
+      <x:c r="A300" s="2" t="str">
         <x:v>ResidencyStatusMapType</x:v>
       </x:c>
-      <x:c r="B297" s="2" t="str">
+      <x:c r="B300" s="2" t="str">
         <x:v>Resident of administrative unit and usual school attendance area
 Resident of administrative unit, but of other school attendance area
 Resident of this state, but not of this administrative unit
@@ -56410,22 +56449,22 @@
 Resident of another state
 </x:v>
       </x:c>
-      <x:c r="C297" s="2" t="str">
+      <x:c r="C300" s="2" t="str">
         <x:v>An indication of the location of a persons legal residence relative to (within or outside of) the boundaries of the public school attended and its administrative unit.</x:v>
       </x:c>
     </x:row>
-    <x:row r="298">
-      <x:c r="A298" s="2" t="str">
+    <x:row r="301">
+      <x:c r="A301" s="2" t="str">
         <x:v>ResponseIndicatorType</x:v>
       </x:c>
-      <x:c r="B298" s="2" t="str">
+      <x:c r="B301" s="2" t="str">
         <x:v>Nonscorable response
 Ineffective response
 Effective response
 Partial response
 </x:v>
       </x:c>
-      <x:c r="C298" s="2" t="str">
+      <x:c r="C301" s="2" t="str">
         <x:v>Indicator of the response.  For example:
     Nonscorable response
     Ineffective response
@@ -56434,11 +56473,11 @@
     ...</x:v>
       </x:c>
     </x:row>
-    <x:row r="299">
-      <x:c r="A299" s="2" t="str">
+    <x:row r="302">
+      <x:c r="A302" s="2" t="str">
         <x:v>ResponsibilityMapType</x:v>
       </x:c>
-      <x:c r="B299" s="2" t="str">
+      <x:c r="B302" s="2" t="str">
         <x:v>Accountability
 Attendance
 Discipline
@@ -56448,55 +56487,55 @@
 Transportation
 </x:v>
       </x:c>
-      <x:c r="C299" s="2" t="str">
+      <x:c r="C302" s="2" t="str">
         <x:v>Indications of an education organization's responsibility for a student, such as accountability, attendance, funding, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="300">
-      <x:c r="A300" s="2" t="str">
+    <x:row r="303">
+      <x:c r="A303" s="2" t="str">
         <x:v>RestraintEventIdentifier</x:v>
       </x:c>
-      <x:c r="B300" s="2" t="str">
+      <x:c r="B303" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 20
 </x:v>
       </x:c>
-      <x:c r="C300" s="2" t="str">
+      <x:c r="C303" s="2" t="str">
         <x:v>A unique number or alphanumeric code assigned to a restraint event by a school, school system, a state, or other agency or entity.</x:v>
       </x:c>
     </x:row>
-    <x:row r="301">
-      <x:c r="A301" s="2" t="str">
+    <x:row r="304">
+      <x:c r="A304" s="2" t="str">
         <x:v>RestraintEventReasonType</x:v>
       </x:c>
-      <x:c r="B301" s="2" t="str">
+      <x:c r="B304" s="2" t="str">
         <x:v>Imminent Serious Physical Harm To Themselves
 Imminent Serious Physical Harm To Others
 Imminent Serious Property Destruction
 </x:v>
       </x:c>
-      <x:c r="C301" s="2" t="str">
+      <x:c r="C304" s="2" t="str">
         <x:v>The items of categorization of the circumstances or reason for the restraint.</x:v>
       </x:c>
     </x:row>
-    <x:row r="302">
-      <x:c r="A302" s="2" t="str">
+    <x:row r="305">
+      <x:c r="A305" s="2" t="str">
         <x:v>Result</x:v>
       </x:c>
-      <x:c r="B302" s="2" t="str">
+      <x:c r="B305" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 35
 </x:v>
       </x:c>
-      <x:c r="C302" s="2" t="str">
+      <x:c r="C305" s="2" t="str">
         <x:v>A meaningful raw score or statistical expression of the performance of an individual. The results can be expressed as a number, percentile, range, level, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="303">
-      <x:c r="A303" s="2" t="str">
+    <x:row r="306">
+      <x:c r="A306" s="2" t="str">
         <x:v>ResultDatatypeType</x:v>
       </x:c>
-      <x:c r="B303" s="2" t="str">
+      <x:c r="B306" s="2" t="str">
         <x:v>Integer
 Decimal
 Percentage
@@ -56505,22 +56544,22 @@
 Level
 </x:v>
       </x:c>
-      <x:c r="C303" s="2" t="str">
+      <x:c r="C306" s="2" t="str">
         <x:v>The results can be expressed as a number, percentile, range, level, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="304">
-      <x:c r="A304" s="2" t="str">
+    <x:row r="307">
+      <x:c r="A307" s="2" t="str">
         <x:v>RetestIndicatorType</x:v>
       </x:c>
-      <x:c r="B304" s="2" t="str">
+      <x:c r="B307" s="2" t="str">
         <x:v>Primary Administration
 1st Retest
 2nd Retest
 3nd or more Retest
 </x:v>
       </x:c>
-      <x:c r="C304" s="2" t="str">
+      <x:c r="C307" s="2" t="str">
         <x:v>Indicator if the test was retaken.  For example:
     Primary administration
     First retest
@@ -56528,11 +56567,11 @@
     ...</x:v>
       </x:c>
     </x:row>
-    <x:row r="305">
-      <x:c r="A305" s="2" t="str">
+    <x:row r="308">
+      <x:c r="A308" s="2" t="str">
         <x:v>SchoolCategoryType</x:v>
       </x:c>
-      <x:c r="B305" s="2" t="str">
+      <x:c r="B308" s="2" t="str">
         <x:v>All Levels
 Adult School
 Elementary/Secondary School
@@ -56554,60 +56593,60 @@
 Workforce
 </x:v>
       </x:c>
-      <x:c r="C305" s="2" t="str">
+      <x:c r="C308" s="2" t="str">
         <x:v>The category of school. For example: High School, Middle School, Elementary School.</x:v>
       </x:c>
     </x:row>
-    <x:row r="306">
-      <x:c r="A306" s="2" t="str">
+    <x:row r="309">
+      <x:c r="A309" s="2" t="str">
         <x:v>SchoolChoiceImplementStatusType</x:v>
       </x:c>
-      <x:c r="B306" s="2" t="str">
+      <x:c r="B309" s="2" t="str">
         <x:v>Implemented at all grade levels
 Implemented at some but not all grade levels
 Unable to implement at any grades levels
 Not required to implement public school choice
 </x:v>
       </x:c>
-      <x:c r="C306" s="2" t="str">
+      <x:c r="C309" s="2" t="str">
         <x:v>An indication of whether the LEA was able to implement the provisions for public school choice under Title I, Part A, Section 1116 of ESEA, as amended.</x:v>
       </x:c>
     </x:row>
-    <x:row r="307">
-      <x:c r="A307" s="2" t="str">
+    <x:row r="310">
+      <x:c r="A310" s="2" t="str">
         <x:v>SchoolFoodServicesEligibilityMapType</x:v>
       </x:c>
-      <x:c r="B307" s="2" t="str">
+      <x:c r="B310" s="2" t="str">
         <x:v>Free
 Full price
 Reduced price
 Unknown
 </x:v>
       </x:c>
-      <x:c r="C307" s="2" t="str">
+      <x:c r="C310" s="2" t="str">
         <x:v>An indication of a student's level of eligibility for breakfast, lunch, snack, supper, and milk programs.</x:v>
       </x:c>
     </x:row>
-    <x:row r="308">
-      <x:c r="A308" s="2" t="str">
+    <x:row r="311">
+      <x:c r="A311" s="2" t="str">
         <x:v>SchoolType</x:v>
       </x:c>
-      <x:c r="B308" s="2" t="str">
+      <x:c r="B311" s="2" t="str">
         <x:v>Alternative
 Regular
 Special Education
 Career and Technical Education
 </x:v>
       </x:c>
-      <x:c r="C308" s="2" t="str">
+      <x:c r="C311" s="2" t="str">
         <x:v>The type of education institution as classified by its primary focus.</x:v>
       </x:c>
     </x:row>
-    <x:row r="309">
-      <x:c r="A309" s="2" t="str">
+    <x:row r="312">
+      <x:c r="A312" s="2" t="str">
         <x:v>SchoolYearType</x:v>
       </x:c>
-      <x:c r="B309" s="2" t="str">
+      <x:c r="B312" s="2" t="str">
         <x:v>1990-1991
 1991-1992
 1992-1993
@@ -56650,41 +56689,41 @@
 2029-2030
 </x:v>
       </x:c>
-      <x:c r="C309" s="2" t="str">
+      <x:c r="C312" s="2" t="str">
         <x:v>Identifier for a school year.</x:v>
       </x:c>
     </x:row>
-    <x:row r="310">
-      <x:c r="A310" s="2" t="str">
+    <x:row r="313">
+      <x:c r="A313" s="2" t="str">
         <x:v>SecondarySubjectArea</x:v>
       </x:c>
-      <x:c r="B310" s="2" t="str">
+      <x:c r="B313" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C310" s="2" t="str">
+      <x:c r="C313" s="2" t="str">
         <x:v>The secondary subject area identified in the teacher candidates educational programming.</x:v>
       </x:c>
     </x:row>
-    <x:row r="311">
-      <x:c r="A311" s="2" t="str">
+    <x:row r="314">
+      <x:c r="A314" s="2" t="str">
         <x:v>SectionCharacteristicMapType</x:v>
       </x:c>
-      <x:c r="B311" s="2" t="str">
+      <x:c r="B314" s="2" t="str">
         <x:v>Attendance Tracked
 Graded Credit Available
 </x:v>
       </x:c>
-      <x:c r="C311" s="2" t="str">
+      <x:c r="C314" s="2" t="str">
         <x:v>Enumeration items for Section Characteristic.</x:v>
       </x:c>
     </x:row>
-    <x:row r="312">
-      <x:c r="A312" s="2" t="str">
+    <x:row r="315">
+      <x:c r="A315" s="2" t="str">
         <x:v>SeparationReasonMapType</x:v>
       </x:c>
-      <x:c r="B312" s="2" t="str">
+      <x:c r="B315" s="2" t="str">
         <x:v>Employment elsewhere
 Retirement
 Family/personal relocation
@@ -56698,83 +56737,83 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C312" s="2" t="str">
+      <x:c r="C315" s="2" t="str">
         <x:v>Reason for terminating the employment; for example:  Employment in education, Employment outside of education, Retirement, Family/personal relocation, Change of assignment.</x:v>
       </x:c>
     </x:row>
-    <x:row r="313">
-      <x:c r="A313" s="2" t="str">
+    <x:row r="316">
+      <x:c r="A316" s="2" t="str">
         <x:v>SeparationType</x:v>
       </x:c>
-      <x:c r="B313" s="2" t="str">
+      <x:c r="B316" s="2" t="str">
         <x:v>Voluntary separation
 Involuntary separation
 Mutual agreement
 Other
 </x:v>
       </x:c>
-      <x:c r="C313" s="2" t="str">
+      <x:c r="C316" s="2" t="str">
         <x:v>Type of employment separation; for example:  Voluntary separation, Involuntary separation, Mutual agreement. Other, etc.</x:v>
       </x:c>
     </x:row>
-    <x:row r="314">
-      <x:c r="A314" s="2" t="str">
+    <x:row r="317">
+      <x:c r="A317" s="2" t="str">
         <x:v>SequenceOfCourse</x:v>
       </x:c>
-      <x:c r="B314" s="2" t="str">
+      <x:c r="B317" s="2" t="str">
         <x:v>minInclusive: 1
 maxInclusive: 8
 </x:v>
       </x:c>
-      <x:c r="C314" s="2" t="str">
+      <x:c r="C317" s="2" t="str">
         <x:v>When a Section is part of a sequence of parts for a course, the number if the sequence. If the course has only one part, the value of this Section attribute should be 1.</x:v>
       </x:c>
     </x:row>
-    <x:row r="315">
-      <x:c r="A315" s="2" t="str">
+    <x:row r="318">
+      <x:c r="A318" s="2" t="str">
         <x:v>ServiceCategory</x:v>
       </x:c>
-      <x:c r="B315" s="2" t="str">
+      <x:c r="B318" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 50
 </x:v>
       </x:c>
-      <x:c r="C315" s="2" t="str">
+      <x:c r="C318" s="2" t="str">
         <x:v>The category of service provided by a program.</x:v>
       </x:c>
     </x:row>
-    <x:row r="316">
-      <x:c r="A316" s="2" t="str">
+    <x:row r="319">
+      <x:c r="A319" s="2" t="str">
         <x:v>SexType</x:v>
       </x:c>
-      <x:c r="B316" s="2" t="str">
+      <x:c r="B319" s="2" t="str">
         <x:v>Female
 Male
 Not Selected
 </x:v>
       </x:c>
-      <x:c r="C316" s="2" t="str">
+      <x:c r="C319" s="2" t="str">
         <x:v>A person's gender.</x:v>
       </x:c>
     </x:row>
-    <x:row r="317">
-      <x:c r="A317" s="2" t="str">
+    <x:row r="320">
+      <x:c r="A320" s="2" t="str">
         <x:v>ShortDescription</x:v>
       </x:c>
-      <x:c r="B317" s="2" t="str">
+      <x:c r="B320" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 75
 </x:v>
       </x:c>
-      <x:c r="C317" s="2" t="str">
+      <x:c r="C320" s="2" t="str">
         <x:v>A shortened description for reference.</x:v>
       </x:c>
     </x:row>
-    <x:row r="318">
-      <x:c r="A318" s="2" t="str">
+    <x:row r="321">
+      <x:c r="A321" s="2" t="str">
         <x:v>SpecialEducationSettingMapType</x:v>
       </x:c>
-      <x:c r="B318" s="2" t="str">
+      <x:c r="B321" s="2" t="str">
         <x:v>Inside regular class 80% or more of the day
 Inside regular class no more than 79% of day and no less than 40% of the day
 Inside regular class less than 40% of the day
@@ -56785,15 +56824,15 @@
 Parentally-placed in Private Schools
 </x:v>
       </x:c>
-      <x:c r="C318" s="2" t="str">
+      <x:c r="C321" s="2" t="str">
         <x:v>The major instructional setting (more than 50 percent of a student's special education program).</x:v>
       </x:c>
     </x:row>
-    <x:row r="319">
-      <x:c r="A319" s="2" t="str">
+    <x:row r="322">
+      <x:c r="A322" s="2" t="str">
         <x:v>StaffClassificationMapType</x:v>
       </x:c>
-      <x:c r="B319" s="2" t="str">
+      <x:c r="B322" s="2" t="str">
         <x:v>Assistant Principal
 Assistant Superintendent
 Counselor
@@ -56828,15 +56867,15 @@
 Mentor Teacher
 </x:v>
       </x:c>
-      <x:c r="C319" s="2" t="str">
+      <x:c r="C322" s="2" t="str">
         <x:v>An individual's title of employment, official status or rank.</x:v>
       </x:c>
     </x:row>
-    <x:row r="320">
-      <x:c r="A320" s="2" t="str">
+    <x:row r="323">
+      <x:c r="A323" s="2" t="str">
         <x:v>StaffIdentificationSystemMapType</x:v>
       </x:c>
-      <x:c r="B320" s="2" t="str">
+      <x:c r="B323" s="2" t="str">
         <x:v>Canadian SIN
 District
 Drivers License
@@ -56854,15 +56893,15 @@
 Other Federal
 </x:v>
       </x:c>
-      <x:c r="C320" s="2" t="str">
+      <x:c r="C323" s="2" t="str">
         <x:v>A coding scheme that is used for identification and record-keeping purposes by schools, social services or other agencies to refer to a staff member.</x:v>
       </x:c>
     </x:row>
-    <x:row r="321">
-      <x:c r="A321" s="2" t="str">
+    <x:row r="324">
+      <x:c r="A324" s="2" t="str">
         <x:v>StateAbbreviationType</x:v>
       </x:c>
-      <x:c r="B321" s="2" t="str">
+      <x:c r="B324" s="2" t="str">
         <x:v>AA
 AE
 AK
@@ -56927,41 +56966,41 @@
 WY
 </x:v>
       </x:c>
-      <x:c r="C321" s="2" t="str">
+      <x:c r="C324" s="2" t="str">
         <x:v>The abbreviation for the state (within the United States) or outlying area in which an address is located.</x:v>
       </x:c>
     </x:row>
-    <x:row r="322">
-      <x:c r="A322" s="2" t="str">
+    <x:row r="325">
+      <x:c r="A325" s="2" t="str">
         <x:v>Statement</x:v>
       </x:c>
-      <x:c r="B322" s="2" t="str">
+      <x:c r="B325" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 150
 </x:v>
       </x:c>
-      <x:c r="C322" s="2" t="str">
+      <x:c r="C325" s="2" t="str">
         <x:v>A statement or reference describing the evidence that the learner met the criteria for attainment of the achievement.</x:v>
       </x:c>
     </x:row>
-    <x:row r="323">
-      <x:c r="A323" s="2" t="str">
+    <x:row r="326">
+      <x:c r="A326" s="2" t="str">
         <x:v>StreetNumberName</x:v>
       </x:c>
-      <x:c r="B323" s="2" t="str">
+      <x:c r="B326" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 150
 </x:v>
       </x:c>
-      <x:c r="C323" s="2" t="str">
+      <x:c r="C326" s="2" t="str">
         <x:v>The street number and street name or post office box number of an address.</x:v>
       </x:c>
     </x:row>
-    <x:row r="324">
-      <x:c r="A324" s="2" t="str">
+    <x:row r="327">
+      <x:c r="A327" s="2" t="str">
         <x:v>StudentCharacteristicMapType</x:v>
       </x:c>
-      <x:c r="B324" s="2" t="str">
+      <x:c r="B327" s="2" t="str">
         <x:v>Asylee
 Displaced Homemaker
 Foster Care
@@ -56979,15 +57018,15 @@
 Unaccompanied Youth
 </x:v>
       </x:c>
-      <x:c r="C324" s="2" t="str">
+      <x:c r="C327" s="2" t="str">
         <x:v>Enumeration items for the important characteristics of the student's home situation: Displaced Homemaker, Homeless, Immigrant, Migratory, Military Parent, Pregnant Teen, Single Parent, and Unaccompanied Youth.</x:v>
       </x:c>
     </x:row>
-    <x:row r="325">
-      <x:c r="A325" s="2" t="str">
+    <x:row r="328">
+      <x:c r="A328" s="2" t="str">
         <x:v>StudentIdentificationSystemMapType</x:v>
       </x:c>
-      <x:c r="B325" s="2" t="str">
+      <x:c r="B328" s="2" t="str">
         <x:v>Canadian SIN
 District
 Family
@@ -57001,30 +57040,43 @@
 State Migrant
 </x:v>
       </x:c>
-      <x:c r="C325" s="2" t="str">
+      <x:c r="C328" s="2" t="str">
         <x:v>A coding scheme that is used for identification and record-keeping purposes by schools, social services or other agencies to refer to a student.</x:v>
       </x:c>
     </x:row>
-    <x:row r="326">
-      <x:c r="A326" s="2" t="str">
+    <x:row r="329">
+      <x:c r="A329" s="2" t="str">
         <x:v>StudentParticipationCodeType</x:v>
       </x:c>
-      <x:c r="B326" s="2" t="str">
+      <x:c r="B329" s="2" t="str">
         <x:v>Victim
 Perpetrator
 Witness
 Reporter
 </x:v>
       </x:c>
-      <x:c r="C326" s="2" t="str">
+      <x:c r="C329" s="2" t="str">
         <x:v>The role or type of participation of a student in a discipline incident; for example: Victim, Perpetrator, Witness, Reporter.</x:v>
       </x:c>
     </x:row>
-    <x:row r="327">
-      <x:c r="A327" s="2" t="str">
+    <x:row r="330">
+      <x:c r="A330" s="2" t="str">
+        <x:v>SurveyScore</x:v>
+      </x:c>
+      <x:c r="B330" s="2" t="str">
+        <x:v>totalDigits: 18
+fractionDigits: 4
+</x:v>
+      </x:c>
+      <x:c r="C330" s="2" t="str">
+        <x:v>The score that reflects the teachers survey rating.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="331">
+      <x:c r="A331" s="2" t="str">
         <x:v>TeachingCredentialBasisType</x:v>
       </x:c>
-      <x:c r="B327" s="2" t="str">
+      <x:c r="B331" s="2" t="str">
         <x:v>4-year bachelor's degree
 5-year bachelor's degree
 Master's degree
@@ -57035,15 +57087,15 @@
 Credentials based on reciprocation with another state
 </x:v>
       </x:c>
-      <x:c r="C327" s="2" t="str">
+      <x:c r="C331" s="2" t="str">
         <x:v>An indication of the pre-determined criteria for granting the teaching credential that an individual holds.</x:v>
       </x:c>
     </x:row>
-    <x:row r="328">
-      <x:c r="A328" s="2" t="str">
+    <x:row r="332">
+      <x:c r="A332" s="2" t="str">
         <x:v>TeachingCredentialMapType</x:v>
       </x:c>
-      <x:c r="B328" s="2" t="str">
+      <x:c r="B332" s="2" t="str">
         <x:v>Emergency
 Intern
 Master
@@ -57061,28 +57113,28 @@
 Temporary
 </x:v>
       </x:c>
-      <x:c r="C328" s="2" t="str">
+      <x:c r="C332" s="2" t="str">
         <x:v>An indication of the category of a legal document giving authorization to perform teaching assignment services.</x:v>
       </x:c>
     </x:row>
-    <x:row r="329">
-      <x:c r="A329" s="2" t="str">
+    <x:row r="333">
+      <x:c r="A333" s="2" t="str">
         <x:v>TelephoneNumber</x:v>
       </x:c>
-      <x:c r="B329" s="2" t="str">
+      <x:c r="B333" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 24
 </x:v>
       </x:c>
-      <x:c r="C329" s="2" t="str">
+      <x:c r="C333" s="2" t="str">
         <x:v>The telephone number including the area code, and extension, if applicable.</x:v>
       </x:c>
     </x:row>
-    <x:row r="330">
-      <x:c r="A330" s="2" t="str">
+    <x:row r="334">
+      <x:c r="A334" s="2" t="str">
         <x:v>TelephoneNumberType</x:v>
       </x:c>
-      <x:c r="B330" s="2" t="str">
+      <x:c r="B334" s="2" t="str">
         <x:v>Fax
 Emergency 1
 Emergency 2
@@ -57093,15 +57145,15 @@
 Work
 </x:v>
       </x:c>
-      <x:c r="C330" s="2" t="str">
+      <x:c r="C334" s="2" t="str">
         <x:v>The type of communication number listed for an individual.</x:v>
       </x:c>
     </x:row>
-    <x:row r="331">
-      <x:c r="A331" s="2" t="str">
+    <x:row r="335">
+      <x:c r="A335" s="2" t="str">
         <x:v>TermMapType</x:v>
       </x:c>
-      <x:c r="B331" s="2" t="str">
+      <x:c r="B335" s="2" t="str">
         <x:v>Semester
 Trimester
 Year Round
@@ -57110,26 +57162,26 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C331" s="2" t="str">
+      <x:c r="C335" s="2" t="str">
         <x:v>The type of the session during the school year (e.g., Fall Semester).</x:v>
       </x:c>
     </x:row>
-    <x:row r="332">
-      <x:c r="A332" s="2" t="str">
+    <x:row r="336">
+      <x:c r="A336" s="2" t="str">
         <x:v>TimeInterval</x:v>
       </x:c>
-      <x:c r="B332" s="2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="C332" s="2" t="str">
+      <x:c r="B336" s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C336" s="2" t="str">
         <x:v>A period of time with fixed, well-defined limits.</x:v>
       </x:c>
     </x:row>
-    <x:row r="333">
-      <x:c r="A333" s="2" t="str">
+    <x:row r="337">
+      <x:c r="A337" s="2" t="str">
         <x:v>TitleIPartAParticipantType</x:v>
       </x:c>
-      <x:c r="B333" s="2" t="str">
+      <x:c r="B337" s="2" t="str">
         <x:v>Public Targeted Assistance Program
 Public Schoolwide Program
 Private school students participating
@@ -57137,15 +57189,15 @@
 Was not served
 </x:v>
       </x:c>
-      <x:c r="C333" s="2" t="str">
+      <x:c r="C337" s="2" t="str">
         <x:v>An indication of the type of Title I program, if any, in which the student is participating and served.</x:v>
       </x:c>
     </x:row>
-    <x:row r="334">
-      <x:c r="A334" s="2" t="str">
+    <x:row r="338">
+      <x:c r="A338" s="2" t="str">
         <x:v>TitleIPartASchoolDesignationType</x:v>
       </x:c>
-      <x:c r="B334" s="2" t="str">
+      <x:c r="B338" s="2" t="str">
         <x:v>Not designated as a Title I Part A school
 Title I Part A Schoolwide Assistance Program School
 Title I Part A Targeted Assistance School
@@ -57155,117 +57207,143 @@
 Title I school wide eligible school - no program
 </x:v>
       </x:c>
-      <x:c r="C334" s="2" t="str">
+      <x:c r="C338" s="2" t="str">
         <x:v>Denotes the Title I Part A designation for the school.</x:v>
       </x:c>
     </x:row>
-    <x:row r="335">
-      <x:c r="A335" s="2" t="str">
+    <x:row r="339">
+      <x:c r="A339" s="2" t="str">
+        <x:v>TotalEvalPoints</x:v>
+      </x:c>
+      <x:c r="B339" s="2" t="str">
+        <x:v>totalDigits: 18
+fractionDigits: 4
+</x:v>
+      </x:c>
+      <x:c r="C339" s="2" t="str">
+        <x:v>The score that reflects the teachers total evalutation.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="340">
+      <x:c r="A340" s="2" t="str">
         <x:v>TotalInstructionalDays</x:v>
       </x:c>
-      <x:c r="B335" s="2" t="str">
+      <x:c r="B340" s="2" t="str">
         <x:v>minInclusive: 0
 </x:v>
       </x:c>
-      <x:c r="C335" s="2" t="str">
+      <x:c r="C340" s="2" t="str">
         <x:v>Total days available for educational instruction during the grading period.</x:v>
       </x:c>
     </x:row>
-    <x:row r="336">
-      <x:c r="A336" s="2" t="str">
+    <x:row r="341">
+      <x:c r="A341" s="2" t="str">
         <x:v>TypeOfCertification</x:v>
       </x:c>
-      <x:c r="B336" s="2" t="str">
+      <x:c r="B341" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 60
 </x:v>
       </x:c>
-      <x:c r="C336" s="2" t="str">
+      <x:c r="C341" s="2" t="str">
         <x:v>The type of credential received.</x:v>
       </x:c>
     </x:row>
-    <x:row r="337">
-      <x:c r="A337" s="2" t="str">
+    <x:row r="342">
+      <x:c r="A342" s="2" t="str">
         <x:v>TypeOfSurvey</x:v>
       </x:c>
-      <x:c r="B337" s="2" t="str">
+      <x:c r="B342" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 32
 </x:v>
       </x:c>
-      <x:c r="C337" s="2" t="str">
+      <x:c r="C342" s="2" t="str">
         <x:v>The type of survey that was received</x:v>
       </x:c>
     </x:row>
-    <x:row r="338">
-      <x:c r="A338" s="2" t="str">
+    <x:row r="343">
+      <x:c r="A343" s="2" t="str">
         <x:v>UniqueId</x:v>
       </x:c>
-      <x:c r="B338" s="2" t="str">
+      <x:c r="B343" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 32
 </x:v>
       </x:c>
-      <x:c r="C338" s="2" t="str">
+      <x:c r="C343" s="2" t="str">
         <x:v>A unique alphanumeric code assigned to a person by a system managing unique identifiers.</x:v>
       </x:c>
     </x:row>
-    <x:row r="339">
-      <x:c r="A339" s="2" t="str">
+    <x:row r="344">
+      <x:c r="A344" s="2" t="str">
         <x:v>UniqueSectionCode</x:v>
       </x:c>
-      <x:c r="B339" s="2" t="str">
+      <x:c r="B344" s="2" t="str">
         <x:v>minLength: 1
 maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C339" s="2" t="str">
+      <x:c r="C344" s="2" t="str">
         <x:v>A unique identifier for the Section, that is defined by the classroom, the subjects taught, and the instructors that are assigned.</x:v>
       </x:c>
     </x:row>
-    <x:row r="340">
-      <x:c r="A340" s="2" t="str">
+    <x:row r="345">
+      <x:c r="A345" s="2" t="str">
         <x:v>URI</x:v>
       </x:c>
-      <x:c r="B340" s="2" t="str">
+      <x:c r="B345" s="2" t="str">
         <x:v>minLength: 5
 maxLength: 255
 </x:v>
       </x:c>
-      <x:c r="C340" s="2" t="str">
+      <x:c r="C345" s="2" t="str">
         <x:v>The public web site address (URL), file, or ftp locator.</x:v>
       </x:c>
     </x:row>
-    <x:row r="341">
-      <x:c r="A341" s="2" t="str">
+    <x:row r="346">
+      <x:c r="A346" s="2" t="str">
         <x:v>ValueType</x:v>
       </x:c>
-      <x:c r="B341" s="2" t="str">
+      <x:c r="B346" s="2" t="str">
         <x:v>Actual
 Projected
 Other
 </x:v>
       </x:c>
-      <x:c r="C341" s="2" t="str">
+      <x:c r="C346" s="2" t="str">
         <x:v>The type (i.e. actual or projected) of value.</x:v>
       </x:c>
     </x:row>
-    <x:row r="342">
-      <x:c r="A342" s="2" t="str">
+    <x:row r="347">
+      <x:c r="A347" s="2" t="str">
+        <x:v>VASOverallScore</x:v>
+      </x:c>
+      <x:c r="B347" s="2" t="str">
+        <x:v>totalDigits: 18
+fractionDigits: 4
+</x:v>
+      </x:c>
+      <x:c r="C347" s="2" t="str">
+        <x:v>The overall value added score provided for the teacher.</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="348">
+      <x:c r="A348" s="2" t="str">
         <x:v>Version</x:v>
       </x:c>
-      <x:c r="B342" s="2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="C342" s="2" t="str">
+      <x:c r="B348" s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C348" s="2" t="str">
         <x:v>The version identifier for the assessment.</x:v>
       </x:c>
     </x:row>
-    <x:row r="343">
-      <x:c r="A343" s="2" t="str">
+    <x:row r="349">
+      <x:c r="A349" s="2" t="str">
         <x:v>VisaType</x:v>
       </x:c>
-      <x:c r="B343" s="2" t="str">
+      <x:c r="B349" s="2" t="str">
         <x:v>F1 - Foreign Student Visa
 M1 - Foreign Student pursuing vocational or non-academic studies Visa
 H1 - Employment Visa
@@ -57275,15 +57353,15 @@
 Other Visa
 </x:v>
       </x:c>
-      <x:c r="C343" s="2" t="str">
+      <x:c r="C349" s="2" t="str">
         <x:v>An indicator of a non-U.S. citizen's Visa type.</x:v>
       </x:c>
     </x:row>
-    <x:row r="344">
-      <x:c r="A344" s="2" t="str">
+    <x:row r="350">
+      <x:c r="A350" s="2" t="str">
         <x:v>WeaponMapType</x:v>
       </x:c>
-      <x:c r="B344" s="2" t="str">
+      <x:c r="B350" s="2" t="str">
         <x:v>Handgun
 Rifle/Shotgun
 Other Firearm
@@ -57296,20 +57374,20 @@
 Other
 </x:v>
       </x:c>
-      <x:c r="C344" s="2" t="str">
+      <x:c r="C350" s="2" t="str">
         <x:v>The category for the types of weapon used during an incident.</x:v>
       </x:c>
     </x:row>
-    <x:row r="345">
-      <x:c r="A345" s="2" t="str">
+    <x:row r="351">
+      <x:c r="A351" s="2" t="str">
         <x:v>WeekIdentifier</x:v>
       </x:c>
-      <x:c r="B345" s="2" t="str">
+      <x:c r="B351" s="2" t="str">
         <x:v>minLength: 5
 maxLength: 80
 </x:v>
       </x:c>
-      <x:c r="C345" s="2" t="str">
+      <x:c r="C351" s="2" t="str">
         <x:v>The school label for the academic week.</x:v>
       </x:c>
     </x:row>
